--- a/S3-Tech.xlsx
+++ b/S3-Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icwahs-my.sharepoint.com/personal/khalaf_icwahs_com/Documents/Imua Learning/Clients/Pearson/Scott/Phase 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E298CA9-0EBD-45D2-AC88-357F41C09CE2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEC5B8F-D693-44D2-819F-21E9262D49C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE592E6F-F01F-468C-AF5F-9E7F7798B29B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="927">
   <si>
     <t>ID</t>
   </si>
@@ -2814,9 +2814,6 @@
   </si>
   <si>
     <t>Created two new user accounts.</t>
-  </si>
-  <si>
-    <t>2/29/2025</t>
   </si>
   <si>
     <t>User Satisfaction</t>
@@ -2865,10 +2862,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -2898,10 +2895,10 @@
     <tableColumn id="6" xr3:uid="{48BBDBA0-2B01-435B-A929-54C3A5B024F1}" name="Tech comments"/>
     <tableColumn id="7" xr3:uid="{AADF69E2-55CC-4D72-934B-D7B52C08DF18}" name="Solution"/>
     <tableColumn id="8" xr3:uid="{E56767A5-4CBE-486C-90E4-885019A3BC79}" name="Status"/>
-    <tableColumn id="10" xr3:uid="{FB16224D-5FEC-42FF-9283-5214FF5B9EF4}" name="User Satisfaction" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{FB16224D-5FEC-42FF-9283-5214FF5B9EF4}" name="User Satisfaction" dataDxfId="1">
       <calculatedColumnFormula>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3226,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF30E43-8930-4EEE-A19D-BFEE4487A713}">
   <dimension ref="A1:J701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K160" sqref="K160"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3267,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -15391,8 +15388,8 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" t="s">
-        <v>926</v>
+      <c r="B369" s="1">
+        <v>45716</v>
       </c>
       <c r="C369" t="s">
         <v>805</v>

--- a/S3-Tech.xlsx
+++ b/S3-Tech.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icwahs-my.sharepoint.com/personal/khalaf_icwahs_com/Documents/Imua Learning/Clients/Pearson/Scott/Phase 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEC5B8F-D693-44D2-819F-21E9262D49C9}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698DBA87-F8A6-40FE-A8F1-5BD9628E78EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE592E6F-F01F-468C-AF5F-9E7F7798B29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4917" uniqueCount="933">
   <si>
     <t>ID</t>
   </si>
@@ -2816,7 +2817,25 @@
     <t>Created two new user accounts.</t>
   </si>
   <si>
-    <t>User Satisfaction</t>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Completely Satisfied</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Dissatisfied</t>
+  </si>
+  <si>
+    <t>Completely Dissatisfied</t>
   </si>
 </sst>
 </file>
@@ -2855,17 +2874,61 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCBF7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF63BE7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEF9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -2883,22 +2946,35 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{410CCD1D-D6B2-4C04-9661-57B8723065FE}" name="Table2" displayName="Table2" ref="A1:J701" totalsRowShown="0">
   <autoFilter ref="A1:J701" xr:uid="{410CCD1D-D6B2-4C04-9661-57B8723065FE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98DABDFF-6695-49E4-ACB6-E0DB9CF1E3BE}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A24E00D0-269A-40F4-8690-A3E7D66794B5}" name="Open Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A24E00D0-269A-40F4-8690-A3E7D66794B5}" name="Open Date" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{C57133BB-E3FF-42E5-AD88-5DCB5CFFB614}" name="Issue"/>
     <tableColumn id="4" xr3:uid="{7DE35DE7-CD87-40BF-A093-D23A5DEE82C8}" name="Category"/>
     <tableColumn id="5" xr3:uid="{35DBCFFB-844A-4A05-BB5D-399E0653F071}" name="User comments"/>
     <tableColumn id="6" xr3:uid="{48BBDBA0-2B01-435B-A929-54C3A5B024F1}" name="Tech comments"/>
     <tableColumn id="7" xr3:uid="{AADF69E2-55CC-4D72-934B-D7B52C08DF18}" name="Solution"/>
     <tableColumn id="8" xr3:uid="{E56767A5-4CBE-486C-90E4-885019A3BC79}" name="Status"/>
-    <tableColumn id="10" xr3:uid="{FB16224D-5FEC-42FF-9283-5214FF5B9EF4}" name="User Satisfaction" dataDxfId="1">
-      <calculatedColumnFormula>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F7DE8525-6DDA-49D4-A579-830E52DB0605}" name="Satisfied" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AC01C7C-C624-47AD-B6C9-88B77F6685DC}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{8AC01C7C-C624-47AD-B6C9-88B77F6685DC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F24E0862-266F-455F-9952-BC1B0FDDAA73}" name="Rating"/>
+    <tableColumn id="2" xr3:uid="{BC6007EF-BB36-49BF-B759-6880E00F515B}" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3223,21 +3299,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF30E43-8930-4EEE-A19D-BFEE4487A713}">
   <dimension ref="A1:J701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="147.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="103" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3245,7 +3321,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -3267,9 +3343,9 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>926</v>
-      </c>
-      <c r="J1" t="s">
+        <v>929</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3298,9 +3374,8 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I2" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J2" s="1">
         <v>45493</v>
@@ -3331,9 +3406,8 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I3" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J3" s="1">
         <v>45509</v>
@@ -3364,9 +3438,8 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I4" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J4" s="1">
         <v>45536</v>
@@ -3397,9 +3470,8 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I5" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J5" s="1">
         <v>45575</v>
@@ -3430,9 +3502,8 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I6" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J6" s="1">
         <v>45612</v>
@@ -3463,9 +3534,8 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I7" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J7" s="1">
         <v>45628</v>
@@ -3496,9 +3566,8 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I8" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J8" s="1">
         <v>45677</v>
@@ -3529,9 +3598,8 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I9" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J9" s="1">
         <v>45693</v>
@@ -3562,9 +3630,8 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I10" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J10" s="1">
         <v>45727</v>
@@ -3595,9 +3662,8 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I11" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J11" s="1">
         <v>45763</v>
@@ -3628,9 +3694,8 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I12" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J12" s="1">
         <v>45778</v>
@@ -3661,9 +3726,8 @@
       <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I13" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J13" s="1">
         <v>45809</v>
@@ -3694,9 +3758,8 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I14" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J14" s="1">
         <v>45475</v>
@@ -3727,9 +3790,8 @@
       <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I15" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J15" s="1">
         <v>45514</v>
@@ -3760,9 +3822,8 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I16" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J16" s="1">
         <v>45540</v>
@@ -3793,9 +3854,8 @@
       <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I17" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J17" s="1">
         <v>45585</v>
@@ -3826,9 +3886,8 @@
       <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I18" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J18" s="1">
         <v>45621</v>
@@ -3859,9 +3918,8 @@
       <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I19" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J19" s="1">
         <v>45636</v>
@@ -3892,9 +3950,8 @@
       <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I20" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J20" s="1">
         <v>45662</v>
@@ -3925,9 +3982,8 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I21" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J21" s="1">
         <v>45703</v>
@@ -3958,9 +4014,8 @@
       <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I22" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J22" s="1">
         <v>45737</v>
@@ -3991,9 +4046,8 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I23" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J23" s="1">
         <v>45748</v>
@@ -4024,9 +4078,8 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I24" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J24" s="1">
         <v>45787</v>
@@ -4057,9 +4110,8 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I25" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J25" s="1">
         <v>45813</v>
@@ -4090,9 +4142,8 @@
       <c r="H26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I26" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J26" s="1">
         <v>45488</v>
@@ -4123,9 +4174,8 @@
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I27" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J27" s="1">
         <v>45524</v>
@@ -4156,9 +4206,8 @@
       <c r="H28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I28" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J28" s="1">
         <v>45545</v>
@@ -4189,9 +4238,8 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I29" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J29" s="1">
         <v>45590</v>
@@ -4222,9 +4270,8 @@
       <c r="H30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I30" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J30" s="1">
         <v>45598</v>
@@ -4255,9 +4302,8 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I31" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J31" s="1">
         <v>45641</v>
@@ -4288,9 +4334,8 @@
       <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I32" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J32" s="1">
         <v>45668</v>
@@ -4321,9 +4366,8 @@
       <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I33" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J33" s="1">
         <v>45708</v>
@@ -4354,9 +4398,8 @@
       <c r="H34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I34" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J34" s="1">
         <v>45721</v>
@@ -4387,9 +4430,8 @@
       <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I35" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J35" s="1">
         <v>45757</v>
@@ -4420,9 +4462,8 @@
       <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I36" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J36" s="1">
         <v>45792</v>
@@ -4453,9 +4494,8 @@
       <c r="H37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I37" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J37" s="1">
         <v>45818</v>
@@ -4486,9 +4526,8 @@
       <c r="H38" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I38" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J38" s="1">
         <v>45474</v>
@@ -4519,9 +4558,8 @@
       <c r="H39" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I39" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J39" s="1">
         <v>45505</v>
@@ -4552,9 +4590,8 @@
       <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I40" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J40" s="1">
         <v>45537</v>
@@ -4585,9 +4622,8 @@
       <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I41" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J41" s="1">
         <v>45566</v>
@@ -4618,9 +4654,8 @@
       <c r="H42" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I42" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J42" s="1">
         <v>45606</v>
@@ -4651,9 +4686,8 @@
       <c r="H43" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I43" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J43" s="1">
         <v>45628</v>
@@ -4684,9 +4718,8 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I44" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J44" s="1">
         <v>45659</v>
@@ -4717,9 +4750,8 @@
       <c r="H45" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I45" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J45" s="1">
         <v>45690</v>
@@ -4750,9 +4782,8 @@
       <c r="H46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I46" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J46" s="1">
         <v>45717</v>
@@ -4783,9 +4814,8 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I47" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J47" s="1">
         <v>45749</v>
@@ -4816,9 +4846,8 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I48" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J48" s="1">
         <v>45779</v>
@@ -4849,9 +4878,8 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I49" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J49" s="1">
         <v>45810</v>
@@ -4882,9 +4910,8 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I50" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J50" s="1">
         <v>45476</v>
@@ -4915,9 +4942,8 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I51" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J51" s="1">
         <v>45507</v>
@@ -4948,9 +4974,8 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I52" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J52" s="1">
         <v>45538</v>
@@ -4981,9 +5006,8 @@
       <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I53" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J53" s="1">
         <v>45568</v>
@@ -5014,9 +5038,8 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I54" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J54" s="1">
         <v>45599</v>
@@ -5047,9 +5070,8 @@
       <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I55" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J55" s="1">
         <v>45629</v>
@@ -5080,9 +5102,8 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I56" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J56" s="1">
         <v>45660</v>
@@ -5113,9 +5134,8 @@
       <c r="H57" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I57" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J57" s="1">
         <v>45692</v>
@@ -5146,9 +5166,8 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I58" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J58" s="1">
         <v>45719</v>
@@ -5179,9 +5198,8 @@
       <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I59" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J59" s="1">
         <v>45750</v>
@@ -5212,9 +5230,8 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I60" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J60" s="1">
         <v>45780</v>
@@ -5245,9 +5262,8 @@
       <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I61" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J61" s="1">
         <v>45811</v>
@@ -5278,9 +5294,8 @@
       <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I62" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J62" s="1">
         <v>45477</v>
@@ -5311,9 +5326,8 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I63" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J63" s="1">
         <v>45508</v>
@@ -5344,9 +5358,8 @@
       <c r="H64" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I64" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J64" s="1">
         <v>45539</v>
@@ -5377,9 +5390,8 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I65" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J65" s="1">
         <v>45569</v>
@@ -5410,9 +5422,8 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I66" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J66" s="1">
         <v>45600</v>
@@ -5443,9 +5454,8 @@
       <c r="H67" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I67" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J67" s="1">
         <v>45631</v>
@@ -5476,9 +5486,8 @@
       <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I68" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J68" s="1">
         <v>45661</v>
@@ -5509,9 +5518,8 @@
       <c r="H69" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I69" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J69" s="1">
         <v>45693</v>
@@ -5542,9 +5550,8 @@
       <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I70" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J70" s="1">
         <v>45720</v>
@@ -5575,9 +5582,8 @@
       <c r="H71" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I71" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J71" s="1">
         <v>45751</v>
@@ -5608,9 +5614,8 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I72" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J72" s="1">
         <v>45781</v>
@@ -5641,9 +5646,8 @@
       <c r="H73" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I73" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J73" s="1">
         <v>45812</v>
@@ -5674,9 +5678,8 @@
       <c r="H74" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I74" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J74" s="1">
         <v>45478</v>
@@ -5707,9 +5710,8 @@
       <c r="H75" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I75" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J75" s="1">
         <v>45509</v>
@@ -5740,9 +5742,8 @@
       <c r="H76" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I76" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J76" s="1">
         <v>45540</v>
@@ -5773,9 +5774,8 @@
       <c r="H77" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I77" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J77" s="1">
         <v>45571</v>
@@ -5806,9 +5806,8 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I78" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J78" s="1">
         <v>45601</v>
@@ -5839,9 +5838,8 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I79" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J79" s="1">
         <v>45631</v>
@@ -5872,9 +5870,8 @@
       <c r="H80" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I80" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J80" s="1">
         <v>45662</v>
@@ -5905,9 +5902,8 @@
       <c r="H81" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I81" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J81" s="1">
         <v>45693</v>
@@ -5938,9 +5934,8 @@
       <c r="H82" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I82" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J82" s="1">
         <v>45721</v>
@@ -5971,9 +5966,8 @@
       <c r="H83" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I83" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J83" s="1">
         <v>45752</v>
@@ -6004,9 +5998,8 @@
       <c r="H84" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I84" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J84" s="1">
         <v>45782</v>
@@ -6037,9 +6030,8 @@
       <c r="H85" t="s">
         <v>33</v>
       </c>
-      <c r="I85" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I85" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J85" s="1">
         <v>45814</v>
@@ -6070,9 +6062,8 @@
       <c r="H86" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I86" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J86" s="1">
         <v>45479</v>
@@ -6103,9 +6094,8 @@
       <c r="H87" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I87" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J87" s="1">
         <v>45510</v>
@@ -6136,9 +6126,8 @@
       <c r="H88" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I88" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J88" s="1">
         <v>45541</v>
@@ -6169,9 +6158,8 @@
       <c r="H89" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I89" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J89" s="1">
         <v>45571</v>
@@ -6202,9 +6190,8 @@
       <c r="H90" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I90" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J90" s="1">
         <v>45602</v>
@@ -6235,9 +6222,8 @@
       <c r="H91" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I91" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J91" s="1">
         <v>45632</v>
@@ -6268,9 +6254,8 @@
       <c r="H92" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I92" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J92" s="1">
         <v>45663</v>
@@ -6301,9 +6286,8 @@
       <c r="H93" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I93" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J93" s="1">
         <v>45694</v>
@@ -6334,9 +6318,8 @@
       <c r="H94" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I94" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J94" s="1">
         <v>45723</v>
@@ -6367,9 +6350,8 @@
       <c r="H95" t="s">
         <v>14</v>
       </c>
-      <c r="I95" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I95" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J95" s="1">
         <v>45753</v>
@@ -6400,9 +6382,8 @@
       <c r="H96" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I96" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J96" s="1">
         <v>45783</v>
@@ -6433,9 +6414,8 @@
       <c r="H97" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I97" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J97" s="1">
         <v>45814</v>
@@ -6466,9 +6446,8 @@
       <c r="H98" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I98" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J98" s="1">
         <v>45480</v>
@@ -6499,9 +6478,8 @@
       <c r="H99" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I99" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J99" s="1">
         <v>45511</v>
@@ -6532,9 +6510,8 @@
       <c r="H100" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I100" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J100" s="1">
         <v>45542</v>
@@ -6565,9 +6542,8 @@
       <c r="H101" t="s">
         <v>14</v>
       </c>
-      <c r="I101" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I101" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J101" s="1">
         <v>45572</v>
@@ -6598,9 +6574,8 @@
       <c r="H102" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I102" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J102" s="1">
         <v>45603</v>
@@ -6631,9 +6606,8 @@
       <c r="H103" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I103" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J103" s="1">
         <v>45633</v>
@@ -6664,9 +6638,8 @@
       <c r="H104" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I104" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J104" s="1">
         <v>45664</v>
@@ -6697,9 +6670,8 @@
       <c r="H105" t="s">
         <v>14</v>
       </c>
-      <c r="I105" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I105" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J105" s="1">
         <v>45695</v>
@@ -6730,9 +6702,8 @@
       <c r="H106" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I106" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J106" s="1">
         <v>45723</v>
@@ -6763,9 +6734,8 @@
       <c r="H107" t="s">
         <v>33</v>
       </c>
-      <c r="I107" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I107" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J107" s="1">
         <v>45755</v>
@@ -6796,9 +6766,8 @@
       <c r="H108" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I108" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J108" s="1">
         <v>45784</v>
@@ -6829,9 +6798,8 @@
       <c r="H109" t="s">
         <v>14</v>
       </c>
-      <c r="I109" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I109" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J109" s="1">
         <v>45815</v>
@@ -6862,9 +6830,8 @@
       <c r="H110" t="s">
         <v>33</v>
       </c>
-      <c r="I110" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I110" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J110" s="1">
         <v>45482</v>
@@ -6895,9 +6862,8 @@
       <c r="H111" t="s">
         <v>14</v>
       </c>
-      <c r="I111" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I111" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J111" s="1">
         <v>45512</v>
@@ -6928,9 +6894,8 @@
       <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="I112" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I112" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J112" s="1">
         <v>45543</v>
@@ -6961,9 +6926,8 @@
       <c r="H113" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I113" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J113" s="1">
         <v>45574</v>
@@ -6994,9 +6958,8 @@
       <c r="H114" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I114" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J114" s="1">
         <v>45604</v>
@@ -7027,9 +6990,8 @@
       <c r="H115" t="s">
         <v>51</v>
       </c>
-      <c r="I115" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I115" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J115" s="1">
         <v>45635</v>
@@ -7060,9 +7022,8 @@
       <c r="H116" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I116" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J116" s="1">
         <v>45665</v>
@@ -7093,9 +7054,8 @@
       <c r="H117" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I117" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J117" s="1">
         <v>45696</v>
@@ -7126,9 +7086,8 @@
       <c r="H118" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I118" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J118" s="1">
         <v>45724</v>
@@ -7159,9 +7118,8 @@
       <c r="H119" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I119" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J119" s="1">
         <v>45755</v>
@@ -7192,9 +7150,8 @@
       <c r="H120" t="s">
         <v>14</v>
       </c>
-      <c r="I120" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I120" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J120" s="1">
         <v>45785</v>
@@ -7225,9 +7182,8 @@
       <c r="H121" t="s">
         <v>14</v>
       </c>
-      <c r="I121" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I121" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J121" s="1">
         <v>45816</v>
@@ -7258,9 +7214,8 @@
       <c r="H122" t="s">
         <v>14</v>
       </c>
-      <c r="I122" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I122" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J122" s="1">
         <v>45482</v>
@@ -7291,9 +7246,8 @@
       <c r="H123" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I123" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J123" s="1">
         <v>45513</v>
@@ -7324,9 +7278,8 @@
       <c r="H124" t="s">
         <v>14</v>
       </c>
-      <c r="I124" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I124" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J124" s="1">
         <v>45544</v>
@@ -7357,9 +7310,8 @@
       <c r="H125" t="s">
         <v>33</v>
       </c>
-      <c r="I125" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I125" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J125" s="1">
         <v>45575</v>
@@ -7390,9 +7342,8 @@
       <c r="H126" t="s">
         <v>14</v>
       </c>
-      <c r="I126" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I126" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J126" s="1">
         <v>45605</v>
@@ -7423,9 +7374,8 @@
       <c r="H127" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I127" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J127" s="1">
         <v>45635</v>
@@ -7456,9 +7406,8 @@
       <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I128" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J128" s="1">
         <v>45666</v>
@@ -7489,9 +7438,8 @@
       <c r="H129" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I129" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J129" s="1">
         <v>45697</v>
@@ -7522,9 +7470,8 @@
       <c r="H130" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I130" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J130" s="1">
         <v>45725</v>
@@ -7555,9 +7502,8 @@
       <c r="H131" t="s">
         <v>14</v>
       </c>
-      <c r="I131" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I131" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J131" s="1">
         <v>45756</v>
@@ -7588,9 +7534,8 @@
       <c r="H132" t="s">
         <v>14</v>
       </c>
-      <c r="I132" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I132" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J132" s="1">
         <v>45786</v>
@@ -7621,9 +7566,8 @@
       <c r="H133" t="s">
         <v>14</v>
       </c>
-      <c r="I133" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I133" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J133" s="1">
         <v>45817</v>
@@ -7654,9 +7598,8 @@
       <c r="H134" t="s">
         <v>14</v>
       </c>
-      <c r="I134" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I134" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J134" s="1">
         <v>45483</v>
@@ -7687,9 +7630,8 @@
       <c r="H135" t="s">
         <v>14</v>
       </c>
-      <c r="I135" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I135" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J135" s="1">
         <v>45514</v>
@@ -7720,9 +7662,8 @@
       <c r="H136" t="s">
         <v>14</v>
       </c>
-      <c r="I136" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I136" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J136" s="1">
         <v>45545</v>
@@ -7753,9 +7694,8 @@
       <c r="H137" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I137" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J137" s="1">
         <v>45575</v>
@@ -7786,9 +7726,8 @@
       <c r="H138" t="s">
         <v>14</v>
       </c>
-      <c r="I138" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I138" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J138" s="1">
         <v>45606</v>
@@ -7819,9 +7758,8 @@
       <c r="H139" t="s">
         <v>51</v>
       </c>
-      <c r="I139" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I139" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J139" s="1">
         <v>45637</v>
@@ -7852,9 +7790,8 @@
       <c r="H140" t="s">
         <v>14</v>
       </c>
-      <c r="I140" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I140" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J140" s="1">
         <v>45667</v>
@@ -7885,9 +7822,8 @@
       <c r="H141" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I141" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J141" s="1">
         <v>45698</v>
@@ -7918,9 +7854,8 @@
       <c r="H142" t="s">
         <v>33</v>
       </c>
-      <c r="I142" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I142" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J142" s="1">
         <v>45727</v>
@@ -7951,9 +7886,8 @@
       <c r="H143" t="s">
         <v>14</v>
       </c>
-      <c r="I143" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I143" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J143" s="1">
         <v>45757</v>
@@ -7984,9 +7918,8 @@
       <c r="H144" t="s">
         <v>14</v>
       </c>
-      <c r="I144" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I144" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J144" s="1">
         <v>45787</v>
@@ -8017,9 +7950,8 @@
       <c r="H145" t="s">
         <v>33</v>
       </c>
-      <c r="I145" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I145" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J145" s="1">
         <v>45819</v>
@@ -8050,9 +7982,8 @@
       <c r="H146" t="s">
         <v>14</v>
       </c>
-      <c r="I146" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I146" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J146" s="1">
         <v>45484</v>
@@ -8083,9 +8014,8 @@
       <c r="H147" t="s">
         <v>14</v>
       </c>
-      <c r="I147" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I147" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J147" s="1">
         <v>45515</v>
@@ -8116,9 +8046,8 @@
       <c r="H148" t="s">
         <v>14</v>
       </c>
-      <c r="I148" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I148" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J148" s="1">
         <v>45546</v>
@@ -8149,9 +8078,8 @@
       <c r="H149" t="s">
         <v>14</v>
       </c>
-      <c r="I149" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I149" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J149" s="1">
         <v>45576</v>
@@ -8182,9 +8110,8 @@
       <c r="H150" t="s">
         <v>14</v>
       </c>
-      <c r="I150" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I150" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J150" s="1">
         <v>45607</v>
@@ -8215,9 +8142,8 @@
       <c r="H151" t="s">
         <v>14</v>
       </c>
-      <c r="I151" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I151" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J151" s="1">
         <v>45637</v>
@@ -8248,9 +8174,8 @@
       <c r="H152" t="s">
         <v>14</v>
       </c>
-      <c r="I152" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I152" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J152" s="1">
         <v>45668</v>
@@ -8281,9 +8206,8 @@
       <c r="H153" t="s">
         <v>14</v>
       </c>
-      <c r="I153" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I153" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J153" s="1">
         <v>45699</v>
@@ -8314,9 +8238,8 @@
       <c r="H154" t="s">
         <v>14</v>
       </c>
-      <c r="I154" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I154" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J154" s="1">
         <v>45727</v>
@@ -8347,9 +8270,8 @@
       <c r="H155" t="s">
         <v>14</v>
       </c>
-      <c r="I155" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I155" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J155" s="1">
         <v>45758</v>
@@ -8380,9 +8302,8 @@
       <c r="H156" t="s">
         <v>14</v>
       </c>
-      <c r="I156" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I156" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J156" s="1">
         <v>45788</v>
@@ -8413,9 +8334,8 @@
       <c r="H157" t="s">
         <v>14</v>
       </c>
-      <c r="I157" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I157" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J157" s="1">
         <v>45819</v>
@@ -8446,9 +8366,8 @@
       <c r="H158" t="s">
         <v>14</v>
       </c>
-      <c r="I158" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I158" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J158" s="1">
         <v>45485</v>
@@ -8479,9 +8398,8 @@
       <c r="H159" t="s">
         <v>14</v>
       </c>
-      <c r="I159" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I159" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J159" s="1">
         <v>45516</v>
@@ -8512,9 +8430,8 @@
       <c r="H160" t="s">
         <v>14</v>
       </c>
-      <c r="I160" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I160" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J160" s="1">
         <v>45547</v>
@@ -8545,9 +8462,8 @@
       <c r="H161" t="s">
         <v>33</v>
       </c>
-      <c r="I161" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I161" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J161" s="1">
         <v>45578</v>
@@ -8578,9 +8494,8 @@
       <c r="H162" t="s">
         <v>14</v>
       </c>
-      <c r="I162" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I162" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J162" s="1">
         <v>45608</v>
@@ -8611,9 +8526,8 @@
       <c r="H163" t="s">
         <v>51</v>
       </c>
-      <c r="I163" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I163" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J163" s="1">
         <v>45639</v>
@@ -8644,9 +8558,8 @@
       <c r="H164" t="s">
         <v>14</v>
       </c>
-      <c r="I164" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I164" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J164" s="1">
         <v>45669</v>
@@ -8677,9 +8590,8 @@
       <c r="H165" t="s">
         <v>14</v>
       </c>
-      <c r="I165" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I165" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J165" s="1">
         <v>45700</v>
@@ -8710,9 +8622,8 @@
       <c r="H166" t="s">
         <v>14</v>
       </c>
-      <c r="I166" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I166" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J166" s="1">
         <v>45728</v>
@@ -8743,9 +8654,8 @@
       <c r="H167" t="s">
         <v>14</v>
       </c>
-      <c r="I167" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I167" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J167" s="1">
         <v>45759</v>
@@ -8776,9 +8686,8 @@
       <c r="H168" t="s">
         <v>14</v>
       </c>
-      <c r="I168" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I168" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J168" s="1">
         <v>45789</v>
@@ -8809,9 +8718,8 @@
       <c r="H169" t="s">
         <v>14</v>
       </c>
-      <c r="I169" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I169" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J169" s="1">
         <v>45820</v>
@@ -8842,9 +8750,8 @@
       <c r="H170" t="s">
         <v>14</v>
       </c>
-      <c r="I170" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I170" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J170" s="1">
         <v>45486</v>
@@ -8875,9 +8782,8 @@
       <c r="H171" t="s">
         <v>14</v>
       </c>
-      <c r="I171" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I171" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J171" s="1">
         <v>45517</v>
@@ -8908,9 +8814,8 @@
       <c r="H172" t="s">
         <v>51</v>
       </c>
-      <c r="I172" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I172" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J172" s="1">
         <v>45549</v>
@@ -8941,9 +8846,8 @@
       <c r="H173" t="s">
         <v>14</v>
       </c>
-      <c r="I173" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I173" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J173" s="1">
         <v>45578</v>
@@ -8974,9 +8878,8 @@
       <c r="H174" t="s">
         <v>14</v>
       </c>
-      <c r="I174" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I174" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J174" s="1">
         <v>45609</v>
@@ -9007,9 +8910,8 @@
       <c r="H175" t="s">
         <v>14</v>
       </c>
-      <c r="I175" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I175" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J175" s="1">
         <v>45639</v>
@@ -9040,9 +8942,8 @@
       <c r="H176" t="s">
         <v>33</v>
       </c>
-      <c r="I176" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I176" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J176" s="1">
         <v>45671</v>
@@ -9073,9 +8974,8 @@
       <c r="H177" t="s">
         <v>14</v>
       </c>
-      <c r="I177" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I177" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J177" s="1">
         <v>45701</v>
@@ -9106,9 +9006,8 @@
       <c r="H178" t="s">
         <v>14</v>
       </c>
-      <c r="I178" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I178" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J178" s="1">
         <v>45729</v>
@@ -9139,9 +9038,8 @@
       <c r="H179" t="s">
         <v>51</v>
       </c>
-      <c r="I179" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I179" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J179" s="1">
         <v>45761</v>
@@ -9172,9 +9070,8 @@
       <c r="H180" t="s">
         <v>14</v>
       </c>
-      <c r="I180" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I180" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J180" s="1">
         <v>45790</v>
@@ -9205,9 +9102,8 @@
       <c r="H181" t="s">
         <v>14</v>
       </c>
-      <c r="I181" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I181" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J181" s="1">
         <v>45821</v>
@@ -9238,9 +9134,8 @@
       <c r="H182" t="s">
         <v>14</v>
       </c>
-      <c r="I182" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I182" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J182" s="1">
         <v>45487</v>
@@ -9271,9 +9166,8 @@
       <c r="H183" t="s">
         <v>14</v>
       </c>
-      <c r="I183" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I183" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J183" s="1">
         <v>45518</v>
@@ -9304,9 +9198,8 @@
       <c r="H184" t="s">
         <v>14</v>
       </c>
-      <c r="I184" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I184" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J184" s="1">
         <v>45549</v>
@@ -9337,9 +9230,8 @@
       <c r="H185" t="s">
         <v>14</v>
       </c>
-      <c r="I185" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I185" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J185" s="1">
         <v>45579</v>
@@ -9370,9 +9262,8 @@
       <c r="H186" t="s">
         <v>14</v>
       </c>
-      <c r="I186" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I186" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J186" s="1">
         <v>45610</v>
@@ -9403,9 +9294,8 @@
       <c r="H187" t="s">
         <v>33</v>
       </c>
-      <c r="I187" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I187" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J187" s="1">
         <v>45641</v>
@@ -9436,9 +9326,8 @@
       <c r="H188" t="s">
         <v>14</v>
       </c>
-      <c r="I188" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I188" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J188" s="1">
         <v>45671</v>
@@ -9469,9 +9358,8 @@
       <c r="H189" t="s">
         <v>14</v>
       </c>
-      <c r="I189" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I189" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J189" s="1">
         <v>45702</v>
@@ -9502,9 +9390,8 @@
       <c r="H190" t="s">
         <v>14</v>
       </c>
-      <c r="I190" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I190" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J190" s="1">
         <v>45730</v>
@@ -9535,9 +9422,8 @@
       <c r="H191" t="s">
         <v>14</v>
       </c>
-      <c r="I191" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I191" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J191" s="1">
         <v>45761</v>
@@ -9568,9 +9454,8 @@
       <c r="H192" t="s">
         <v>14</v>
       </c>
-      <c r="I192" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I192" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J192" s="1">
         <v>45791</v>
@@ -9601,9 +9486,8 @@
       <c r="H193" t="s">
         <v>14</v>
       </c>
-      <c r="I193" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I193" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J193" s="1">
         <v>45822</v>
@@ -9634,9 +9518,8 @@
       <c r="H194" t="s">
         <v>14</v>
       </c>
-      <c r="I194" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I194" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J194" s="1">
         <v>45488</v>
@@ -9667,9 +9550,8 @@
       <c r="H195" t="s">
         <v>14</v>
       </c>
-      <c r="I195" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I195" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J195" s="1">
         <v>45519</v>
@@ -9700,9 +9582,8 @@
       <c r="H196" t="s">
         <v>14</v>
       </c>
-      <c r="I196" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I196" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J196" s="1">
         <v>45550</v>
@@ -9733,9 +9614,8 @@
       <c r="H197" t="s">
         <v>14</v>
       </c>
-      <c r="I197" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I197" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J197" s="1">
         <v>45580</v>
@@ -9766,9 +9646,8 @@
       <c r="H198" t="s">
         <v>14</v>
       </c>
-      <c r="I198" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I198" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J198" s="1">
         <v>45611</v>
@@ -9799,9 +9678,8 @@
       <c r="H199" t="s">
         <v>51</v>
       </c>
-      <c r="I199" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I199" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J199" s="1">
         <v>45642</v>
@@ -9832,9 +9710,8 @@
       <c r="H200" t="s">
         <v>14</v>
       </c>
-      <c r="I200" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I200" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J200" s="1">
         <v>45672</v>
@@ -9865,9 +9742,8 @@
       <c r="H201" t="s">
         <v>14</v>
       </c>
-      <c r="I201" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I201" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J201" s="1">
         <v>45703</v>
@@ -9898,9 +9774,8 @@
       <c r="H202" t="s">
         <v>14</v>
       </c>
-      <c r="I202" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I202" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J202" s="1">
         <v>45731</v>
@@ -9931,9 +9806,8 @@
       <c r="H203" t="s">
         <v>14</v>
       </c>
-      <c r="I203" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I203" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J203" s="1">
         <v>45762</v>
@@ -9964,9 +9838,8 @@
       <c r="H204" t="s">
         <v>14</v>
       </c>
-      <c r="I204" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I204" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J204" s="1">
         <v>45792</v>
@@ -9997,9 +9870,8 @@
       <c r="H205" t="s">
         <v>14</v>
       </c>
-      <c r="I205" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I205" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J205" s="1">
         <v>45823</v>
@@ -10030,9 +9902,8 @@
       <c r="H206" t="s">
         <v>14</v>
       </c>
-      <c r="I206" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I206" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J206" s="1">
         <v>45489</v>
@@ -10063,9 +9934,8 @@
       <c r="H207" t="s">
         <v>14</v>
       </c>
-      <c r="I207" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I207" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J207" s="1">
         <v>45520</v>
@@ -10096,9 +9966,8 @@
       <c r="H208" t="s">
         <v>33</v>
       </c>
-      <c r="I208" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I208" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J208" s="1">
         <v>45552</v>
@@ -10129,9 +9998,8 @@
       <c r="H209" t="s">
         <v>14</v>
       </c>
-      <c r="I209" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I209" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J209" s="1">
         <v>45581</v>
@@ -10162,9 +10030,8 @@
       <c r="H210" t="s">
         <v>14</v>
       </c>
-      <c r="I210" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I210" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J210" s="1">
         <v>45612</v>
@@ -10195,9 +10062,8 @@
       <c r="H211" t="s">
         <v>14</v>
       </c>
-      <c r="I211" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I211" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J211" s="1">
         <v>45642</v>
@@ -10228,9 +10094,8 @@
       <c r="H212" t="s">
         <v>14</v>
       </c>
-      <c r="I212" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I212" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J212" s="1">
         <v>45673</v>
@@ -10261,9 +10126,8 @@
       <c r="H213" t="s">
         <v>14</v>
       </c>
-      <c r="I213" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I213" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J213" s="1">
         <v>45704</v>
@@ -10294,9 +10158,8 @@
       <c r="H214" t="s">
         <v>14</v>
       </c>
-      <c r="I214" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I214" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J214" s="1">
         <v>45732</v>
@@ -10327,9 +10190,8 @@
       <c r="H215" t="s">
         <v>14</v>
       </c>
-      <c r="I215" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I215" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J215" s="1">
         <v>45763</v>
@@ -10360,9 +10222,8 @@
       <c r="H216" t="s">
         <v>14</v>
       </c>
-      <c r="I216" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I216" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J216" s="1">
         <v>45793</v>
@@ -10393,9 +10254,8 @@
       <c r="H217" t="s">
         <v>14</v>
       </c>
-      <c r="I217" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I217" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J217" s="1">
         <v>45824</v>
@@ -10426,9 +10286,8 @@
       <c r="H218" t="s">
         <v>14</v>
       </c>
-      <c r="I218" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I218" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J218" s="1">
         <v>45490</v>
@@ -10459,9 +10318,8 @@
       <c r="H219" t="s">
         <v>14</v>
       </c>
-      <c r="I219" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I219" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J219" s="1">
         <v>45521</v>
@@ -10492,9 +10350,8 @@
       <c r="H220" t="s">
         <v>14</v>
       </c>
-      <c r="I220" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I220" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J220" s="1">
         <v>45552</v>
@@ -10525,9 +10382,8 @@
       <c r="H221" t="s">
         <v>33</v>
       </c>
-      <c r="I221" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I221" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J221" s="1">
         <v>45583</v>
@@ -10558,9 +10414,8 @@
       <c r="H222" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I222" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J222" s="1">
         <v>45613</v>
@@ -10591,9 +10446,8 @@
       <c r="H223" t="s">
         <v>51</v>
       </c>
-      <c r="I223" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I223" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J223" s="1">
         <v>45644</v>
@@ -10624,9 +10478,8 @@
       <c r="H224" t="s">
         <v>14</v>
       </c>
-      <c r="I224" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I224" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J224" s="1">
         <v>45674</v>
@@ -10657,9 +10510,8 @@
       <c r="H225" t="s">
         <v>33</v>
       </c>
-      <c r="I225" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I225" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J225" s="1">
         <v>45706</v>
@@ -10690,9 +10542,8 @@
       <c r="H226" t="s">
         <v>14</v>
       </c>
-      <c r="I226" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I226" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J226" s="1">
         <v>45733</v>
@@ -10723,9 +10574,8 @@
       <c r="H227" t="s">
         <v>14</v>
       </c>
-      <c r="I227" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I227" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J227" s="1">
         <v>45764</v>
@@ -10756,9 +10606,8 @@
       <c r="H228" t="s">
         <v>14</v>
       </c>
-      <c r="I228" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I228" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J228" s="1">
         <v>45794</v>
@@ -10789,9 +10638,8 @@
       <c r="H229" t="s">
         <v>14</v>
       </c>
-      <c r="I229" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I229" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J229" s="1">
         <v>45825</v>
@@ -10822,9 +10670,8 @@
       <c r="H230" t="s">
         <v>14</v>
       </c>
-      <c r="I230" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I230" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J230" s="1">
         <v>45491</v>
@@ -10855,9 +10702,8 @@
       <c r="H231" t="s">
         <v>14</v>
       </c>
-      <c r="I231" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I231" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J231" s="1">
         <v>45522</v>
@@ -10888,9 +10734,8 @@
       <c r="H232" t="s">
         <v>14</v>
       </c>
-      <c r="I232" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I232" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J232" s="1">
         <v>45553</v>
@@ -10921,9 +10766,8 @@
       <c r="H233" t="s">
         <v>14</v>
       </c>
-      <c r="I233" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I233" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J233" s="1">
         <v>45583</v>
@@ -10954,9 +10798,8 @@
       <c r="H234" t="s">
         <v>14</v>
       </c>
-      <c r="I234" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I234" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J234" s="1">
         <v>45614</v>
@@ -10987,9 +10830,8 @@
       <c r="H235" t="s">
         <v>33</v>
       </c>
-      <c r="I235" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I235" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J235" s="1">
         <v>45645</v>
@@ -11020,9 +10862,8 @@
       <c r="H236" t="s">
         <v>14</v>
       </c>
-      <c r="I236" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I236" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J236" s="1">
         <v>45675</v>
@@ -11053,9 +10894,8 @@
       <c r="H237" t="s">
         <v>14</v>
       </c>
-      <c r="I237" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I237" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J237" s="1">
         <v>45706</v>
@@ -11086,9 +10926,8 @@
       <c r="H238" t="s">
         <v>14</v>
       </c>
-      <c r="I238" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I238" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J238" s="1">
         <v>45734</v>
@@ -11119,9 +10958,8 @@
       <c r="H239" t="s">
         <v>14</v>
       </c>
-      <c r="I239" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I239" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J239" s="1">
         <v>45765</v>
@@ -11152,9 +10990,8 @@
       <c r="H240" t="s">
         <v>33</v>
       </c>
-      <c r="I240" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I240" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J240" s="1">
         <v>45796</v>
@@ -11185,9 +11022,8 @@
       <c r="H241" t="s">
         <v>14</v>
       </c>
-      <c r="I241" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I241" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J241" s="1">
         <v>45826</v>
@@ -11218,9 +11054,8 @@
       <c r="H242" t="s">
         <v>14</v>
       </c>
-      <c r="I242" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I242" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J242" s="1">
         <v>45492</v>
@@ -11251,9 +11086,8 @@
       <c r="H243" t="s">
         <v>14</v>
       </c>
-      <c r="I243" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I243" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J243" s="1">
         <v>45523</v>
@@ -11284,9 +11118,8 @@
       <c r="H244" t="s">
         <v>51</v>
       </c>
-      <c r="I244" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I244" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J244" s="1">
         <v>45555</v>
@@ -11317,9 +11150,8 @@
       <c r="H245" t="s">
         <v>14</v>
       </c>
-      <c r="I245" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I245" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J245" s="1">
         <v>45584</v>
@@ -11350,9 +11182,8 @@
       <c r="H246" t="s">
         <v>14</v>
       </c>
-      <c r="I246" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I246" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J246" s="1">
         <v>45615</v>
@@ -11383,9 +11214,8 @@
       <c r="H247" t="s">
         <v>14</v>
       </c>
-      <c r="I247" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I247" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J247" s="1">
         <v>45645</v>
@@ -11416,9 +11246,8 @@
       <c r="H248" t="s">
         <v>14</v>
       </c>
-      <c r="I248" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I248" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J248" s="1">
         <v>45676</v>
@@ -11449,9 +11278,8 @@
       <c r="H249" t="s">
         <v>14</v>
       </c>
-      <c r="I249" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I249" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J249" s="1">
         <v>45707</v>
@@ -11482,9 +11310,8 @@
       <c r="H250" t="s">
         <v>14</v>
       </c>
-      <c r="I250" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I250" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J250" s="1">
         <v>45735</v>
@@ -11515,9 +11342,8 @@
       <c r="H251" t="s">
         <v>14</v>
       </c>
-      <c r="I251" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I251" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J251" s="1">
         <v>45766</v>
@@ -11548,9 +11374,8 @@
       <c r="H252" t="s">
         <v>14</v>
       </c>
-      <c r="I252" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I252" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J252" s="1">
         <v>45796</v>
@@ -11581,9 +11406,8 @@
       <c r="H253" t="s">
         <v>14</v>
       </c>
-      <c r="I253" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I253" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J253" s="1">
         <v>45827</v>
@@ -11614,9 +11438,8 @@
       <c r="H254" t="s">
         <v>14</v>
       </c>
-      <c r="I254" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I254" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J254" s="1">
         <v>45493</v>
@@ -11647,9 +11470,8 @@
       <c r="H255" t="s">
         <v>14</v>
       </c>
-      <c r="I255" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I255" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J255" s="1">
         <v>45524</v>
@@ -11680,9 +11502,8 @@
       <c r="H256" t="s">
         <v>14</v>
       </c>
-      <c r="I256" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I256" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J256" s="1">
         <v>45555</v>
@@ -11713,9 +11534,8 @@
       <c r="H257" t="s">
         <v>33</v>
       </c>
-      <c r="I257" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I257" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J257" s="1">
         <v>45586</v>
@@ -11746,9 +11566,8 @@
       <c r="H258" t="s">
         <v>14</v>
       </c>
-      <c r="I258" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I258" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J258" s="1">
         <v>45616</v>
@@ -11779,9 +11598,8 @@
       <c r="H259" t="s">
         <v>51</v>
       </c>
-      <c r="I259" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I259" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J259" s="1">
         <v>45647</v>
@@ -11812,9 +11630,8 @@
       <c r="H260" t="s">
         <v>14</v>
       </c>
-      <c r="I260" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I260" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J260" s="1">
         <v>45677</v>
@@ -11845,9 +11662,8 @@
       <c r="H261" t="s">
         <v>33</v>
       </c>
-      <c r="I261" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I261" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J261" s="1">
         <v>45709</v>
@@ -11878,9 +11694,8 @@
       <c r="H262" t="s">
         <v>14</v>
       </c>
-      <c r="I262" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I262" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J262" s="1">
         <v>45736</v>
@@ -11911,9 +11726,8 @@
       <c r="H263" t="s">
         <v>14</v>
       </c>
-      <c r="I263" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I263" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J263" s="1">
         <v>45767</v>
@@ -11944,9 +11758,8 @@
       <c r="H264" t="s">
         <v>14</v>
       </c>
-      <c r="I264" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I264" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J264" s="1">
         <v>45797</v>
@@ -11977,9 +11790,8 @@
       <c r="H265" t="s">
         <v>14</v>
       </c>
-      <c r="I265" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I265" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J265" s="1">
         <v>45828</v>
@@ -12010,9 +11822,8 @@
       <c r="H266" t="s">
         <v>14</v>
       </c>
-      <c r="I266" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I266" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J266" s="1">
         <v>45494</v>
@@ -12043,9 +11854,8 @@
       <c r="H267" t="s">
         <v>14</v>
       </c>
-      <c r="I267" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I267" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J267" s="1">
         <v>45525</v>
@@ -12076,9 +11886,8 @@
       <c r="H268" t="s">
         <v>14</v>
       </c>
-      <c r="I268" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I268" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J268" s="1">
         <v>45556</v>
@@ -12109,9 +11918,8 @@
       <c r="H269" t="s">
         <v>14</v>
       </c>
-      <c r="I269" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I269" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J269" s="1">
         <v>45586</v>
@@ -12142,9 +11950,8 @@
       <c r="H270" t="s">
         <v>14</v>
       </c>
-      <c r="I270" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I270" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J270" s="1">
         <v>45617</v>
@@ -12175,9 +11982,8 @@
       <c r="H271" t="s">
         <v>33</v>
       </c>
-      <c r="I271" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I271" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J271" s="1">
         <v>45648</v>
@@ -12208,9 +12014,8 @@
       <c r="H272" t="s">
         <v>14</v>
       </c>
-      <c r="I272" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I272" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J272" s="1">
         <v>45678</v>
@@ -12241,9 +12046,8 @@
       <c r="H273" t="s">
         <v>14</v>
       </c>
-      <c r="I273" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I273" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J273" s="1">
         <v>45709</v>
@@ -12274,9 +12078,8 @@
       <c r="H274" t="s">
         <v>14</v>
       </c>
-      <c r="I274" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I274" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J274" s="1">
         <v>45737</v>
@@ -12307,9 +12110,8 @@
       <c r="H275" t="s">
         <v>14</v>
       </c>
-      <c r="I275" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I275" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J275" s="1">
         <v>45768</v>
@@ -12340,9 +12142,8 @@
       <c r="H276" t="s">
         <v>33</v>
       </c>
-      <c r="I276" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I276" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J276" s="1">
         <v>45799</v>
@@ -12373,9 +12174,8 @@
       <c r="H277" t="s">
         <v>14</v>
       </c>
-      <c r="I277" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I277" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J277" s="1">
         <v>45829</v>
@@ -12406,9 +12206,8 @@
       <c r="H278" t="s">
         <v>14</v>
       </c>
-      <c r="I278" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I278" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J278" s="1">
         <v>45495</v>
@@ -12439,9 +12238,8 @@
       <c r="H279" t="s">
         <v>14</v>
       </c>
-      <c r="I279" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I279" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J279" s="1">
         <v>45526</v>
@@ -12472,9 +12270,8 @@
       <c r="H280" t="s">
         <v>51</v>
       </c>
-      <c r="I280" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I280" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J280" s="1">
         <v>45558</v>
@@ -12505,9 +12302,8 @@
       <c r="H281" t="s">
         <v>14</v>
       </c>
-      <c r="I281" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I281" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J281" s="1">
         <v>45587</v>
@@ -12538,9 +12334,8 @@
       <c r="H282" t="s">
         <v>14</v>
       </c>
-      <c r="I282" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I282" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J282" s="1">
         <v>45618</v>
@@ -12571,9 +12366,8 @@
       <c r="H283" t="s">
         <v>14</v>
       </c>
-      <c r="I283" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I283" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J283" s="1">
         <v>45648</v>
@@ -12604,9 +12398,8 @@
       <c r="H284" t="s">
         <v>14</v>
       </c>
-      <c r="I284" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I284" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J284" s="1">
         <v>45679</v>
@@ -12637,9 +12430,8 @@
       <c r="H285" t="s">
         <v>14</v>
       </c>
-      <c r="I285" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I285" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J285" s="1">
         <v>45710</v>
@@ -12670,9 +12462,8 @@
       <c r="H286" t="s">
         <v>14</v>
       </c>
-      <c r="I286" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I286" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J286" s="1">
         <v>45738</v>
@@ -12703,9 +12494,8 @@
       <c r="H287" t="s">
         <v>14</v>
       </c>
-      <c r="I287" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I287" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J287" s="1">
         <v>45769</v>
@@ -12736,9 +12526,8 @@
       <c r="H288" t="s">
         <v>14</v>
       </c>
-      <c r="I288" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I288" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J288" s="1">
         <v>45799</v>
@@ -12769,9 +12558,8 @@
       <c r="H289" t="s">
         <v>14</v>
       </c>
-      <c r="I289" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I289" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J289" s="1">
         <v>45830</v>
@@ -12802,9 +12590,8 @@
       <c r="H290" t="s">
         <v>14</v>
       </c>
-      <c r="I290" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I290" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J290" s="1">
         <v>45496</v>
@@ -12835,9 +12622,8 @@
       <c r="H291" t="s">
         <v>14</v>
       </c>
-      <c r="I291" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I291" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J291" s="1">
         <v>45527</v>
@@ -12868,9 +12654,8 @@
       <c r="H292" t="s">
         <v>14</v>
       </c>
-      <c r="I292" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I292" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J292" s="1">
         <v>45558</v>
@@ -12901,9 +12686,8 @@
       <c r="H293" t="s">
         <v>33</v>
       </c>
-      <c r="I293" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I293" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J293" s="1">
         <v>45589</v>
@@ -12934,9 +12718,8 @@
       <c r="H294" t="s">
         <v>14</v>
       </c>
-      <c r="I294" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I294" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J294" s="1">
         <v>45619</v>
@@ -12967,9 +12750,8 @@
       <c r="H295" t="s">
         <v>51</v>
       </c>
-      <c r="I295" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I295" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J295" s="1">
         <v>45650</v>
@@ -13000,9 +12782,8 @@
       <c r="H296" t="s">
         <v>14</v>
       </c>
-      <c r="I296" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I296" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J296" s="1">
         <v>45680</v>
@@ -13033,9 +12814,8 @@
       <c r="H297" t="s">
         <v>33</v>
       </c>
-      <c r="I297" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I297" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J297" s="1">
         <v>45712</v>
@@ -13066,9 +12846,8 @@
       <c r="H298" t="s">
         <v>14</v>
       </c>
-      <c r="I298" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I298" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J298" s="1">
         <v>45739</v>
@@ -13099,9 +12878,8 @@
       <c r="H299" t="s">
         <v>14</v>
       </c>
-      <c r="I299" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I299" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J299" s="1">
         <v>45770</v>
@@ -13132,9 +12910,8 @@
       <c r="H300" t="s">
         <v>14</v>
       </c>
-      <c r="I300" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I300" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J300" s="1">
         <v>45800</v>
@@ -13165,9 +12942,8 @@
       <c r="H301" t="s">
         <v>14</v>
       </c>
-      <c r="I301" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I301" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J301" s="1">
         <v>45831</v>
@@ -13198,9 +12974,8 @@
       <c r="H302" t="s">
         <v>14</v>
       </c>
-      <c r="I302" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I302" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J302" s="1">
         <v>45497</v>
@@ -13231,9 +13006,8 @@
       <c r="H303" t="s">
         <v>14</v>
       </c>
-      <c r="I303" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I303" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J303" s="1">
         <v>45528</v>
@@ -13264,9 +13038,8 @@
       <c r="H304" t="s">
         <v>14</v>
       </c>
-      <c r="I304" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I304" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J304" s="1">
         <v>45559</v>
@@ -13297,9 +13070,8 @@
       <c r="H305" t="s">
         <v>14</v>
       </c>
-      <c r="I305" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I305" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J305" s="1">
         <v>45589</v>
@@ -13330,9 +13102,8 @@
       <c r="H306" t="s">
         <v>14</v>
       </c>
-      <c r="I306" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I306" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J306" s="1">
         <v>45620</v>
@@ -13363,9 +13134,8 @@
       <c r="H307" t="s">
         <v>33</v>
       </c>
-      <c r="I307" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I307" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J307" s="1">
         <v>45651</v>
@@ -13396,9 +13166,8 @@
       <c r="H308" t="s">
         <v>14</v>
       </c>
-      <c r="I308" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I308" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J308" s="1">
         <v>45681</v>
@@ -13429,9 +13198,8 @@
       <c r="H309" t="s">
         <v>14</v>
       </c>
-      <c r="I309" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I309" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J309" s="1">
         <v>45712</v>
@@ -13462,9 +13230,8 @@
       <c r="H310" t="s">
         <v>14</v>
       </c>
-      <c r="I310" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I310" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J310" s="1">
         <v>45740</v>
@@ -13495,9 +13262,8 @@
       <c r="H311" t="s">
         <v>14</v>
       </c>
-      <c r="I311" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I311" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J311" s="1">
         <v>45771</v>
@@ -13528,9 +13294,8 @@
       <c r="H312" t="s">
         <v>33</v>
       </c>
-      <c r="I312" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I312" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J312" s="1">
         <v>45802</v>
@@ -13561,9 +13326,8 @@
       <c r="H313" t="s">
         <v>14</v>
       </c>
-      <c r="I313" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I313" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J313" s="1">
         <v>45832</v>
@@ -13594,9 +13358,8 @@
       <c r="H314" t="s">
         <v>14</v>
       </c>
-      <c r="I314" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I314" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J314" s="1">
         <v>45498</v>
@@ -13627,9 +13390,8 @@
       <c r="H315" t="s">
         <v>14</v>
       </c>
-      <c r="I315" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I315" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J315" s="1">
         <v>45529</v>
@@ -13660,9 +13422,8 @@
       <c r="H316" t="s">
         <v>51</v>
       </c>
-      <c r="I316" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I316" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J316" s="1">
         <v>45561</v>
@@ -13693,9 +13454,8 @@
       <c r="H317" t="s">
         <v>14</v>
       </c>
-      <c r="I317" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I317" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J317" s="1">
         <v>45590</v>
@@ -13726,9 +13486,8 @@
       <c r="H318" t="s">
         <v>14</v>
       </c>
-      <c r="I318" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I318" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J318" s="1">
         <v>45621</v>
@@ -13759,9 +13518,8 @@
       <c r="H319" t="s">
         <v>14</v>
       </c>
-      <c r="I319" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I319" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J319" s="1">
         <v>45651</v>
@@ -13792,9 +13550,8 @@
       <c r="H320" t="s">
         <v>14</v>
       </c>
-      <c r="I320" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I320" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J320" s="1">
         <v>45682</v>
@@ -13825,9 +13582,8 @@
       <c r="H321" t="s">
         <v>14</v>
       </c>
-      <c r="I321" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I321" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J321" s="1">
         <v>45713</v>
@@ -13858,9 +13614,8 @@
       <c r="H322" t="s">
         <v>14</v>
       </c>
-      <c r="I322" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I322" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J322" s="1">
         <v>45741</v>
@@ -13891,9 +13646,8 @@
       <c r="H323" t="s">
         <v>14</v>
       </c>
-      <c r="I323" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I323" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J323" s="1">
         <v>45772</v>
@@ -13924,9 +13678,8 @@
       <c r="H324" t="s">
         <v>14</v>
       </c>
-      <c r="I324" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I324" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J324" s="1">
         <v>45802</v>
@@ -13957,9 +13710,8 @@
       <c r="H325" t="s">
         <v>14</v>
       </c>
-      <c r="I325" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I325" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J325" s="1">
         <v>45833</v>
@@ -13990,9 +13742,8 @@
       <c r="H326" t="s">
         <v>14</v>
       </c>
-      <c r="I326" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I326" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J326" s="1">
         <v>45499</v>
@@ -14023,9 +13774,8 @@
       <c r="H327" t="s">
         <v>14</v>
       </c>
-      <c r="I327" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I327" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J327" s="1">
         <v>45530</v>
@@ -14056,9 +13806,8 @@
       <c r="H328" t="s">
         <v>14</v>
       </c>
-      <c r="I328" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I328" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J328" s="1">
         <v>45561</v>
@@ -14089,9 +13838,8 @@
       <c r="H329" t="s">
         <v>33</v>
       </c>
-      <c r="I329" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I329" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J329" s="1">
         <v>45592</v>
@@ -14122,9 +13870,8 @@
       <c r="H330" t="s">
         <v>14</v>
       </c>
-      <c r="I330" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I330" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J330" s="1">
         <v>45622</v>
@@ -14155,9 +13902,8 @@
       <c r="H331" t="s">
         <v>51</v>
       </c>
-      <c r="I331" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I331" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J331" s="1">
         <v>45653</v>
@@ -14188,9 +13934,8 @@
       <c r="H332" t="s">
         <v>14</v>
       </c>
-      <c r="I332" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I332" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J332" s="1">
         <v>45683</v>
@@ -14221,9 +13966,8 @@
       <c r="H333" t="s">
         <v>33</v>
       </c>
-      <c r="I333" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I333" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J333" s="1">
         <v>45715</v>
@@ -14254,9 +13998,8 @@
       <c r="H334" t="s">
         <v>14</v>
       </c>
-      <c r="I334" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I334" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J334" s="1">
         <v>45742</v>
@@ -14287,9 +14030,8 @@
       <c r="H335" t="s">
         <v>14</v>
       </c>
-      <c r="I335" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I335" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J335" s="1">
         <v>45773</v>
@@ -14320,9 +14062,8 @@
       <c r="H336" t="s">
         <v>14</v>
       </c>
-      <c r="I336" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I336" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J336" s="1">
         <v>45803</v>
@@ -14353,9 +14094,8 @@
       <c r="H337" t="s">
         <v>14</v>
       </c>
-      <c r="I337" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I337" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J337" s="1">
         <v>45834</v>
@@ -14386,9 +14126,8 @@
       <c r="H338" t="s">
         <v>14</v>
       </c>
-      <c r="I338" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I338" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J338" s="1">
         <v>45500</v>
@@ -14419,9 +14158,8 @@
       <c r="H339" t="s">
         <v>14</v>
       </c>
-      <c r="I339" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I339" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J339" s="1">
         <v>45531</v>
@@ -14452,9 +14190,8 @@
       <c r="H340" t="s">
         <v>14</v>
       </c>
-      <c r="I340" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I340" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J340" s="1">
         <v>45562</v>
@@ -14485,9 +14222,8 @@
       <c r="H341" t="s">
         <v>14</v>
       </c>
-      <c r="I341" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I341" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J341" s="1">
         <v>45592</v>
@@ -14518,9 +14254,8 @@
       <c r="H342" t="s">
         <v>14</v>
       </c>
-      <c r="I342" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I342" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J342" s="1">
         <v>45623</v>
@@ -14551,9 +14286,8 @@
       <c r="H343" t="s">
         <v>33</v>
       </c>
-      <c r="I343" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I343" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J343" s="1">
         <v>45654</v>
@@ -14584,9 +14318,8 @@
       <c r="H344" t="s">
         <v>14</v>
       </c>
-      <c r="I344" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I344" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J344" s="1">
         <v>45684</v>
@@ -14617,9 +14350,8 @@
       <c r="H345" t="s">
         <v>14</v>
       </c>
-      <c r="I345" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I345" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J345" s="1">
         <v>45715</v>
@@ -14650,9 +14382,8 @@
       <c r="H346" t="s">
         <v>14</v>
       </c>
-      <c r="I346" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I346" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J346" s="1">
         <v>45743</v>
@@ -14683,9 +14414,8 @@
       <c r="H347" t="s">
         <v>14</v>
       </c>
-      <c r="I347" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I347" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J347" s="1">
         <v>45774</v>
@@ -14716,9 +14446,8 @@
       <c r="H348" t="s">
         <v>33</v>
       </c>
-      <c r="I348" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I348" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J348" s="1">
         <v>45805</v>
@@ -14749,9 +14478,8 @@
       <c r="H349" t="s">
         <v>14</v>
       </c>
-      <c r="I349" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I349" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J349" s="1">
         <v>45835</v>
@@ -14782,9 +14510,8 @@
       <c r="H350" t="s">
         <v>14</v>
       </c>
-      <c r="I350" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I350" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J350" s="1">
         <v>45501</v>
@@ -14815,9 +14542,8 @@
       <c r="H351" t="s">
         <v>14</v>
       </c>
-      <c r="I351" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I351" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J351" s="1">
         <v>45532</v>
@@ -14848,9 +14574,8 @@
       <c r="H352" t="s">
         <v>51</v>
       </c>
-      <c r="I352" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I352" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J352" s="1">
         <v>45564</v>
@@ -14881,9 +14606,8 @@
       <c r="H353" t="s">
         <v>14</v>
       </c>
-      <c r="I353" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I353" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J353" s="1">
         <v>45593</v>
@@ -14914,9 +14638,8 @@
       <c r="H354" t="s">
         <v>14</v>
       </c>
-      <c r="I354" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I354" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J354" s="1">
         <v>45624</v>
@@ -14947,9 +14670,8 @@
       <c r="H355" t="s">
         <v>14</v>
       </c>
-      <c r="I355" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I355" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J355" s="1">
         <v>45654</v>
@@ -14980,9 +14702,8 @@
       <c r="H356" t="s">
         <v>14</v>
       </c>
-      <c r="I356" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I356" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J356" s="1">
         <v>45685</v>
@@ -15013,9 +14734,8 @@
       <c r="H357" t="s">
         <v>14</v>
       </c>
-      <c r="I357" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I357" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J357" s="1">
         <v>45716</v>
@@ -15046,9 +14766,8 @@
       <c r="H358" t="s">
         <v>14</v>
       </c>
-      <c r="I358" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I358" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J358" s="1">
         <v>45744</v>
@@ -15079,9 +14798,8 @@
       <c r="H359" t="s">
         <v>14</v>
       </c>
-      <c r="I359" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I359" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J359" s="1">
         <v>45775</v>
@@ -15112,9 +14830,8 @@
       <c r="H360" t="s">
         <v>14</v>
       </c>
-      <c r="I360" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I360" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J360" s="1">
         <v>45805</v>
@@ -15145,9 +14862,8 @@
       <c r="H361" t="s">
         <v>14</v>
       </c>
-      <c r="I361" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I361" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J361" s="1">
         <v>45836</v>
@@ -15178,9 +14894,8 @@
       <c r="H362" t="s">
         <v>14</v>
       </c>
-      <c r="I362" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I362" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J362" s="1">
         <v>45502</v>
@@ -15211,9 +14926,8 @@
       <c r="H363" t="s">
         <v>14</v>
       </c>
-      <c r="I363" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I363" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J363" s="1">
         <v>45533</v>
@@ -15244,9 +14958,8 @@
       <c r="H364" t="s">
         <v>14</v>
       </c>
-      <c r="I364" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I364" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J364" s="1">
         <v>45564</v>
@@ -15277,9 +14990,8 @@
       <c r="H365" t="s">
         <v>33</v>
       </c>
-      <c r="I365" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I365" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J365" s="1">
         <v>45595</v>
@@ -15310,9 +15022,8 @@
       <c r="H366" t="s">
         <v>14</v>
       </c>
-      <c r="I366" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I366" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J366" s="1">
         <v>45625</v>
@@ -15343,9 +15054,8 @@
       <c r="H367" t="s">
         <v>51</v>
       </c>
-      <c r="I367" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I367" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J367" s="1">
         <v>45656</v>
@@ -15376,9 +15086,8 @@
       <c r="H368" t="s">
         <v>14</v>
       </c>
-      <c r="I368" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I368" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J368" s="1">
         <v>45686</v>
@@ -15409,9 +15118,8 @@
       <c r="H369" t="s">
         <v>33</v>
       </c>
-      <c r="I369" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I369" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J369" s="1">
         <v>45717</v>
@@ -15442,9 +15150,8 @@
       <c r="H370" t="s">
         <v>14</v>
       </c>
-      <c r="I370" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I370" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J370" s="1">
         <v>45745</v>
@@ -15475,9 +15182,8 @@
       <c r="H371" t="s">
         <v>14</v>
       </c>
-      <c r="I371" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I371" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J371" s="1">
         <v>45776</v>
@@ -15508,9 +15214,8 @@
       <c r="H372" t="s">
         <v>14</v>
       </c>
-      <c r="I372" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I372" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J372" s="1">
         <v>45806</v>
@@ -15541,9 +15246,8 @@
       <c r="H373" t="s">
         <v>14</v>
       </c>
-      <c r="I373" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I373" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J373" s="1">
         <v>45837</v>
@@ -15574,9 +15278,8 @@
       <c r="H374" t="s">
         <v>14</v>
       </c>
-      <c r="I374" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I374" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J374" s="1">
         <v>45503</v>
@@ -15607,9 +15310,8 @@
       <c r="H375" t="s">
         <v>14</v>
       </c>
-      <c r="I375" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I375" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J375" s="1">
         <v>45534</v>
@@ -15640,9 +15342,8 @@
       <c r="H376" t="s">
         <v>14</v>
       </c>
-      <c r="I376" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I376" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J376" s="1">
         <v>45565</v>
@@ -15673,9 +15374,8 @@
       <c r="H377" t="s">
         <v>14</v>
       </c>
-      <c r="I377" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I377" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J377" s="1">
         <v>45595</v>
@@ -15706,9 +15406,8 @@
       <c r="H378" t="s">
         <v>14</v>
       </c>
-      <c r="I378" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I378" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J378" s="1">
         <v>45626</v>
@@ -15739,9 +15438,8 @@
       <c r="H379" t="s">
         <v>33</v>
       </c>
-      <c r="I379" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I379" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J379" s="1">
         <v>45657</v>
@@ -15772,9 +15470,8 @@
       <c r="H380" t="s">
         <v>14</v>
       </c>
-      <c r="I380" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I380" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J380" s="1">
         <v>45687</v>
@@ -15805,9 +15502,8 @@
       <c r="H381" t="s">
         <v>14</v>
       </c>
-      <c r="I381" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I381" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J381" s="1">
         <v>45717</v>
@@ -15838,9 +15534,8 @@
       <c r="H382" t="s">
         <v>14</v>
       </c>
-      <c r="I382" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I382" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J382" s="1">
         <v>45748</v>
@@ -15871,9 +15566,8 @@
       <c r="H383" t="s">
         <v>14</v>
       </c>
-      <c r="I383" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I383" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J383" s="1">
         <v>45778</v>
@@ -15904,9 +15598,8 @@
       <c r="H384" t="s">
         <v>33</v>
       </c>
-      <c r="I384" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I384" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J384" s="1">
         <v>45810</v>
@@ -15937,9 +15630,8 @@
       <c r="H385" t="s">
         <v>14</v>
       </c>
-      <c r="I385" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I385" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J385" s="1">
         <v>45838</v>
@@ -15970,9 +15662,8 @@
       <c r="H386" t="s">
         <v>14</v>
       </c>
-      <c r="I386" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I386" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J386" s="1">
         <v>45474</v>
@@ -16003,9 +15694,8 @@
       <c r="H387" t="s">
         <v>14</v>
       </c>
-      <c r="I387" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I387" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J387" s="1">
         <v>45475</v>
@@ -16036,9 +15726,8 @@
       <c r="H388" t="s">
         <v>14</v>
       </c>
-      <c r="I388" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I388" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J388" s="1">
         <v>45476</v>
@@ -16069,9 +15758,8 @@
       <c r="H389" t="s">
         <v>14</v>
       </c>
-      <c r="I389" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I389" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J389" s="1">
         <v>45477</v>
@@ -16102,9 +15790,8 @@
       <c r="H390" t="s">
         <v>14</v>
       </c>
-      <c r="I390" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I390" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J390" s="1">
         <v>45478</v>
@@ -16135,9 +15822,8 @@
       <c r="H391" t="s">
         <v>33</v>
       </c>
-      <c r="I391" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I391" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J391" s="1">
         <v>45480</v>
@@ -16168,9 +15854,8 @@
       <c r="H392" t="s">
         <v>14</v>
       </c>
-      <c r="I392" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I392" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J392" s="1">
         <v>45480</v>
@@ -16201,9 +15886,8 @@
       <c r="H393" t="s">
         <v>14</v>
       </c>
-      <c r="I393" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I393" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J393" s="1">
         <v>45481</v>
@@ -16234,9 +15918,8 @@
       <c r="H394" t="s">
         <v>14</v>
       </c>
-      <c r="I394" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I394" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J394" s="1">
         <v>45482</v>
@@ -16267,9 +15950,8 @@
       <c r="H395" t="s">
         <v>14</v>
       </c>
-      <c r="I395" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I395" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J395" s="1">
         <v>45483</v>
@@ -16300,9 +15982,8 @@
       <c r="H396" t="s">
         <v>14</v>
       </c>
-      <c r="I396" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I396" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J396" s="1">
         <v>45484</v>
@@ -16333,9 +16014,8 @@
       <c r="H397" t="s">
         <v>14</v>
       </c>
-      <c r="I397" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I397" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J397" s="1">
         <v>45485</v>
@@ -16366,9 +16046,8 @@
       <c r="H398" t="s">
         <v>14</v>
       </c>
-      <c r="I398" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I398" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J398" s="1">
         <v>45486</v>
@@ -16399,9 +16078,8 @@
       <c r="H399" t="s">
         <v>14</v>
       </c>
-      <c r="I399" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I399" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J399" s="1">
         <v>45487</v>
@@ -16432,9 +16110,8 @@
       <c r="H400" t="s">
         <v>14</v>
       </c>
-      <c r="I400" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I400" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J400" s="1">
         <v>45488</v>
@@ -16465,9 +16142,8 @@
       <c r="H401" t="s">
         <v>14</v>
       </c>
-      <c r="I401" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I401" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J401" s="1">
         <v>45489</v>
@@ -16498,9 +16174,8 @@
       <c r="H402" t="s">
         <v>14</v>
       </c>
-      <c r="I402" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I402" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J402" s="1">
         <v>45490</v>
@@ -16531,9 +16206,8 @@
       <c r="H403" t="s">
         <v>51</v>
       </c>
-      <c r="I403" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I403" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J403" s="1">
         <v>45492</v>
@@ -16564,9 +16238,8 @@
       <c r="H404" t="s">
         <v>14</v>
       </c>
-      <c r="I404" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I404" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J404" s="1">
         <v>45492</v>
@@ -16597,9 +16270,8 @@
       <c r="H405" t="s">
         <v>14</v>
       </c>
-      <c r="I405" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I405" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J405" s="1">
         <v>45493</v>
@@ -16630,9 +16302,8 @@
       <c r="H406" t="s">
         <v>14</v>
       </c>
-      <c r="I406" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I406" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J406" s="1">
         <v>45494</v>
@@ -16663,9 +16334,8 @@
       <c r="H407" t="s">
         <v>14</v>
       </c>
-      <c r="I407" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I407" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J407" s="1">
         <v>45495</v>
@@ -16696,9 +16366,8 @@
       <c r="H408" t="s">
         <v>14</v>
       </c>
-      <c r="I408" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I408" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J408" s="1">
         <v>45496</v>
@@ -16729,9 +16398,8 @@
       <c r="H409" t="s">
         <v>14</v>
       </c>
-      <c r="I409" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I409" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J409" s="1">
         <v>45497</v>
@@ -16762,9 +16430,8 @@
       <c r="H410" t="s">
         <v>14</v>
       </c>
-      <c r="I410" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I410" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J410" s="1">
         <v>45498</v>
@@ -16795,9 +16462,8 @@
       <c r="H411" t="s">
         <v>14</v>
       </c>
-      <c r="I411" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I411" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J411" s="1">
         <v>45499</v>
@@ -16828,9 +16494,8 @@
       <c r="H412" t="s">
         <v>33</v>
       </c>
-      <c r="I412" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I412" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J412" s="1">
         <v>45501</v>
@@ -16861,9 +16526,8 @@
       <c r="H413" t="s">
         <v>14</v>
       </c>
-      <c r="I413" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I413" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J413" s="1">
         <v>45501</v>
@@ -16894,9 +16558,8 @@
       <c r="H414" t="s">
         <v>14</v>
       </c>
-      <c r="I414" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I414" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J414" s="1">
         <v>45502</v>
@@ -16927,9 +16590,8 @@
       <c r="H415" t="s">
         <v>14</v>
       </c>
-      <c r="I415" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I415" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J415" s="1">
         <v>45503</v>
@@ -16960,9 +16622,8 @@
       <c r="H416" t="s">
         <v>14</v>
       </c>
-      <c r="I416" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I416" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J416" s="1">
         <v>45504</v>
@@ -16993,9 +16654,8 @@
       <c r="H417" t="s">
         <v>14</v>
       </c>
-      <c r="I417" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I417" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J417" s="1">
         <v>45505</v>
@@ -17026,9 +16686,8 @@
       <c r="H418" t="s">
         <v>14</v>
       </c>
-      <c r="I418" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I418" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J418" s="1">
         <v>45506</v>
@@ -17059,9 +16718,8 @@
       <c r="H419" t="s">
         <v>14</v>
       </c>
-      <c r="I419" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I419" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J419" s="1">
         <v>45507</v>
@@ -17092,9 +16750,8 @@
       <c r="H420" t="s">
         <v>14</v>
       </c>
-      <c r="I420" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I420" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J420" s="1">
         <v>45508</v>
@@ -17125,9 +16782,8 @@
       <c r="H421" t="s">
         <v>14</v>
       </c>
-      <c r="I421" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I421" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J421" s="1">
         <v>45509</v>
@@ -17158,9 +16814,8 @@
       <c r="H422" t="s">
         <v>14</v>
       </c>
-      <c r="I422" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I422" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J422" s="1">
         <v>45510</v>
@@ -17191,9 +16846,8 @@
       <c r="H423" t="s">
         <v>14</v>
       </c>
-      <c r="I423" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I423" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J423" s="1">
         <v>45511</v>
@@ -17224,9 +16878,8 @@
       <c r="H424" t="s">
         <v>14</v>
       </c>
-      <c r="I424" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I424" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J424" s="1">
         <v>45512</v>
@@ -17257,9 +16910,8 @@
       <c r="H425" t="s">
         <v>33</v>
       </c>
-      <c r="I425" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I425" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J425" s="1">
         <v>45514</v>
@@ -17290,9 +16942,8 @@
       <c r="H426" t="s">
         <v>14</v>
       </c>
-      <c r="I426" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I426" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J426" s="1">
         <v>45514</v>
@@ -17323,9 +16974,8 @@
       <c r="H427" t="s">
         <v>51</v>
       </c>
-      <c r="I427" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I427" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J427" s="1">
         <v>45516</v>
@@ -17356,9 +17006,8 @@
       <c r="H428" t="s">
         <v>14</v>
       </c>
-      <c r="I428" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I428" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J428" s="1">
         <v>45516</v>
@@ -17389,9 +17038,8 @@
       <c r="H429" t="s">
         <v>33</v>
       </c>
-      <c r="I429" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I429" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J429" s="1">
         <v>45518</v>
@@ -17422,9 +17070,8 @@
       <c r="H430" t="s">
         <v>14</v>
       </c>
-      <c r="I430" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I430" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J430" s="1">
         <v>45518</v>
@@ -17455,9 +17102,8 @@
       <c r="H431" t="s">
         <v>14</v>
       </c>
-      <c r="I431" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I431" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J431" s="1">
         <v>45519</v>
@@ -17488,9 +17134,8 @@
       <c r="H432" t="s">
         <v>14</v>
       </c>
-      <c r="I432" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I432" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J432" s="1">
         <v>45520</v>
@@ -17521,9 +17166,8 @@
       <c r="H433" t="s">
         <v>14</v>
       </c>
-      <c r="I433" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I433" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J433" s="1">
         <v>45521</v>
@@ -17554,9 +17198,8 @@
       <c r="H434" t="s">
         <v>14</v>
       </c>
-      <c r="I434" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I434" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J434" s="1">
         <v>45522</v>
@@ -17587,9 +17230,8 @@
       <c r="H435" t="s">
         <v>14</v>
       </c>
-      <c r="I435" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I435" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J435" s="1">
         <v>45523</v>
@@ -17620,9 +17262,8 @@
       <c r="H436" t="s">
         <v>14</v>
       </c>
-      <c r="I436" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I436" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J436" s="1">
         <v>45524</v>
@@ -17653,9 +17294,8 @@
       <c r="H437" t="s">
         <v>14</v>
       </c>
-      <c r="I437" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I437" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J437" s="1">
         <v>45525</v>
@@ -17686,9 +17326,8 @@
       <c r="H438" t="s">
         <v>14</v>
       </c>
-      <c r="I438" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I438" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J438" s="1">
         <v>45526</v>
@@ -17719,9 +17358,8 @@
       <c r="H439" t="s">
         <v>33</v>
       </c>
-      <c r="I439" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I439" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J439" s="1">
         <v>45528</v>
@@ -17752,9 +17390,8 @@
       <c r="H440" t="s">
         <v>14</v>
       </c>
-      <c r="I440" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I440" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J440" s="1">
         <v>45528</v>
@@ -17785,9 +17422,8 @@
       <c r="H441" t="s">
         <v>14</v>
       </c>
-      <c r="I441" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I441" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J441" s="1">
         <v>45529</v>
@@ -17818,9 +17454,8 @@
       <c r="H442" t="s">
         <v>14</v>
       </c>
-      <c r="I442" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I442" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J442" s="1">
         <v>45530</v>
@@ -17851,9 +17486,8 @@
       <c r="H443" t="s">
         <v>14</v>
       </c>
-      <c r="I443" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I443" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J443" s="1">
         <v>45531</v>
@@ -17884,9 +17518,8 @@
       <c r="H444" t="s">
         <v>33</v>
       </c>
-      <c r="I444" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I444" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J444" s="1">
         <v>45533</v>
@@ -17917,9 +17550,8 @@
       <c r="H445" t="s">
         <v>14</v>
       </c>
-      <c r="I445" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I445" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J445" s="1">
         <v>45533</v>
@@ -17950,9 +17582,8 @@
       <c r="H446" t="s">
         <v>14</v>
       </c>
-      <c r="I446" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I446" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J446" s="1">
         <v>45534</v>
@@ -17983,9 +17614,8 @@
       <c r="H447" t="s">
         <v>14</v>
       </c>
-      <c r="I447" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I447" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J447" s="1">
         <v>45535</v>
@@ -18016,9 +17646,8 @@
       <c r="H448" t="s">
         <v>51</v>
       </c>
-      <c r="I448" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I448" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J448" s="1">
         <v>45537</v>
@@ -18049,9 +17678,8 @@
       <c r="H449" t="s">
         <v>14</v>
       </c>
-      <c r="I449" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I449" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J449" s="1">
         <v>45537</v>
@@ -18082,9 +17710,8 @@
       <c r="H450" t="s">
         <v>14</v>
       </c>
-      <c r="I450" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I450" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J450" s="1">
         <v>45538</v>
@@ -18115,9 +17742,8 @@
       <c r="H451" t="s">
         <v>14</v>
       </c>
-      <c r="I451" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I451" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J451" s="1">
         <v>45539</v>
@@ -18148,9 +17774,8 @@
       <c r="H452" t="s">
         <v>14</v>
       </c>
-      <c r="I452" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I452" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J452" s="1">
         <v>45540</v>
@@ -18181,9 +17806,8 @@
       <c r="H453" t="s">
         <v>14</v>
       </c>
-      <c r="I453" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I453" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J453" s="1">
         <v>45541</v>
@@ -18214,9 +17838,8 @@
       <c r="H454" t="s">
         <v>14</v>
       </c>
-      <c r="I454" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I454" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J454" s="1">
         <v>45542</v>
@@ -18247,9 +17870,8 @@
       <c r="H455" t="s">
         <v>14</v>
       </c>
-      <c r="I455" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I455" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J455" s="1">
         <v>45543</v>
@@ -18280,9 +17902,8 @@
       <c r="H456" t="s">
         <v>14</v>
       </c>
-      <c r="I456" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I456" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J456" s="1">
         <v>45544</v>
@@ -18313,9 +17934,8 @@
       <c r="H457" t="s">
         <v>14</v>
       </c>
-      <c r="I457" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I457" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J457" s="1">
         <v>45545</v>
@@ -18346,9 +17966,8 @@
       <c r="H458" t="s">
         <v>14</v>
       </c>
-      <c r="I458" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I458" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J458" s="1">
         <v>45546</v>
@@ -18379,9 +17998,8 @@
       <c r="H459" t="s">
         <v>14</v>
       </c>
-      <c r="I459" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I459" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J459" s="1">
         <v>45547</v>
@@ -18412,9 +18030,8 @@
       <c r="H460" t="s">
         <v>14</v>
       </c>
-      <c r="I460" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I460" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J460" s="1">
         <v>45548</v>
@@ -18445,9 +18062,8 @@
       <c r="H461" t="s">
         <v>33</v>
       </c>
-      <c r="I461" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I461" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J461" s="1">
         <v>45550</v>
@@ -18478,9 +18094,8 @@
       <c r="H462" t="s">
         <v>14</v>
       </c>
-      <c r="I462" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I462" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J462" s="1">
         <v>45550</v>
@@ -18511,9 +18126,8 @@
       <c r="H463" t="s">
         <v>51</v>
       </c>
-      <c r="I463" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I463" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J463" s="1">
         <v>45552</v>
@@ -18544,9 +18158,8 @@
       <c r="H464" t="s">
         <v>14</v>
       </c>
-      <c r="I464" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I464" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J464" s="1">
         <v>45552</v>
@@ -18577,9 +18190,8 @@
       <c r="H465" t="s">
         <v>33</v>
       </c>
-      <c r="I465" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I465" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J465" s="1">
         <v>45554</v>
@@ -18610,9 +18222,8 @@
       <c r="H466" t="s">
         <v>14</v>
       </c>
-      <c r="I466" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I466" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J466" s="1">
         <v>45554</v>
@@ -18643,9 +18254,8 @@
       <c r="H467" t="s">
         <v>14</v>
       </c>
-      <c r="I467" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I467" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J467" s="1">
         <v>45555</v>
@@ -18676,9 +18286,8 @@
       <c r="H468" t="s">
         <v>14</v>
       </c>
-      <c r="I468" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I468" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J468" s="1">
         <v>45556</v>
@@ -18709,9 +18318,8 @@
       <c r="H469" t="s">
         <v>14</v>
       </c>
-      <c r="I469" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I469" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J469" s="1">
         <v>45557</v>
@@ -18742,9 +18350,8 @@
       <c r="H470" t="s">
         <v>14</v>
       </c>
-      <c r="I470" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I470" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J470" s="1">
         <v>45558</v>
@@ -18775,9 +18382,8 @@
       <c r="H471" t="s">
         <v>14</v>
       </c>
-      <c r="I471" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I471" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J471" s="1">
         <v>45559</v>
@@ -18808,9 +18414,8 @@
       <c r="H472" t="s">
         <v>14</v>
       </c>
-      <c r="I472" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I472" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J472" s="1">
         <v>45560</v>
@@ -18841,9 +18446,8 @@
       <c r="H473" t="s">
         <v>14</v>
       </c>
-      <c r="I473" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I473" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J473" s="1">
         <v>45561</v>
@@ -18874,9 +18478,8 @@
       <c r="H474" t="s">
         <v>14</v>
       </c>
-      <c r="I474" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I474" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J474" s="1">
         <v>45562</v>
@@ -18907,9 +18510,8 @@
       <c r="H475" t="s">
         <v>33</v>
       </c>
-      <c r="I475" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I475" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J475" s="1">
         <v>45564</v>
@@ -18940,9 +18542,8 @@
       <c r="H476" t="s">
         <v>14</v>
       </c>
-      <c r="I476" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I476" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J476" s="1">
         <v>45564</v>
@@ -18973,9 +18574,8 @@
       <c r="H477" t="s">
         <v>14</v>
       </c>
-      <c r="I477" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I477" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J477" s="1">
         <v>45565</v>
@@ -19006,9 +18606,8 @@
       <c r="H478" t="s">
         <v>14</v>
       </c>
-      <c r="I478" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I478" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J478" s="1">
         <v>45566</v>
@@ -19039,9 +18638,8 @@
       <c r="H479" t="s">
         <v>14</v>
       </c>
-      <c r="I479" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I479" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J479" s="1">
         <v>45567</v>
@@ -19072,9 +18670,8 @@
       <c r="H480" t="s">
         <v>33</v>
       </c>
-      <c r="I480" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I480" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J480" s="1">
         <v>45569</v>
@@ -19105,9 +18702,8 @@
       <c r="H481" t="s">
         <v>14</v>
       </c>
-      <c r="I481" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I481" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J481" s="1">
         <v>45569</v>
@@ -19138,9 +18734,8 @@
       <c r="H482" t="s">
         <v>14</v>
       </c>
-      <c r="I482" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I482" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J482" s="1">
         <v>45570</v>
@@ -19171,9 +18766,8 @@
       <c r="H483" t="s">
         <v>14</v>
       </c>
-      <c r="I483" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I483" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J483" s="1">
         <v>45571</v>
@@ -19204,9 +18798,8 @@
       <c r="H484" t="s">
         <v>51</v>
       </c>
-      <c r="I484" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I484" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J484" s="1">
         <v>45573</v>
@@ -19237,9 +18830,8 @@
       <c r="H485" t="s">
         <v>14</v>
       </c>
-      <c r="I485" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I485" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J485" s="1">
         <v>45573</v>
@@ -19270,9 +18862,8 @@
       <c r="H486" t="s">
         <v>14</v>
       </c>
-      <c r="I486" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I486" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J486" s="1">
         <v>45574</v>
@@ -19303,9 +18894,8 @@
       <c r="H487" t="s">
         <v>14</v>
       </c>
-      <c r="I487" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I487" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J487" s="1">
         <v>45575</v>
@@ -19336,9 +18926,8 @@
       <c r="H488" t="s">
         <v>14</v>
       </c>
-      <c r="I488" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I488" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J488" s="1">
         <v>45576</v>
@@ -19369,9 +18958,8 @@
       <c r="H489" t="s">
         <v>14</v>
       </c>
-      <c r="I489" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I489" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J489" s="1">
         <v>45577</v>
@@ -19402,9 +18990,8 @@
       <c r="H490" t="s">
         <v>14</v>
       </c>
-      <c r="I490" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I490" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J490" s="1">
         <v>45578</v>
@@ -19435,9 +19022,8 @@
       <c r="H491" t="s">
         <v>14</v>
       </c>
-      <c r="I491" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I491" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J491" s="1">
         <v>45579</v>
@@ -19468,9 +19054,8 @@
       <c r="H492" t="s">
         <v>14</v>
       </c>
-      <c r="I492" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I492" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J492" s="1">
         <v>45580</v>
@@ -19501,9 +19086,8 @@
       <c r="H493" t="s">
         <v>14</v>
       </c>
-      <c r="I493" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I493" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J493" s="1">
         <v>45581</v>
@@ -19534,9 +19118,8 @@
       <c r="H494" t="s">
         <v>14</v>
       </c>
-      <c r="I494" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I494" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J494" s="1">
         <v>45582</v>
@@ -19567,9 +19150,8 @@
       <c r="H495" t="s">
         <v>14</v>
       </c>
-      <c r="I495" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I495" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J495" s="1">
         <v>45583</v>
@@ -19600,9 +19182,8 @@
       <c r="H496" t="s">
         <v>14</v>
       </c>
-      <c r="I496" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I496" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J496" s="1">
         <v>45584</v>
@@ -19633,9 +19214,8 @@
       <c r="H497" t="s">
         <v>33</v>
       </c>
-      <c r="I497" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I497" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J497" s="1">
         <v>45586</v>
@@ -19666,9 +19246,8 @@
       <c r="H498" t="s">
         <v>14</v>
       </c>
-      <c r="I498" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I498" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J498" s="1">
         <v>45586</v>
@@ -19699,9 +19278,8 @@
       <c r="H499" t="s">
         <v>51</v>
       </c>
-      <c r="I499" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I499" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J499" s="1">
         <v>45588</v>
@@ -19732,9 +19310,8 @@
       <c r="H500" t="s">
         <v>14</v>
       </c>
-      <c r="I500" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I500" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J500" s="1">
         <v>45588</v>
@@ -19765,9 +19342,8 @@
       <c r="H501" t="s">
         <v>33</v>
       </c>
-      <c r="I501" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I501" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J501" s="1">
         <v>45590</v>
@@ -19798,9 +19374,8 @@
       <c r="H502" t="s">
         <v>14</v>
       </c>
-      <c r="I502" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I502" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J502" s="1">
         <v>45590</v>
@@ -19831,9 +19406,8 @@
       <c r="H503" t="s">
         <v>14</v>
       </c>
-      <c r="I503" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I503" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J503" s="1">
         <v>45591</v>
@@ -19864,9 +19438,8 @@
       <c r="H504" t="s">
         <v>14</v>
       </c>
-      <c r="I504" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I504" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J504" s="1">
         <v>45592</v>
@@ -19897,9 +19470,8 @@
       <c r="H505" t="s">
         <v>14</v>
       </c>
-      <c r="I505" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I505" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J505" s="1">
         <v>45593</v>
@@ -19930,9 +19502,8 @@
       <c r="H506" t="s">
         <v>14</v>
       </c>
-      <c r="I506" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I506" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J506" s="1">
         <v>45594</v>
@@ -19963,9 +19534,8 @@
       <c r="H507" t="s">
         <v>14</v>
       </c>
-      <c r="I507" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I507" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J507" s="1">
         <v>45595</v>
@@ -19996,9 +19566,8 @@
       <c r="H508" t="s">
         <v>14</v>
       </c>
-      <c r="I508" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I508" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J508" s="1">
         <v>45596</v>
@@ -20029,9 +19598,8 @@
       <c r="H509" t="s">
         <v>14</v>
       </c>
-      <c r="I509" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I509" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J509" s="1">
         <v>45597</v>
@@ -20062,9 +19630,8 @@
       <c r="H510" t="s">
         <v>14</v>
       </c>
-      <c r="I510" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I510" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J510" s="1">
         <v>45598</v>
@@ -20095,9 +19662,8 @@
       <c r="H511" t="s">
         <v>33</v>
       </c>
-      <c r="I511" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I511" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J511" s="1">
         <v>45600</v>
@@ -20128,9 +19694,8 @@
       <c r="H512" t="s">
         <v>14</v>
       </c>
-      <c r="I512" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I512" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J512" s="1">
         <v>45600</v>
@@ -20161,9 +19726,8 @@
       <c r="H513" t="s">
         <v>14</v>
       </c>
-      <c r="I513" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I513" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J513" s="1">
         <v>45601</v>
@@ -20194,9 +19758,8 @@
       <c r="H514" t="s">
         <v>14</v>
       </c>
-      <c r="I514" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I514" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J514" s="1">
         <v>45602</v>
@@ -20227,9 +19790,8 @@
       <c r="H515" t="s">
         <v>14</v>
       </c>
-      <c r="I515" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I515" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J515" s="1">
         <v>45603</v>
@@ -20260,9 +19822,8 @@
       <c r="H516" t="s">
         <v>33</v>
       </c>
-      <c r="I516" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I516" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J516" s="1">
         <v>45605</v>
@@ -20293,9 +19854,8 @@
       <c r="H517" t="s">
         <v>14</v>
       </c>
-      <c r="I517" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I517" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J517" s="1">
         <v>45605</v>
@@ -20326,9 +19886,8 @@
       <c r="H518" t="s">
         <v>14</v>
       </c>
-      <c r="I518" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I518" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J518" s="1">
         <v>45606</v>
@@ -20359,9 +19918,8 @@
       <c r="H519" t="s">
         <v>14</v>
       </c>
-      <c r="I519" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I519" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J519" s="1">
         <v>45607</v>
@@ -20392,9 +19950,8 @@
       <c r="H520" t="s">
         <v>51</v>
       </c>
-      <c r="I520" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I520" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J520" s="1">
         <v>45609</v>
@@ -20425,9 +19982,8 @@
       <c r="H521" t="s">
         <v>14</v>
       </c>
-      <c r="I521" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I521" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J521" s="1">
         <v>45609</v>
@@ -20458,9 +20014,8 @@
       <c r="H522" t="s">
         <v>14</v>
       </c>
-      <c r="I522" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I522" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J522" s="1">
         <v>45610</v>
@@ -20491,9 +20046,8 @@
       <c r="H523" t="s">
         <v>14</v>
       </c>
-      <c r="I523" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I523" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J523" s="1">
         <v>45611</v>
@@ -20524,9 +20078,8 @@
       <c r="H524" t="s">
         <v>14</v>
       </c>
-      <c r="I524" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I524" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J524" s="1">
         <v>45612</v>
@@ -20557,9 +20110,8 @@
       <c r="H525" t="s">
         <v>14</v>
       </c>
-      <c r="I525" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I525" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J525" s="1">
         <v>45613</v>
@@ -20590,9 +20142,8 @@
       <c r="H526" t="s">
         <v>14</v>
       </c>
-      <c r="I526" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I526" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J526" s="1">
         <v>45614</v>
@@ -20623,9 +20174,8 @@
       <c r="H527" t="s">
         <v>14</v>
       </c>
-      <c r="I527" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I527" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J527" s="1">
         <v>45615</v>
@@ -20656,9 +20206,8 @@
       <c r="H528" t="s">
         <v>14</v>
       </c>
-      <c r="I528" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I528" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J528" s="1">
         <v>45616</v>
@@ -20689,9 +20238,8 @@
       <c r="H529" t="s">
         <v>14</v>
       </c>
-      <c r="I529" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I529" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J529" s="1">
         <v>45617</v>
@@ -20722,9 +20270,8 @@
       <c r="H530" t="s">
         <v>14</v>
       </c>
-      <c r="I530" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I530" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J530" s="1">
         <v>45618</v>
@@ -20755,9 +20302,8 @@
       <c r="H531" t="s">
         <v>14</v>
       </c>
-      <c r="I531" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I531" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J531" s="1">
         <v>45619</v>
@@ -20788,9 +20334,8 @@
       <c r="H532" t="s">
         <v>14</v>
       </c>
-      <c r="I532" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I532" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J532" s="1">
         <v>45620</v>
@@ -20821,9 +20366,8 @@
       <c r="H533" t="s">
         <v>33</v>
       </c>
-      <c r="I533" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I533" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J533" s="1">
         <v>45622</v>
@@ -20854,9 +20398,8 @@
       <c r="H534" t="s">
         <v>14</v>
       </c>
-      <c r="I534" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I534" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J534" s="1">
         <v>45622</v>
@@ -20887,9 +20430,8 @@
       <c r="H535" t="s">
         <v>51</v>
       </c>
-      <c r="I535" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I535" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J535" s="1">
         <v>45624</v>
@@ -20920,9 +20462,8 @@
       <c r="H536" t="s">
         <v>14</v>
       </c>
-      <c r="I536" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I536" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J536" s="1">
         <v>45624</v>
@@ -20953,9 +20494,8 @@
       <c r="H537" t="s">
         <v>33</v>
       </c>
-      <c r="I537" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I537" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J537" s="1">
         <v>45626</v>
@@ -20986,9 +20526,8 @@
       <c r="H538" t="s">
         <v>14</v>
       </c>
-      <c r="I538" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I538" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J538" s="1">
         <v>45626</v>
@@ -21019,9 +20558,8 @@
       <c r="H539" t="s">
         <v>14</v>
       </c>
-      <c r="I539" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I539" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J539" s="1">
         <v>45627</v>
@@ -21052,9 +20590,8 @@
       <c r="H540" t="s">
         <v>14</v>
       </c>
-      <c r="I540" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I540" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J540" s="1">
         <v>45628</v>
@@ -21085,9 +20622,8 @@
       <c r="H541" t="s">
         <v>14</v>
       </c>
-      <c r="I541" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I541" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J541" s="1">
         <v>45629</v>
@@ -21118,9 +20654,8 @@
       <c r="H542" t="s">
         <v>14</v>
       </c>
-      <c r="I542" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I542" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J542" s="1">
         <v>45630</v>
@@ -21151,9 +20686,8 @@
       <c r="H543" t="s">
         <v>14</v>
       </c>
-      <c r="I543" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I543" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J543" s="1">
         <v>45631</v>
@@ -21184,9 +20718,8 @@
       <c r="H544" t="s">
         <v>14</v>
       </c>
-      <c r="I544" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I544" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J544" s="1">
         <v>45632</v>
@@ -21217,9 +20750,8 @@
       <c r="H545" t="s">
         <v>14</v>
       </c>
-      <c r="I545" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I545" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J545" s="1">
         <v>45633</v>
@@ -21250,9 +20782,8 @@
       <c r="H546" t="s">
         <v>14</v>
       </c>
-      <c r="I546" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I546" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J546" s="1">
         <v>45634</v>
@@ -21283,9 +20814,8 @@
       <c r="H547" t="s">
         <v>33</v>
       </c>
-      <c r="I547" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I547" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J547" s="1">
         <v>45636</v>
@@ -21316,9 +20846,8 @@
       <c r="H548" t="s">
         <v>14</v>
       </c>
-      <c r="I548" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I548" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J548" s="1">
         <v>45636</v>
@@ -21349,9 +20878,8 @@
       <c r="H549" t="s">
         <v>14</v>
       </c>
-      <c r="I549" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I549" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J549" s="1">
         <v>45637</v>
@@ -21382,9 +20910,8 @@
       <c r="H550" t="s">
         <v>14</v>
       </c>
-      <c r="I550" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I550" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J550" s="1">
         <v>45638</v>
@@ -21415,9 +20942,8 @@
       <c r="H551" t="s">
         <v>14</v>
       </c>
-      <c r="I551" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I551" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J551" s="1">
         <v>45639</v>
@@ -21448,9 +20974,8 @@
       <c r="H552" t="s">
         <v>33</v>
       </c>
-      <c r="I552" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I552" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J552" s="1">
         <v>45641</v>
@@ -21481,9 +21006,8 @@
       <c r="H553" t="s">
         <v>14</v>
       </c>
-      <c r="I553" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I553" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J553" s="1">
         <v>45641</v>
@@ -21514,9 +21038,8 @@
       <c r="H554" t="s">
         <v>14</v>
       </c>
-      <c r="I554" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I554" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J554" s="1">
         <v>45642</v>
@@ -21547,9 +21070,8 @@
       <c r="H555" t="s">
         <v>14</v>
       </c>
-      <c r="I555" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I555" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J555" s="1">
         <v>45643</v>
@@ -21580,9 +21102,8 @@
       <c r="H556" t="s">
         <v>51</v>
       </c>
-      <c r="I556" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I556" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J556" s="1">
         <v>45645</v>
@@ -21613,9 +21134,8 @@
       <c r="H557" t="s">
         <v>14</v>
       </c>
-      <c r="I557" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I557" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J557" s="1">
         <v>45645</v>
@@ -21646,9 +21166,8 @@
       <c r="H558" t="s">
         <v>14</v>
       </c>
-      <c r="I558" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I558" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J558" s="1">
         <v>45646</v>
@@ -21679,9 +21198,8 @@
       <c r="H559" t="s">
         <v>14</v>
       </c>
-      <c r="I559" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I559" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J559" s="1">
         <v>45647</v>
@@ -21712,9 +21230,8 @@
       <c r="H560" t="s">
         <v>14</v>
       </c>
-      <c r="I560" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I560" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J560" s="1">
         <v>45648</v>
@@ -21745,9 +21262,8 @@
       <c r="H561" t="s">
         <v>14</v>
       </c>
-      <c r="I561" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I561" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J561" s="1">
         <v>45649</v>
@@ -21778,9 +21294,8 @@
       <c r="H562" t="s">
         <v>14</v>
       </c>
-      <c r="I562" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I562" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J562" s="1">
         <v>45650</v>
@@ -21811,9 +21326,8 @@
       <c r="H563" t="s">
         <v>14</v>
       </c>
-      <c r="I563" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I563" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J563" s="1">
         <v>45651</v>
@@ -21844,9 +21358,8 @@
       <c r="H564" t="s">
         <v>14</v>
       </c>
-      <c r="I564" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I564" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J564" s="1">
         <v>45652</v>
@@ -21877,9 +21390,8 @@
       <c r="H565" t="s">
         <v>14</v>
       </c>
-      <c r="I565" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I565" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J565" s="1">
         <v>45653</v>
@@ -21910,9 +21422,8 @@
       <c r="H566" t="s">
         <v>14</v>
       </c>
-      <c r="I566" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I566" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J566" s="1">
         <v>45654</v>
@@ -21943,9 +21454,8 @@
       <c r="H567" t="s">
         <v>14</v>
       </c>
-      <c r="I567" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I567" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J567" s="1">
         <v>45655</v>
@@ -21976,9 +21486,8 @@
       <c r="H568" t="s">
         <v>14</v>
       </c>
-      <c r="I568" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I568" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J568" s="1">
         <v>45656</v>
@@ -22009,9 +21518,8 @@
       <c r="H569" t="s">
         <v>33</v>
       </c>
-      <c r="I569" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I569" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J569" s="1">
         <v>45658</v>
@@ -22042,9 +21550,8 @@
       <c r="H570" t="s">
         <v>14</v>
       </c>
-      <c r="I570" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I570" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J570" s="1">
         <v>45658</v>
@@ -22075,9 +21582,8 @@
       <c r="H571" t="s">
         <v>51</v>
       </c>
-      <c r="I571" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I571" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J571" s="1">
         <v>45660</v>
@@ -22108,9 +21614,8 @@
       <c r="H572" t="s">
         <v>14</v>
       </c>
-      <c r="I572" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I572" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J572" s="1">
         <v>45660</v>
@@ -22141,9 +21646,8 @@
       <c r="H573" t="s">
         <v>33</v>
       </c>
-      <c r="I573" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I573" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J573" s="1">
         <v>45662</v>
@@ -22174,9 +21678,8 @@
       <c r="H574" t="s">
         <v>14</v>
       </c>
-      <c r="I574" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I574" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J574" s="1">
         <v>45662</v>
@@ -22207,9 +21710,8 @@
       <c r="H575" t="s">
         <v>14</v>
       </c>
-      <c r="I575" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I575" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J575" s="1">
         <v>45663</v>
@@ -22240,9 +21742,8 @@
       <c r="H576" t="s">
         <v>14</v>
       </c>
-      <c r="I576" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I576" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J576" s="1">
         <v>45664</v>
@@ -22273,9 +21774,8 @@
       <c r="H577" t="s">
         <v>14</v>
       </c>
-      <c r="I577" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I577" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J577" s="1">
         <v>45665</v>
@@ -22306,9 +21806,8 @@
       <c r="H578" t="s">
         <v>14</v>
       </c>
-      <c r="I578" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I578" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J578" s="1">
         <v>45666</v>
@@ -22339,9 +21838,8 @@
       <c r="H579" t="s">
         <v>14</v>
       </c>
-      <c r="I579" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I579" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J579" s="1">
         <v>45667</v>
@@ -22372,9 +21870,8 @@
       <c r="H580" t="s">
         <v>14</v>
       </c>
-      <c r="I580" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I580" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J580" s="1">
         <v>45668</v>
@@ -22405,9 +21902,8 @@
       <c r="H581" t="s">
         <v>14</v>
       </c>
-      <c r="I581" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I581" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J581" s="1">
         <v>45669</v>
@@ -22438,9 +21934,8 @@
       <c r="H582" t="s">
         <v>14</v>
       </c>
-      <c r="I582" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I582" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J582" s="1">
         <v>45670</v>
@@ -22471,9 +21966,8 @@
       <c r="H583" t="s">
         <v>33</v>
       </c>
-      <c r="I583" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I583" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J583" s="1">
         <v>45672</v>
@@ -22504,9 +21998,8 @@
       <c r="H584" t="s">
         <v>14</v>
       </c>
-      <c r="I584" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I584" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J584" s="1">
         <v>45672</v>
@@ -22537,9 +22030,8 @@
       <c r="H585" t="s">
         <v>14</v>
       </c>
-      <c r="I585" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I585" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J585" s="1">
         <v>45673</v>
@@ -22570,9 +22062,8 @@
       <c r="H586" t="s">
         <v>14</v>
       </c>
-      <c r="I586" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I586" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J586" s="1">
         <v>45674</v>
@@ -22603,9 +22094,8 @@
       <c r="H587" t="s">
         <v>14</v>
       </c>
-      <c r="I587" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I587" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J587" s="1">
         <v>45675</v>
@@ -22636,9 +22126,8 @@
       <c r="H588" t="s">
         <v>33</v>
       </c>
-      <c r="I588" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I588" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J588" s="1">
         <v>45677</v>
@@ -22669,9 +22158,8 @@
       <c r="H589" t="s">
         <v>14</v>
       </c>
-      <c r="I589" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I589" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J589" s="1">
         <v>45677</v>
@@ -22702,9 +22190,8 @@
       <c r="H590" t="s">
         <v>14</v>
       </c>
-      <c r="I590" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I590" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J590" s="1">
         <v>45678</v>
@@ -22735,9 +22222,8 @@
       <c r="H591" t="s">
         <v>14</v>
       </c>
-      <c r="I591" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I591" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J591" s="1">
         <v>45679</v>
@@ -22768,9 +22254,8 @@
       <c r="H592" t="s">
         <v>51</v>
       </c>
-      <c r="I592" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I592" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J592" s="1">
         <v>45681</v>
@@ -22801,9 +22286,8 @@
       <c r="H593" t="s">
         <v>14</v>
       </c>
-      <c r="I593" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I593" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J593" s="1">
         <v>45681</v>
@@ -22834,9 +22318,8 @@
       <c r="H594" t="s">
         <v>14</v>
       </c>
-      <c r="I594" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I594" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J594" s="1">
         <v>45682</v>
@@ -22867,9 +22350,8 @@
       <c r="H595" t="s">
         <v>14</v>
       </c>
-      <c r="I595" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I595" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J595" s="1">
         <v>45683</v>
@@ -22900,9 +22382,8 @@
       <c r="H596" t="s">
         <v>14</v>
       </c>
-      <c r="I596" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I596" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J596" s="1">
         <v>45684</v>
@@ -22933,9 +22414,8 @@
       <c r="H597" t="s">
         <v>14</v>
       </c>
-      <c r="I597" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I597" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J597" s="1">
         <v>45685</v>
@@ -22966,9 +22446,8 @@
       <c r="H598" t="s">
         <v>14</v>
       </c>
-      <c r="I598" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I598" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J598" s="1">
         <v>45686</v>
@@ -22999,9 +22478,8 @@
       <c r="H599" t="s">
         <v>14</v>
       </c>
-      <c r="I599" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I599" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J599" s="1">
         <v>45687</v>
@@ -23032,9 +22510,8 @@
       <c r="H600" t="s">
         <v>14</v>
       </c>
-      <c r="I600" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I600" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J600" s="1">
         <v>45688</v>
@@ -23065,9 +22542,8 @@
       <c r="H601" t="s">
         <v>14</v>
       </c>
-      <c r="I601" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I601" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J601" s="1">
         <v>45689</v>
@@ -23098,9 +22574,8 @@
       <c r="H602" t="s">
         <v>14</v>
       </c>
-      <c r="I602" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I602" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J602" s="1">
         <v>45690</v>
@@ -23131,9 +22606,8 @@
       <c r="H603" t="s">
         <v>14</v>
       </c>
-      <c r="I603" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I603" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J603" s="1">
         <v>45691</v>
@@ -23164,9 +22638,8 @@
       <c r="H604" t="s">
         <v>14</v>
       </c>
-      <c r="I604" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I604" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J604" s="1">
         <v>45692</v>
@@ -23197,9 +22670,8 @@
       <c r="H605" t="s">
         <v>33</v>
       </c>
-      <c r="I605" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I605" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J605" s="1">
         <v>45694</v>
@@ -23230,9 +22702,8 @@
       <c r="H606" t="s">
         <v>14</v>
       </c>
-      <c r="I606" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I606" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J606" s="1">
         <v>45694</v>
@@ -23263,9 +22734,8 @@
       <c r="H607" t="s">
         <v>51</v>
       </c>
-      <c r="I607" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I607" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J607" s="1">
         <v>45696</v>
@@ -23296,9 +22766,8 @@
       <c r="H608" t="s">
         <v>14</v>
       </c>
-      <c r="I608" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I608" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J608" s="1">
         <v>45696</v>
@@ -23329,9 +22798,8 @@
       <c r="H609" t="s">
         <v>33</v>
       </c>
-      <c r="I609" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I609" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J609" s="1">
         <v>45698</v>
@@ -23362,9 +22830,8 @@
       <c r="H610" t="s">
         <v>14</v>
       </c>
-      <c r="I610" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I610" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J610" s="1">
         <v>45698</v>
@@ -23395,9 +22862,8 @@
       <c r="H611" t="s">
         <v>14</v>
       </c>
-      <c r="I611" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I611" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J611" s="1">
         <v>45699</v>
@@ -23428,9 +22894,8 @@
       <c r="H612" t="s">
         <v>14</v>
       </c>
-      <c r="I612" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I612" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J612" s="1">
         <v>45700</v>
@@ -23461,9 +22926,8 @@
       <c r="H613" t="s">
         <v>14</v>
       </c>
-      <c r="I613" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I613" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J613" s="1">
         <v>45701</v>
@@ -23494,9 +22958,8 @@
       <c r="H614" t="s">
         <v>14</v>
       </c>
-      <c r="I614" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I614" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J614" s="1">
         <v>45702</v>
@@ -23527,9 +22990,8 @@
       <c r="H615" t="s">
         <v>14</v>
       </c>
-      <c r="I615" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I615" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J615" s="1">
         <v>45703</v>
@@ -23560,9 +23022,8 @@
       <c r="H616" t="s">
         <v>14</v>
       </c>
-      <c r="I616" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I616" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J616" s="1">
         <v>45704</v>
@@ -23593,9 +23054,8 @@
       <c r="H617" t="s">
         <v>14</v>
       </c>
-      <c r="I617" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I617" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J617" s="1">
         <v>45705</v>
@@ -23626,9 +23086,8 @@
       <c r="H618" t="s">
         <v>14</v>
       </c>
-      <c r="I618" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I618" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J618" s="1">
         <v>45706</v>
@@ -23659,9 +23118,8 @@
       <c r="H619" t="s">
         <v>33</v>
       </c>
-      <c r="I619" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I619" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J619" s="1">
         <v>45708</v>
@@ -23692,9 +23150,8 @@
       <c r="H620" t="s">
         <v>14</v>
       </c>
-      <c r="I620" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I620" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J620" s="1">
         <v>45708</v>
@@ -23725,9 +23182,8 @@
       <c r="H621" t="s">
         <v>14</v>
       </c>
-      <c r="I621" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I621" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J621" s="1">
         <v>45709</v>
@@ -23758,9 +23214,8 @@
       <c r="H622" t="s">
         <v>14</v>
       </c>
-      <c r="I622" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I622" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J622" s="1">
         <v>45710</v>
@@ -23791,9 +23246,8 @@
       <c r="H623" t="s">
         <v>14</v>
       </c>
-      <c r="I623" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I623" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J623" s="1">
         <v>45711</v>
@@ -23824,9 +23278,8 @@
       <c r="H624" t="s">
         <v>33</v>
       </c>
-      <c r="I624" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I624" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J624" s="1">
         <v>45713</v>
@@ -23857,9 +23310,8 @@
       <c r="H625" t="s">
         <v>14</v>
       </c>
-      <c r="I625" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I625" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J625" s="1">
         <v>45713</v>
@@ -23890,9 +23342,8 @@
       <c r="H626" t="s">
         <v>14</v>
       </c>
-      <c r="I626" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I626" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J626" s="1">
         <v>45714</v>
@@ -23923,9 +23374,8 @@
       <c r="H627" t="s">
         <v>14</v>
       </c>
-      <c r="I627" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I627" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J627" s="1">
         <v>45715</v>
@@ -23956,9 +23406,8 @@
       <c r="H628" t="s">
         <v>51</v>
       </c>
-      <c r="I628" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I628" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J628" s="1">
         <v>45717</v>
@@ -23989,9 +23438,8 @@
       <c r="H629" t="s">
         <v>14</v>
       </c>
-      <c r="I629" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I629" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J629" s="1">
         <v>45717</v>
@@ -24022,9 +23470,8 @@
       <c r="H630" t="s">
         <v>14</v>
       </c>
-      <c r="I630" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I630" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J630" s="1">
         <v>45718</v>
@@ -24055,9 +23502,8 @@
       <c r="H631" t="s">
         <v>14</v>
       </c>
-      <c r="I631" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I631" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J631" s="1">
         <v>45719</v>
@@ -24088,9 +23534,8 @@
       <c r="H632" t="s">
         <v>14</v>
       </c>
-      <c r="I632" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I632" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J632" s="1">
         <v>45720</v>
@@ -24121,9 +23566,8 @@
       <c r="H633" t="s">
         <v>14</v>
       </c>
-      <c r="I633" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I633" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J633" s="1">
         <v>45721</v>
@@ -24154,9 +23598,8 @@
       <c r="H634" t="s">
         <v>14</v>
       </c>
-      <c r="I634" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I634" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J634" s="1">
         <v>45722</v>
@@ -24187,9 +23630,8 @@
       <c r="H635" t="s">
         <v>14</v>
       </c>
-      <c r="I635" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I635" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J635" s="1">
         <v>45723</v>
@@ -24220,9 +23662,8 @@
       <c r="H636" t="s">
         <v>14</v>
       </c>
-      <c r="I636" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I636" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J636" s="1">
         <v>45724</v>
@@ -24253,9 +23694,8 @@
       <c r="H637" t="s">
         <v>14</v>
       </c>
-      <c r="I637" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I637" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J637" s="1">
         <v>45725</v>
@@ -24286,9 +23726,8 @@
       <c r="H638" t="s">
         <v>14</v>
       </c>
-      <c r="I638" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I638" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J638" s="1">
         <v>45726</v>
@@ -24319,9 +23758,8 @@
       <c r="H639" t="s">
         <v>14</v>
       </c>
-      <c r="I639" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I639" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J639" s="1">
         <v>45727</v>
@@ -24352,9 +23790,8 @@
       <c r="H640" t="s">
         <v>14</v>
       </c>
-      <c r="I640" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I640" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J640" s="1">
         <v>45728</v>
@@ -24385,9 +23822,8 @@
       <c r="H641" t="s">
         <v>33</v>
       </c>
-      <c r="I641" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I641" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J641" s="1">
         <v>45730</v>
@@ -24418,9 +23854,8 @@
       <c r="H642" t="s">
         <v>14</v>
       </c>
-      <c r="I642" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I642" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J642" s="1">
         <v>45730</v>
@@ -24451,9 +23886,8 @@
       <c r="H643" t="s">
         <v>51</v>
       </c>
-      <c r="I643" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I643" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J643" s="1">
         <v>45732</v>
@@ -24484,9 +23918,8 @@
       <c r="H644" t="s">
         <v>14</v>
       </c>
-      <c r="I644" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I644" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J644" s="1">
         <v>45732</v>
@@ -24517,9 +23950,8 @@
       <c r="H645" t="s">
         <v>33</v>
       </c>
-      <c r="I645" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I645" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J645" s="1">
         <v>45734</v>
@@ -24550,9 +23982,8 @@
       <c r="H646" t="s">
         <v>14</v>
       </c>
-      <c r="I646" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I646" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J646" s="1">
         <v>45734</v>
@@ -24583,9 +24014,8 @@
       <c r="H647" t="s">
         <v>14</v>
       </c>
-      <c r="I647" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I647" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J647" s="1">
         <v>45735</v>
@@ -24616,9 +24046,8 @@
       <c r="H648" t="s">
         <v>14</v>
       </c>
-      <c r="I648" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I648" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J648" s="1">
         <v>45736</v>
@@ -24649,9 +24078,8 @@
       <c r="H649" t="s">
         <v>14</v>
       </c>
-      <c r="I649" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I649" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J649" s="1">
         <v>45737</v>
@@ -24682,9 +24110,8 @@
       <c r="H650" t="s">
         <v>14</v>
       </c>
-      <c r="I650" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I650" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J650" s="1">
         <v>45738</v>
@@ -24715,9 +24142,8 @@
       <c r="H651" t="s">
         <v>14</v>
       </c>
-      <c r="I651" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I651" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J651" s="1">
         <v>45739</v>
@@ -24748,9 +24174,8 @@
       <c r="H652" t="s">
         <v>14</v>
       </c>
-      <c r="I652" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I652" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J652" s="1">
         <v>45740</v>
@@ -24781,9 +24206,8 @@
       <c r="H653" t="s">
         <v>14</v>
       </c>
-      <c r="I653" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I653" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J653" s="1">
         <v>45741</v>
@@ -24814,9 +24238,8 @@
       <c r="H654" t="s">
         <v>14</v>
       </c>
-      <c r="I654" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I654" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J654" s="1">
         <v>45742</v>
@@ -24847,9 +24270,8 @@
       <c r="H655" t="s">
         <v>33</v>
       </c>
-      <c r="I655" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I655" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J655" s="1">
         <v>45744</v>
@@ -24880,9 +24302,8 @@
       <c r="H656" t="s">
         <v>14</v>
       </c>
-      <c r="I656" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I656" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J656" s="1">
         <v>45744</v>
@@ -24913,9 +24334,8 @@
       <c r="H657" t="s">
         <v>14</v>
       </c>
-      <c r="I657" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I657" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J657" s="1">
         <v>45745</v>
@@ -24946,9 +24366,8 @@
       <c r="H658" t="s">
         <v>14</v>
       </c>
-      <c r="I658" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I658" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J658" s="1">
         <v>45746</v>
@@ -24979,9 +24398,8 @@
       <c r="H659" t="s">
         <v>14</v>
       </c>
-      <c r="I659" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I659" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J659" s="1">
         <v>45747</v>
@@ -25012,9 +24430,8 @@
       <c r="H660" t="s">
         <v>33</v>
       </c>
-      <c r="I660" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I660" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J660" s="1">
         <v>45749</v>
@@ -25045,9 +24462,8 @@
       <c r="H661" t="s">
         <v>14</v>
       </c>
-      <c r="I661" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I661" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J661" s="1">
         <v>45749</v>
@@ -25078,9 +24494,8 @@
       <c r="H662" t="s">
         <v>14</v>
       </c>
-      <c r="I662" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I662" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J662" s="1">
         <v>45750</v>
@@ -25111,9 +24526,8 @@
       <c r="H663" t="s">
         <v>14</v>
       </c>
-      <c r="I663" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I663" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J663" s="1">
         <v>45751</v>
@@ -25144,9 +24558,8 @@
       <c r="H664" t="s">
         <v>51</v>
       </c>
-      <c r="I664" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I664" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J664" s="1">
         <v>45753</v>
@@ -25177,9 +24590,8 @@
       <c r="H665" t="s">
         <v>14</v>
       </c>
-      <c r="I665" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I665" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J665" s="1">
         <v>45753</v>
@@ -25210,9 +24622,8 @@
       <c r="H666" t="s">
         <v>14</v>
       </c>
-      <c r="I666" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I666" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J666" s="1">
         <v>45754</v>
@@ -25243,9 +24654,8 @@
       <c r="H667" t="s">
         <v>14</v>
       </c>
-      <c r="I667" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I667" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J667" s="1">
         <v>45755</v>
@@ -25276,9 +24686,8 @@
       <c r="H668" t="s">
         <v>14</v>
       </c>
-      <c r="I668" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I668" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J668" s="1">
         <v>45756</v>
@@ -25309,9 +24718,8 @@
       <c r="H669" t="s">
         <v>14</v>
       </c>
-      <c r="I669" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I669" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J669" s="1">
         <v>45757</v>
@@ -25342,9 +24750,8 @@
       <c r="H670" t="s">
         <v>14</v>
       </c>
-      <c r="I670" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I670" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J670" s="1">
         <v>45758</v>
@@ -25375,9 +24782,8 @@
       <c r="H671" t="s">
         <v>14</v>
       </c>
-      <c r="I671" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I671" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J671" s="1">
         <v>45759</v>
@@ -25408,9 +24814,8 @@
       <c r="H672" t="s">
         <v>14</v>
       </c>
-      <c r="I672" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I672" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J672" s="1">
         <v>45760</v>
@@ -25441,9 +24846,8 @@
       <c r="H673" t="s">
         <v>14</v>
       </c>
-      <c r="I673" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I673" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J673" s="1">
         <v>45761</v>
@@ -25474,9 +24878,8 @@
       <c r="H674" t="s">
         <v>14</v>
       </c>
-      <c r="I674" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I674" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J674" s="1">
         <v>45762</v>
@@ -25507,9 +24910,8 @@
       <c r="H675" t="s">
         <v>14</v>
       </c>
-      <c r="I675" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I675" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J675" s="1">
         <v>45763</v>
@@ -25540,9 +24942,8 @@
       <c r="H676" t="s">
         <v>14</v>
       </c>
-      <c r="I676" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I676" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J676" s="1">
         <v>45764</v>
@@ -25573,9 +24974,8 @@
       <c r="H677" t="s">
         <v>33</v>
       </c>
-      <c r="I677" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I677" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J677" s="1">
         <v>45766</v>
@@ -25606,9 +25006,8 @@
       <c r="H678" t="s">
         <v>14</v>
       </c>
-      <c r="I678" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I678" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J678" s="1">
         <v>45766</v>
@@ -25639,9 +25038,8 @@
       <c r="H679" t="s">
         <v>51</v>
       </c>
-      <c r="I679" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I679" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J679" s="1">
         <v>45768</v>
@@ -25672,9 +25070,8 @@
       <c r="H680" t="s">
         <v>14</v>
       </c>
-      <c r="I680" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I680" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J680" s="1">
         <v>45768</v>
@@ -25705,9 +25102,8 @@
       <c r="H681" t="s">
         <v>33</v>
       </c>
-      <c r="I681" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I681" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J681" s="1">
         <v>45770</v>
@@ -25738,9 +25134,8 @@
       <c r="H682" t="s">
         <v>14</v>
       </c>
-      <c r="I682" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I682" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J682" s="1">
         <v>45770</v>
@@ -25771,9 +25166,8 @@
       <c r="H683" t="s">
         <v>14</v>
       </c>
-      <c r="I683" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I683" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J683" s="1">
         <v>45771</v>
@@ -25804,9 +25198,8 @@
       <c r="H684" t="s">
         <v>14</v>
       </c>
-      <c r="I684" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I684" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J684" s="1">
         <v>45772</v>
@@ -25837,9 +25230,8 @@
       <c r="H685" t="s">
         <v>14</v>
       </c>
-      <c r="I685" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I685" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J685" s="1">
         <v>45773</v>
@@ -25870,9 +25262,8 @@
       <c r="H686" t="s">
         <v>14</v>
       </c>
-      <c r="I686" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I686" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J686" s="1">
         <v>45774</v>
@@ -25903,9 +25294,8 @@
       <c r="H687" t="s">
         <v>14</v>
       </c>
-      <c r="I687" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I687" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J687" s="1">
         <v>45775</v>
@@ -25936,9 +25326,8 @@
       <c r="H688" t="s">
         <v>14</v>
       </c>
-      <c r="I688" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I688" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J688" s="1">
         <v>45776</v>
@@ -25969,9 +25358,8 @@
       <c r="H689" t="s">
         <v>14</v>
       </c>
-      <c r="I689" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I689" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J689" s="1">
         <v>45777</v>
@@ -26002,9 +25390,8 @@
       <c r="H690" t="s">
         <v>14</v>
       </c>
-      <c r="I690" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I690" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J690" s="1">
         <v>45778</v>
@@ -26035,9 +25422,8 @@
       <c r="H691" t="s">
         <v>33</v>
       </c>
-      <c r="I691" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>1</v>
+      <c r="I691" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J691" s="1">
         <v>45780</v>
@@ -26068,9 +25454,8 @@
       <c r="H692" t="s">
         <v>14</v>
       </c>
-      <c r="I692" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I692" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J692" s="1">
         <v>45780</v>
@@ -26101,9 +25486,8 @@
       <c r="H693" t="s">
         <v>14</v>
       </c>
-      <c r="I693" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I693" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J693" s="1">
         <v>45781</v>
@@ -26134,9 +25518,8 @@
       <c r="H694" t="s">
         <v>14</v>
       </c>
-      <c r="I694" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>3</v>
+      <c r="I694" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="J694" s="1">
         <v>45782</v>
@@ -26167,9 +25550,8 @@
       <c r="H695" t="s">
         <v>14</v>
       </c>
-      <c r="I695" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I695" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J695" s="1">
         <v>45783</v>
@@ -26200,9 +25582,8 @@
       <c r="H696" t="s">
         <v>33</v>
       </c>
-      <c r="I696" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I696" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J696" s="1">
         <v>45785</v>
@@ -26233,9 +25614,8 @@
       <c r="H697" t="s">
         <v>14</v>
       </c>
-      <c r="I697" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I697" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J697" s="1">
         <v>45785</v>
@@ -26266,9 +25646,8 @@
       <c r="H698" t="s">
         <v>14</v>
       </c>
-      <c r="I698" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>2</v>
+      <c r="I698" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="J698" s="1">
         <v>45786</v>
@@ -26299,9 +25678,8 @@
       <c r="H699" t="s">
         <v>14</v>
       </c>
-      <c r="I699" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I699" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J699" s="1">
         <v>45787</v>
@@ -26332,9 +25710,8 @@
       <c r="H700" t="s">
         <v>51</v>
       </c>
-      <c r="I700" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>5</v>
+      <c r="I700" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="J700" s="1">
         <v>45789</v>
@@ -26365,12 +25742,100 @@
       <c r="H701" t="s">
         <v>14</v>
       </c>
-      <c r="I701" s="2">
-        <f>IF(MOD(Table2[[#This Row],[ID]],23)=0,1,IF(MOD(Table2[[#This Row],[ID]],17)=0,2,IF(MOD(Table2[[#This Row],[ID]],11)=0,3,IF(MOD(Table2[[#This Row],[ID]],5)=0,4,5))))</f>
-        <v>4</v>
+      <c r="I701" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="J701" s="1">
         <v>45789</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D701">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Hardware"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D701">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"Software"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D701">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"Licensing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D701">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F270DB1B-4172-4BFB-81F7-7E80C4C8D926}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/S3-Tech.xlsx
+++ b/S3-Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icwahs-my.sharepoint.com/personal/khalaf_icwahs_com/Documents/Imua Learning/Clients/Pearson/Scott/Phase 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698DBA87-F8A6-40FE-A8F1-5BD9628E78EE}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{26748D2E-F846-4097-84A4-13C24E93EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1613BB76-5462-4F46-B897-3EECAB521E32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE592E6F-F01F-468C-AF5F-9E7F7798B29B}"/>
   </bookViews>
@@ -2871,15 +2871,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2925,10 +2924,54 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCBF7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF63BE7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEF9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -2955,15 +2998,15 @@
   <autoFilter ref="A1:J701" xr:uid="{410CCD1D-D6B2-4C04-9661-57B8723065FE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98DABDFF-6695-49E4-ACB6-E0DB9CF1E3BE}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A24E00D0-269A-40F4-8690-A3E7D66794B5}" name="Open Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A24E00D0-269A-40F4-8690-A3E7D66794B5}" name="Open Date" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{C57133BB-E3FF-42E5-AD88-5DCB5CFFB614}" name="Issue"/>
     <tableColumn id="4" xr3:uid="{7DE35DE7-CD87-40BF-A093-D23A5DEE82C8}" name="Category"/>
     <tableColumn id="5" xr3:uid="{35DBCFFB-844A-4A05-BB5D-399E0653F071}" name="User comments"/>
     <tableColumn id="6" xr3:uid="{48BBDBA0-2B01-435B-A929-54C3A5B024F1}" name="Tech comments"/>
     <tableColumn id="7" xr3:uid="{AADF69E2-55CC-4D72-934B-D7B52C08DF18}" name="Solution"/>
     <tableColumn id="8" xr3:uid="{E56767A5-4CBE-486C-90E4-885019A3BC79}" name="Status"/>
-    <tableColumn id="12" xr3:uid="{F7DE8525-6DDA-49D4-A579-830E52DB0605}" name="Satisfied" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{F7DE8525-6DDA-49D4-A579-830E52DB0605}" name="Satisfied" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{0D1E56D8-E2E9-4CD3-83F9-C250DCC4079E}" name="Close Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF30E43-8930-4EEE-A19D-BFEE4487A713}">
   <dimension ref="A1:J701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,7 +3417,7 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>928</v>
       </c>
       <c r="J2" s="1">
@@ -3406,7 +3449,7 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>928</v>
       </c>
       <c r="J3" s="1">
@@ -3438,7 +3481,7 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>928</v>
       </c>
       <c r="J4" s="1">
@@ -3470,7 +3513,7 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>928</v>
       </c>
       <c r="J5" s="1">
@@ -3502,7 +3545,7 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>929</v>
       </c>
       <c r="J6" s="1">
@@ -3534,7 +3577,7 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>928</v>
       </c>
       <c r="J7" s="1">
@@ -3566,7 +3609,7 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>928</v>
       </c>
       <c r="J8" s="1">
@@ -3598,7 +3641,7 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>928</v>
       </c>
       <c r="J9" s="1">
@@ -3630,7 +3673,7 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>928</v>
       </c>
       <c r="J10" s="1">
@@ -3662,7 +3705,7 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>929</v>
       </c>
       <c r="J11" s="1">
@@ -3694,7 +3737,7 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>930</v>
       </c>
       <c r="J12" s="1">
@@ -3726,7 +3769,7 @@
       <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>928</v>
       </c>
       <c r="J13" s="1">
@@ -3758,7 +3801,7 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>928</v>
       </c>
       <c r="J14" s="1">
@@ -3790,7 +3833,7 @@
       <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>928</v>
       </c>
       <c r="J15" s="1">
@@ -3822,7 +3865,7 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>929</v>
       </c>
       <c r="J16" s="1">
@@ -3854,7 +3897,7 @@
       <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>928</v>
       </c>
       <c r="J17" s="1">
@@ -3886,7 +3929,7 @@
       <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>931</v>
       </c>
       <c r="J18" s="1">
@@ -3918,7 +3961,7 @@
       <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>928</v>
       </c>
       <c r="J19" s="1">
@@ -3950,7 +3993,7 @@
       <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>928</v>
       </c>
       <c r="J20" s="1">
@@ -3982,7 +4025,7 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>929</v>
       </c>
       <c r="J21" s="1">
@@ -4014,7 +4057,7 @@
       <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>928</v>
       </c>
       <c r="J22" s="1">
@@ -4046,7 +4089,7 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>930</v>
       </c>
       <c r="J23" s="1">
@@ -4078,7 +4121,7 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>932</v>
       </c>
       <c r="J24" s="1">
@@ -4110,7 +4153,7 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>928</v>
       </c>
       <c r="J25" s="1">
@@ -4142,7 +4185,7 @@
       <c r="H26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>929</v>
       </c>
       <c r="J26" s="1">
@@ -4174,7 +4217,7 @@
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>928</v>
       </c>
       <c r="J27" s="1">
@@ -4206,7 +4249,7 @@
       <c r="H28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>928</v>
       </c>
       <c r="J28" s="1">
@@ -4238,7 +4281,7 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>928</v>
       </c>
       <c r="J29" s="1">
@@ -4270,7 +4313,7 @@
       <c r="H30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>928</v>
       </c>
       <c r="J30" s="1">
@@ -4302,7 +4345,7 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>929</v>
       </c>
       <c r="J31" s="1">
@@ -4334,7 +4377,7 @@
       <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>928</v>
       </c>
       <c r="J32" s="1">
@@ -4366,7 +4409,7 @@
       <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>928</v>
       </c>
       <c r="J33" s="1">
@@ -4398,7 +4441,7 @@
       <c r="H34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>930</v>
       </c>
       <c r="J34" s="1">
@@ -4430,7 +4473,7 @@
       <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>931</v>
       </c>
       <c r="J35" s="1">
@@ -4462,7 +4505,7 @@
       <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>929</v>
       </c>
       <c r="J36" s="1">
@@ -4494,7 +4537,7 @@
       <c r="H37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>928</v>
       </c>
       <c r="J37" s="1">
@@ -4526,7 +4569,7 @@
       <c r="H38" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>928</v>
       </c>
       <c r="J38" s="1">
@@ -4558,7 +4601,7 @@
       <c r="H39" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>928</v>
       </c>
       <c r="J39" s="1">
@@ -4590,7 +4633,7 @@
       <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>928</v>
       </c>
       <c r="J40" s="1">
@@ -4622,7 +4665,7 @@
       <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>929</v>
       </c>
       <c r="J41" s="1">
@@ -4654,7 +4697,7 @@
       <c r="H42" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>928</v>
       </c>
       <c r="J42" s="1">
@@ -4686,7 +4729,7 @@
       <c r="H43" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>928</v>
       </c>
       <c r="J43" s="1">
@@ -4718,7 +4761,7 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>928</v>
       </c>
       <c r="J44" s="1">
@@ -4750,7 +4793,7 @@
       <c r="H45" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>930</v>
       </c>
       <c r="J45" s="1">
@@ -4782,7 +4825,7 @@
       <c r="H46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>929</v>
       </c>
       <c r="J46" s="1">
@@ -4814,7 +4857,7 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" t="s">
         <v>932</v>
       </c>
       <c r="J47" s="1">
@@ -4846,7 +4889,7 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>928</v>
       </c>
       <c r="J48" s="1">
@@ -4878,7 +4921,7 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>928</v>
       </c>
       <c r="J49" s="1">
@@ -4910,7 +4953,7 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>928</v>
       </c>
       <c r="J50" s="1">
@@ -4942,7 +4985,7 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" t="s">
         <v>929</v>
       </c>
       <c r="J51" s="1">
@@ -4974,7 +5017,7 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>931</v>
       </c>
       <c r="J52" s="1">
@@ -5006,7 +5049,7 @@
       <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>928</v>
       </c>
       <c r="J53" s="1">
@@ -5038,7 +5081,7 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" t="s">
         <v>928</v>
       </c>
       <c r="J54" s="1">
@@ -5070,7 +5113,7 @@
       <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>928</v>
       </c>
       <c r="J55" s="1">
@@ -5102,7 +5145,7 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>930</v>
       </c>
       <c r="J56" s="1">
@@ -5134,7 +5177,7 @@
       <c r="H57" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>928</v>
       </c>
       <c r="J57" s="1">
@@ -5166,7 +5209,7 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>928</v>
       </c>
       <c r="J58" s="1">
@@ -5198,7 +5241,7 @@
       <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
         <v>928</v>
       </c>
       <c r="J59" s="1">
@@ -5230,7 +5273,7 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>928</v>
       </c>
       <c r="J60" s="1">
@@ -5262,7 +5305,7 @@
       <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" t="s">
         <v>929</v>
       </c>
       <c r="J61" s="1">
@@ -5294,7 +5337,7 @@
       <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" t="s">
         <v>928</v>
       </c>
       <c r="J62" s="1">
@@ -5326,7 +5369,7 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" t="s">
         <v>928</v>
       </c>
       <c r="J63" s="1">
@@ -5358,7 +5401,7 @@
       <c r="H64" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>928</v>
       </c>
       <c r="J64" s="1">
@@ -5390,7 +5433,7 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>928</v>
       </c>
       <c r="J65" s="1">
@@ -5422,7 +5465,7 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>929</v>
       </c>
       <c r="J66" s="1">
@@ -5454,7 +5497,7 @@
       <c r="H67" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" t="s">
         <v>930</v>
       </c>
       <c r="J67" s="1">
@@ -5486,7 +5529,7 @@
       <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>928</v>
       </c>
       <c r="J68" s="1">
@@ -5518,7 +5561,7 @@
       <c r="H69" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>931</v>
       </c>
       <c r="J69" s="1">
@@ -5550,7 +5593,7 @@
       <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>932</v>
       </c>
       <c r="J70" s="1">
@@ -5582,7 +5625,7 @@
       <c r="H71" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" t="s">
         <v>929</v>
       </c>
       <c r="J71" s="1">
@@ -5614,7 +5657,7 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" t="s">
         <v>928</v>
       </c>
       <c r="J72" s="1">
@@ -5646,7 +5689,7 @@
       <c r="H73" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" t="s">
         <v>928</v>
       </c>
       <c r="J73" s="1">
@@ -5678,7 +5721,7 @@
       <c r="H74" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>928</v>
       </c>
       <c r="J74" s="1">
@@ -5710,7 +5753,7 @@
       <c r="H75" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" t="s">
         <v>928</v>
       </c>
       <c r="J75" s="1">
@@ -5742,7 +5785,7 @@
       <c r="H76" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" t="s">
         <v>929</v>
       </c>
       <c r="J76" s="1">
@@ -5774,7 +5817,7 @@
       <c r="H77" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" t="s">
         <v>928</v>
       </c>
       <c r="J77" s="1">
@@ -5806,7 +5849,7 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" t="s">
         <v>930</v>
       </c>
       <c r="J78" s="1">
@@ -5838,7 +5881,7 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" t="s">
         <v>928</v>
       </c>
       <c r="J79" s="1">
@@ -5870,7 +5913,7 @@
       <c r="H80" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" t="s">
         <v>928</v>
       </c>
       <c r="J80" s="1">
@@ -5902,7 +5945,7 @@
       <c r="H81" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" t="s">
         <v>929</v>
       </c>
       <c r="J81" s="1">
@@ -5934,7 +5977,7 @@
       <c r="H82" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" t="s">
         <v>928</v>
       </c>
       <c r="J82" s="1">
@@ -5966,7 +6009,7 @@
       <c r="H83" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" t="s">
         <v>928</v>
       </c>
       <c r="J83" s="1">
@@ -5998,7 +6041,7 @@
       <c r="H84" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>928</v>
       </c>
       <c r="J84" s="1">
@@ -6030,7 +6073,7 @@
       <c r="H85" t="s">
         <v>33</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" t="s">
         <v>928</v>
       </c>
       <c r="J85" s="1">
@@ -6062,7 +6105,7 @@
       <c r="H86" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" t="s">
         <v>931</v>
       </c>
       <c r="J86" s="1">
@@ -6094,7 +6137,7 @@
       <c r="H87" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" t="s">
         <v>928</v>
       </c>
       <c r="J87" s="1">
@@ -6126,7 +6169,7 @@
       <c r="H88" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" t="s">
         <v>928</v>
       </c>
       <c r="J88" s="1">
@@ -6158,7 +6201,7 @@
       <c r="H89" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" t="s">
         <v>930</v>
       </c>
       <c r="J89" s="1">
@@ -6190,7 +6233,7 @@
       <c r="H90" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" t="s">
         <v>928</v>
       </c>
       <c r="J90" s="1">
@@ -6222,7 +6265,7 @@
       <c r="H91" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" t="s">
         <v>929</v>
       </c>
       <c r="J91" s="1">
@@ -6254,7 +6297,7 @@
       <c r="H92" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" t="s">
         <v>928</v>
       </c>
       <c r="J92" s="1">
@@ -6286,7 +6329,7 @@
       <c r="H93" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" t="s">
         <v>932</v>
       </c>
       <c r="J93" s="1">
@@ -6318,7 +6361,7 @@
       <c r="H94" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" t="s">
         <v>928</v>
       </c>
       <c r="J94" s="1">
@@ -6350,7 +6393,7 @@
       <c r="H95" t="s">
         <v>14</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" t="s">
         <v>928</v>
       </c>
       <c r="J95" s="1">
@@ -6382,7 +6425,7 @@
       <c r="H96" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" t="s">
         <v>929</v>
       </c>
       <c r="J96" s="1">
@@ -6414,7 +6457,7 @@
       <c r="H97" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" t="s">
         <v>928</v>
       </c>
       <c r="J97" s="1">
@@ -6446,7 +6489,7 @@
       <c r="H98" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" t="s">
         <v>928</v>
       </c>
       <c r="J98" s="1">
@@ -6478,7 +6521,7 @@
       <c r="H99" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" t="s">
         <v>928</v>
       </c>
       <c r="J99" s="1">
@@ -6510,7 +6553,7 @@
       <c r="H100" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" t="s">
         <v>930</v>
       </c>
       <c r="J100" s="1">
@@ -6542,7 +6585,7 @@
       <c r="H101" t="s">
         <v>14</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" t="s">
         <v>929</v>
       </c>
       <c r="J101" s="1">
@@ -6574,7 +6617,7 @@
       <c r="H102" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" t="s">
         <v>928</v>
       </c>
       <c r="J102" s="1">
@@ -6606,7 +6649,7 @@
       <c r="H103" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" t="s">
         <v>931</v>
       </c>
       <c r="J103" s="1">
@@ -6638,7 +6681,7 @@
       <c r="H104" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" t="s">
         <v>928</v>
       </c>
       <c r="J104" s="1">
@@ -6670,7 +6713,7 @@
       <c r="H105" t="s">
         <v>14</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" t="s">
         <v>928</v>
       </c>
       <c r="J105" s="1">
@@ -6702,7 +6745,7 @@
       <c r="H106" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" t="s">
         <v>929</v>
       </c>
       <c r="J106" s="1">
@@ -6734,7 +6777,7 @@
       <c r="H107" t="s">
         <v>33</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" t="s">
         <v>928</v>
       </c>
       <c r="J107" s="1">
@@ -6766,7 +6809,7 @@
       <c r="H108" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" t="s">
         <v>928</v>
       </c>
       <c r="J108" s="1">
@@ -6798,7 +6841,7 @@
       <c r="H109" t="s">
         <v>14</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" t="s">
         <v>928</v>
       </c>
       <c r="J109" s="1">
@@ -6830,7 +6873,7 @@
       <c r="H110" t="s">
         <v>33</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I110" t="s">
         <v>928</v>
       </c>
       <c r="J110" s="1">
@@ -6862,7 +6905,7 @@
       <c r="H111" t="s">
         <v>14</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" t="s">
         <v>930</v>
       </c>
       <c r="J111" s="1">
@@ -6894,7 +6937,7 @@
       <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" t="s">
         <v>928</v>
       </c>
       <c r="J112" s="1">
@@ -6926,7 +6969,7 @@
       <c r="H113" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I113" t="s">
         <v>928</v>
       </c>
       <c r="J113" s="1">
@@ -6958,7 +7001,7 @@
       <c r="H114" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I114" t="s">
         <v>928</v>
       </c>
       <c r="J114" s="1">
@@ -6990,7 +7033,7 @@
       <c r="H115" t="s">
         <v>51</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" t="s">
         <v>928</v>
       </c>
       <c r="J115" s="1">
@@ -7022,7 +7065,7 @@
       <c r="H116" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I116" t="s">
         <v>932</v>
       </c>
       <c r="J116" s="1">
@@ -7054,7 +7097,7 @@
       <c r="H117" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" t="s">
         <v>928</v>
       </c>
       <c r="J117" s="1">
@@ -7086,7 +7129,7 @@
       <c r="H118" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" t="s">
         <v>928</v>
       </c>
       <c r="J118" s="1">
@@ -7118,7 +7161,7 @@
       <c r="H119" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" t="s">
         <v>928</v>
       </c>
       <c r="J119" s="1">
@@ -7150,7 +7193,7 @@
       <c r="H120" t="s">
         <v>14</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" t="s">
         <v>931</v>
       </c>
       <c r="J120" s="1">
@@ -7182,7 +7225,7 @@
       <c r="H121" t="s">
         <v>14</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I121" t="s">
         <v>929</v>
       </c>
       <c r="J121" s="1">
@@ -7214,7 +7257,7 @@
       <c r="H122" t="s">
         <v>14</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I122" t="s">
         <v>930</v>
       </c>
       <c r="J122" s="1">
@@ -7246,7 +7289,7 @@
       <c r="H123" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I123" t="s">
         <v>928</v>
       </c>
       <c r="J123" s="1">
@@ -7278,7 +7321,7 @@
       <c r="H124" t="s">
         <v>14</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I124" t="s">
         <v>928</v>
       </c>
       <c r="J124" s="1">
@@ -7310,7 +7353,7 @@
       <c r="H125" t="s">
         <v>33</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I125" t="s">
         <v>928</v>
       </c>
       <c r="J125" s="1">
@@ -7342,7 +7385,7 @@
       <c r="H126" t="s">
         <v>14</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I126" t="s">
         <v>929</v>
       </c>
       <c r="J126" s="1">
@@ -7374,7 +7417,7 @@
       <c r="H127" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I127" t="s">
         <v>928</v>
       </c>
       <c r="J127" s="1">
@@ -7406,7 +7449,7 @@
       <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" t="s">
         <v>928</v>
       </c>
       <c r="J128" s="1">
@@ -7438,7 +7481,7 @@
       <c r="H129" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I129" t="s">
         <v>928</v>
       </c>
       <c r="J129" s="1">
@@ -7470,7 +7513,7 @@
       <c r="H130" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" t="s">
         <v>928</v>
       </c>
       <c r="J130" s="1">
@@ -7502,7 +7545,7 @@
       <c r="H131" t="s">
         <v>14</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I131" t="s">
         <v>929</v>
       </c>
       <c r="J131" s="1">
@@ -7534,7 +7577,7 @@
       <c r="H132" t="s">
         <v>14</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I132" t="s">
         <v>928</v>
       </c>
       <c r="J132" s="1">
@@ -7566,7 +7609,7 @@
       <c r="H133" t="s">
         <v>14</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I133" t="s">
         <v>930</v>
       </c>
       <c r="J133" s="1">
@@ -7598,7 +7641,7 @@
       <c r="H134" t="s">
         <v>14</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I134" t="s">
         <v>928</v>
       </c>
       <c r="J134" s="1">
@@ -7630,7 +7673,7 @@
       <c r="H135" t="s">
         <v>14</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I135" t="s">
         <v>928</v>
       </c>
       <c r="J135" s="1">
@@ -7662,7 +7705,7 @@
       <c r="H136" t="s">
         <v>14</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I136" t="s">
         <v>929</v>
       </c>
       <c r="J136" s="1">
@@ -7694,7 +7737,7 @@
       <c r="H137" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="I137" t="s">
         <v>931</v>
       </c>
       <c r="J137" s="1">
@@ -7726,7 +7769,7 @@
       <c r="H138" t="s">
         <v>14</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="I138" t="s">
         <v>928</v>
       </c>
       <c r="J138" s="1">
@@ -7758,7 +7801,7 @@
       <c r="H139" t="s">
         <v>51</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I139" t="s">
         <v>932</v>
       </c>
       <c r="J139" s="1">
@@ -7790,7 +7833,7 @@
       <c r="H140" t="s">
         <v>14</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="I140" t="s">
         <v>928</v>
       </c>
       <c r="J140" s="1">
@@ -7822,7 +7865,7 @@
       <c r="H141" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="I141" t="s">
         <v>929</v>
       </c>
       <c r="J141" s="1">
@@ -7854,7 +7897,7 @@
       <c r="H142" t="s">
         <v>33</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="I142" t="s">
         <v>928</v>
       </c>
       <c r="J142" s="1">
@@ -7886,7 +7929,7 @@
       <c r="H143" t="s">
         <v>14</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="I143" t="s">
         <v>928</v>
       </c>
       <c r="J143" s="1">
@@ -7918,7 +7961,7 @@
       <c r="H144" t="s">
         <v>14</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="I144" t="s">
         <v>930</v>
       </c>
       <c r="J144" s="1">
@@ -7950,7 +7993,7 @@
       <c r="H145" t="s">
         <v>33</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="I145" t="s">
         <v>928</v>
       </c>
       <c r="J145" s="1">
@@ -7982,7 +8025,7 @@
       <c r="H146" t="s">
         <v>14</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="I146" t="s">
         <v>929</v>
       </c>
       <c r="J146" s="1">
@@ -8014,7 +8057,7 @@
       <c r="H147" t="s">
         <v>14</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="I147" t="s">
         <v>928</v>
       </c>
       <c r="J147" s="1">
@@ -8046,7 +8089,7 @@
       <c r="H148" t="s">
         <v>14</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="I148" t="s">
         <v>928</v>
       </c>
       <c r="J148" s="1">
@@ -8078,7 +8121,7 @@
       <c r="H149" t="s">
         <v>14</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="I149" t="s">
         <v>928</v>
       </c>
       <c r="J149" s="1">
@@ -8110,7 +8153,7 @@
       <c r="H150" t="s">
         <v>14</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="I150" t="s">
         <v>928</v>
       </c>
       <c r="J150" s="1">
@@ -8142,7 +8185,7 @@
       <c r="H151" t="s">
         <v>14</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="I151" t="s">
         <v>929</v>
       </c>
       <c r="J151" s="1">
@@ -8174,7 +8217,7 @@
       <c r="H152" t="s">
         <v>14</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="I152" t="s">
         <v>928</v>
       </c>
       <c r="J152" s="1">
@@ -8206,7 +8249,7 @@
       <c r="H153" t="s">
         <v>14</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="I153" t="s">
         <v>928</v>
       </c>
       <c r="J153" s="1">
@@ -8238,7 +8281,7 @@
       <c r="H154" t="s">
         <v>14</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="I154" t="s">
         <v>931</v>
       </c>
       <c r="J154" s="1">
@@ -8270,7 +8313,7 @@
       <c r="H155" t="s">
         <v>14</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="I155" t="s">
         <v>930</v>
       </c>
       <c r="J155" s="1">
@@ -8302,7 +8345,7 @@
       <c r="H156" t="s">
         <v>14</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="I156" t="s">
         <v>929</v>
       </c>
       <c r="J156" s="1">
@@ -8334,7 +8377,7 @@
       <c r="H157" t="s">
         <v>14</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="I157" t="s">
         <v>928</v>
       </c>
       <c r="J157" s="1">
@@ -8366,7 +8409,7 @@
       <c r="H158" t="s">
         <v>14</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="I158" t="s">
         <v>928</v>
       </c>
       <c r="J158" s="1">
@@ -8398,7 +8441,7 @@
       <c r="H159" t="s">
         <v>14</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="I159" t="s">
         <v>928</v>
       </c>
       <c r="J159" s="1">
@@ -8430,7 +8473,7 @@
       <c r="H160" t="s">
         <v>14</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="I160" t="s">
         <v>928</v>
       </c>
       <c r="J160" s="1">
@@ -8462,7 +8505,7 @@
       <c r="H161" t="s">
         <v>33</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="I161" t="s">
         <v>929</v>
       </c>
       <c r="J161" s="1">
@@ -8494,7 +8537,7 @@
       <c r="H162" t="s">
         <v>14</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="I162" t="s">
         <v>932</v>
       </c>
       <c r="J162" s="1">
@@ -8526,7 +8569,7 @@
       <c r="H163" t="s">
         <v>51</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="I163" t="s">
         <v>928</v>
       </c>
       <c r="J163" s="1">
@@ -8558,7 +8601,7 @@
       <c r="H164" t="s">
         <v>14</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="I164" t="s">
         <v>928</v>
       </c>
       <c r="J164" s="1">
@@ -8590,7 +8633,7 @@
       <c r="H165" t="s">
         <v>14</v>
       </c>
-      <c r="I165" s="2" t="s">
+      <c r="I165" t="s">
         <v>928</v>
       </c>
       <c r="J165" s="1">
@@ -8622,7 +8665,7 @@
       <c r="H166" t="s">
         <v>14</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="I166" t="s">
         <v>930</v>
       </c>
       <c r="J166" s="1">
@@ -8654,7 +8697,7 @@
       <c r="H167" t="s">
         <v>14</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="I167" t="s">
         <v>928</v>
       </c>
       <c r="J167" s="1">
@@ -8686,7 +8729,7 @@
       <c r="H168" t="s">
         <v>14</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="I168" t="s">
         <v>928</v>
       </c>
       <c r="J168" s="1">
@@ -8718,7 +8761,7 @@
       <c r="H169" t="s">
         <v>14</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="I169" t="s">
         <v>928</v>
       </c>
       <c r="J169" s="1">
@@ -8750,7 +8793,7 @@
       <c r="H170" t="s">
         <v>14</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="I170" t="s">
         <v>928</v>
       </c>
       <c r="J170" s="1">
@@ -8782,7 +8825,7 @@
       <c r="H171" t="s">
         <v>14</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="I171" t="s">
         <v>931</v>
       </c>
       <c r="J171" s="1">
@@ -8814,7 +8857,7 @@
       <c r="H172" t="s">
         <v>51</v>
       </c>
-      <c r="I172" s="2" t="s">
+      <c r="I172" t="s">
         <v>928</v>
       </c>
       <c r="J172" s="1">
@@ -8846,7 +8889,7 @@
       <c r="H173" t="s">
         <v>14</v>
       </c>
-      <c r="I173" s="2" t="s">
+      <c r="I173" t="s">
         <v>928</v>
       </c>
       <c r="J173" s="1">
@@ -8878,7 +8921,7 @@
       <c r="H174" t="s">
         <v>14</v>
       </c>
-      <c r="I174" s="2" t="s">
+      <c r="I174" t="s">
         <v>928</v>
       </c>
       <c r="J174" s="1">
@@ -8910,7 +8953,7 @@
       <c r="H175" t="s">
         <v>14</v>
       </c>
-      <c r="I175" s="2" t="s">
+      <c r="I175" t="s">
         <v>928</v>
       </c>
       <c r="J175" s="1">
@@ -8942,7 +8985,7 @@
       <c r="H176" t="s">
         <v>33</v>
       </c>
-      <c r="I176" s="2" t="s">
+      <c r="I176" t="s">
         <v>929</v>
       </c>
       <c r="J176" s="1">
@@ -8974,7 +9017,7 @@
       <c r="H177" t="s">
         <v>14</v>
       </c>
-      <c r="I177" s="2" t="s">
+      <c r="I177" t="s">
         <v>930</v>
       </c>
       <c r="J177" s="1">
@@ -9006,7 +9049,7 @@
       <c r="H178" t="s">
         <v>14</v>
       </c>
-      <c r="I178" s="2" t="s">
+      <c r="I178" t="s">
         <v>928</v>
       </c>
       <c r="J178" s="1">
@@ -9038,7 +9081,7 @@
       <c r="H179" t="s">
         <v>51</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="I179" t="s">
         <v>928</v>
       </c>
       <c r="J179" s="1">
@@ -9070,7 +9113,7 @@
       <c r="H180" t="s">
         <v>14</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="I180" t="s">
         <v>928</v>
       </c>
       <c r="J180" s="1">
@@ -9102,7 +9145,7 @@
       <c r="H181" t="s">
         <v>14</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="I181" t="s">
         <v>929</v>
       </c>
       <c r="J181" s="1">
@@ -9134,7 +9177,7 @@
       <c r="H182" t="s">
         <v>14</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="I182" t="s">
         <v>928</v>
       </c>
       <c r="J182" s="1">
@@ -9166,7 +9209,7 @@
       <c r="H183" t="s">
         <v>14</v>
       </c>
-      <c r="I183" s="2" t="s">
+      <c r="I183" t="s">
         <v>928</v>
       </c>
       <c r="J183" s="1">
@@ -9198,7 +9241,7 @@
       <c r="H184" t="s">
         <v>14</v>
       </c>
-      <c r="I184" s="2" t="s">
+      <c r="I184" t="s">
         <v>928</v>
       </c>
       <c r="J184" s="1">
@@ -9230,7 +9273,7 @@
       <c r="H185" t="s">
         <v>14</v>
       </c>
-      <c r="I185" s="2" t="s">
+      <c r="I185" t="s">
         <v>932</v>
       </c>
       <c r="J185" s="1">
@@ -9262,7 +9305,7 @@
       <c r="H186" t="s">
         <v>14</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="I186" t="s">
         <v>929</v>
       </c>
       <c r="J186" s="1">
@@ -9294,7 +9337,7 @@
       <c r="H187" t="s">
         <v>33</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="I187" t="s">
         <v>928</v>
       </c>
       <c r="J187" s="1">
@@ -9326,7 +9369,7 @@
       <c r="H188" t="s">
         <v>14</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="I188" t="s">
         <v>931</v>
       </c>
       <c r="J188" s="1">
@@ -9358,7 +9401,7 @@
       <c r="H189" t="s">
         <v>14</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="I189" t="s">
         <v>928</v>
       </c>
       <c r="J189" s="1">
@@ -9390,7 +9433,7 @@
       <c r="H190" t="s">
         <v>14</v>
       </c>
-      <c r="I190" s="2" t="s">
+      <c r="I190" t="s">
         <v>928</v>
       </c>
       <c r="J190" s="1">
@@ -9422,7 +9465,7 @@
       <c r="H191" t="s">
         <v>14</v>
       </c>
-      <c r="I191" s="2" t="s">
+      <c r="I191" t="s">
         <v>929</v>
       </c>
       <c r="J191" s="1">
@@ -9454,7 +9497,7 @@
       <c r="H192" t="s">
         <v>14</v>
       </c>
-      <c r="I192" s="2" t="s">
+      <c r="I192" t="s">
         <v>928</v>
       </c>
       <c r="J192" s="1">
@@ -9486,7 +9529,7 @@
       <c r="H193" t="s">
         <v>14</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="I193" t="s">
         <v>928</v>
       </c>
       <c r="J193" s="1">
@@ -9518,7 +9561,7 @@
       <c r="H194" t="s">
         <v>14</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="I194" t="s">
         <v>928</v>
       </c>
       <c r="J194" s="1">
@@ -9550,7 +9593,7 @@
       <c r="H195" t="s">
         <v>14</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="I195" t="s">
         <v>928</v>
       </c>
       <c r="J195" s="1">
@@ -9582,7 +9625,7 @@
       <c r="H196" t="s">
         <v>14</v>
       </c>
-      <c r="I196" s="2" t="s">
+      <c r="I196" t="s">
         <v>929</v>
       </c>
       <c r="J196" s="1">
@@ -9614,7 +9657,7 @@
       <c r="H197" t="s">
         <v>14</v>
       </c>
-      <c r="I197" s="2" t="s">
+      <c r="I197" t="s">
         <v>928</v>
       </c>
       <c r="J197" s="1">
@@ -9646,7 +9689,7 @@
       <c r="H198" t="s">
         <v>14</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="I198" t="s">
         <v>928</v>
       </c>
       <c r="J198" s="1">
@@ -9678,7 +9721,7 @@
       <c r="H199" t="s">
         <v>51</v>
       </c>
-      <c r="I199" s="2" t="s">
+      <c r="I199" t="s">
         <v>930</v>
       </c>
       <c r="J199" s="1">
@@ -9710,7 +9753,7 @@
       <c r="H200" t="s">
         <v>14</v>
       </c>
-      <c r="I200" s="2" t="s">
+      <c r="I200" t="s">
         <v>928</v>
       </c>
       <c r="J200" s="1">
@@ -9742,7 +9785,7 @@
       <c r="H201" t="s">
         <v>14</v>
       </c>
-      <c r="I201" s="2" t="s">
+      <c r="I201" t="s">
         <v>929</v>
       </c>
       <c r="J201" s="1">
@@ -9774,7 +9817,7 @@
       <c r="H202" t="s">
         <v>14</v>
       </c>
-      <c r="I202" s="2" t="s">
+      <c r="I202" t="s">
         <v>928</v>
       </c>
       <c r="J202" s="1">
@@ -9806,7 +9849,7 @@
       <c r="H203" t="s">
         <v>14</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="I203" t="s">
         <v>928</v>
       </c>
       <c r="J203" s="1">
@@ -9838,7 +9881,7 @@
       <c r="H204" t="s">
         <v>14</v>
       </c>
-      <c r="I204" s="2" t="s">
+      <c r="I204" t="s">
         <v>928</v>
       </c>
       <c r="J204" s="1">
@@ -9870,7 +9913,7 @@
       <c r="H205" t="s">
         <v>14</v>
       </c>
-      <c r="I205" s="2" t="s">
+      <c r="I205" t="s">
         <v>931</v>
       </c>
       <c r="J205" s="1">
@@ -9902,7 +9945,7 @@
       <c r="H206" t="s">
         <v>14</v>
       </c>
-      <c r="I206" s="2" t="s">
+      <c r="I206" t="s">
         <v>929</v>
       </c>
       <c r="J206" s="1">
@@ -9934,7 +9977,7 @@
       <c r="H207" t="s">
         <v>14</v>
       </c>
-      <c r="I207" s="2" t="s">
+      <c r="I207" t="s">
         <v>928</v>
       </c>
       <c r="J207" s="1">
@@ -9966,7 +10009,7 @@
       <c r="H208" t="s">
         <v>33</v>
       </c>
-      <c r="I208" s="2" t="s">
+      <c r="I208" t="s">
         <v>932</v>
       </c>
       <c r="J208" s="1">
@@ -9998,7 +10041,7 @@
       <c r="H209" t="s">
         <v>14</v>
       </c>
-      <c r="I209" s="2" t="s">
+      <c r="I209" t="s">
         <v>928</v>
       </c>
       <c r="J209" s="1">
@@ -10030,7 +10073,7 @@
       <c r="H210" t="s">
         <v>14</v>
       </c>
-      <c r="I210" s="2" t="s">
+      <c r="I210" t="s">
         <v>930</v>
       </c>
       <c r="J210" s="1">
@@ -10062,7 +10105,7 @@
       <c r="H211" t="s">
         <v>14</v>
       </c>
-      <c r="I211" s="2" t="s">
+      <c r="I211" t="s">
         <v>929</v>
       </c>
       <c r="J211" s="1">
@@ -10094,7 +10137,7 @@
       <c r="H212" t="s">
         <v>14</v>
       </c>
-      <c r="I212" s="2" t="s">
+      <c r="I212" t="s">
         <v>928</v>
       </c>
       <c r="J212" s="1">
@@ -10126,7 +10169,7 @@
       <c r="H213" t="s">
         <v>14</v>
       </c>
-      <c r="I213" s="2" t="s">
+      <c r="I213" t="s">
         <v>928</v>
       </c>
       <c r="J213" s="1">
@@ -10158,7 +10201,7 @@
       <c r="H214" t="s">
         <v>14</v>
       </c>
-      <c r="I214" s="2" t="s">
+      <c r="I214" t="s">
         <v>928</v>
       </c>
       <c r="J214" s="1">
@@ -10190,7 +10233,7 @@
       <c r="H215" t="s">
         <v>14</v>
       </c>
-      <c r="I215" s="2" t="s">
+      <c r="I215" t="s">
         <v>928</v>
       </c>
       <c r="J215" s="1">
@@ -10222,7 +10265,7 @@
       <c r="H216" t="s">
         <v>14</v>
       </c>
-      <c r="I216" s="2" t="s">
+      <c r="I216" t="s">
         <v>929</v>
       </c>
       <c r="J216" s="1">
@@ -10254,7 +10297,7 @@
       <c r="H217" t="s">
         <v>14</v>
       </c>
-      <c r="I217" s="2" t="s">
+      <c r="I217" t="s">
         <v>928</v>
       </c>
       <c r="J217" s="1">
@@ -10286,7 +10329,7 @@
       <c r="H218" t="s">
         <v>14</v>
       </c>
-      <c r="I218" s="2" t="s">
+      <c r="I218" t="s">
         <v>928</v>
       </c>
       <c r="J218" s="1">
@@ -10318,7 +10361,7 @@
       <c r="H219" t="s">
         <v>14</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="I219" t="s">
         <v>928</v>
       </c>
       <c r="J219" s="1">
@@ -10350,7 +10393,7 @@
       <c r="H220" t="s">
         <v>14</v>
       </c>
-      <c r="I220" s="2" t="s">
+      <c r="I220" t="s">
         <v>928</v>
       </c>
       <c r="J220" s="1">
@@ -10382,7 +10425,7 @@
       <c r="H221" t="s">
         <v>33</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="I221" t="s">
         <v>930</v>
       </c>
       <c r="J221" s="1">
@@ -10414,7 +10457,7 @@
       <c r="H222" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="2" t="s">
+      <c r="I222" t="s">
         <v>931</v>
       </c>
       <c r="J222" s="1">
@@ -10446,7 +10489,7 @@
       <c r="H223" t="s">
         <v>51</v>
       </c>
-      <c r="I223" s="2" t="s">
+      <c r="I223" t="s">
         <v>928</v>
       </c>
       <c r="J223" s="1">
@@ -10478,7 +10521,7 @@
       <c r="H224" t="s">
         <v>14</v>
       </c>
-      <c r="I224" s="2" t="s">
+      <c r="I224" t="s">
         <v>928</v>
       </c>
       <c r="J224" s="1">
@@ -10510,7 +10553,7 @@
       <c r="H225" t="s">
         <v>33</v>
       </c>
-      <c r="I225" s="2" t="s">
+      <c r="I225" t="s">
         <v>928</v>
       </c>
       <c r="J225" s="1">
@@ -10542,7 +10585,7 @@
       <c r="H226" t="s">
         <v>14</v>
       </c>
-      <c r="I226" s="2" t="s">
+      <c r="I226" t="s">
         <v>929</v>
       </c>
       <c r="J226" s="1">
@@ -10574,7 +10617,7 @@
       <c r="H227" t="s">
         <v>14</v>
       </c>
-      <c r="I227" s="2" t="s">
+      <c r="I227" t="s">
         <v>928</v>
       </c>
       <c r="J227" s="1">
@@ -10606,7 +10649,7 @@
       <c r="H228" t="s">
         <v>14</v>
       </c>
-      <c r="I228" s="2" t="s">
+      <c r="I228" t="s">
         <v>928</v>
       </c>
       <c r="J228" s="1">
@@ -10638,7 +10681,7 @@
       <c r="H229" t="s">
         <v>14</v>
       </c>
-      <c r="I229" s="2" t="s">
+      <c r="I229" t="s">
         <v>928</v>
       </c>
       <c r="J229" s="1">
@@ -10670,7 +10713,7 @@
       <c r="H230" t="s">
         <v>14</v>
       </c>
-      <c r="I230" s="2" t="s">
+      <c r="I230" t="s">
         <v>928</v>
       </c>
       <c r="J230" s="1">
@@ -10702,7 +10745,7 @@
       <c r="H231" t="s">
         <v>14</v>
       </c>
-      <c r="I231" s="2" t="s">
+      <c r="I231" t="s">
         <v>932</v>
       </c>
       <c r="J231" s="1">
@@ -10734,7 +10777,7 @@
       <c r="H232" t="s">
         <v>14</v>
       </c>
-      <c r="I232" s="2" t="s">
+      <c r="I232" t="s">
         <v>930</v>
       </c>
       <c r="J232" s="1">
@@ -10766,7 +10809,7 @@
       <c r="H233" t="s">
         <v>14</v>
       </c>
-      <c r="I233" s="2" t="s">
+      <c r="I233" t="s">
         <v>928</v>
       </c>
       <c r="J233" s="1">
@@ -10798,7 +10841,7 @@
       <c r="H234" t="s">
         <v>14</v>
       </c>
-      <c r="I234" s="2" t="s">
+      <c r="I234" t="s">
         <v>928</v>
       </c>
       <c r="J234" s="1">
@@ -10830,7 +10873,7 @@
       <c r="H235" t="s">
         <v>33</v>
       </c>
-      <c r="I235" s="2" t="s">
+      <c r="I235" t="s">
         <v>928</v>
       </c>
       <c r="J235" s="1">
@@ -10862,7 +10905,7 @@
       <c r="H236" t="s">
         <v>14</v>
       </c>
-      <c r="I236" s="2" t="s">
+      <c r="I236" t="s">
         <v>929</v>
       </c>
       <c r="J236" s="1">
@@ -10894,7 +10937,7 @@
       <c r="H237" t="s">
         <v>14</v>
       </c>
-      <c r="I237" s="2" t="s">
+      <c r="I237" t="s">
         <v>928</v>
       </c>
       <c r="J237" s="1">
@@ -10926,7 +10969,7 @@
       <c r="H238" t="s">
         <v>14</v>
       </c>
-      <c r="I238" s="2" t="s">
+      <c r="I238" t="s">
         <v>928</v>
       </c>
       <c r="J238" s="1">
@@ -10958,7 +11001,7 @@
       <c r="H239" t="s">
         <v>14</v>
       </c>
-      <c r="I239" s="2" t="s">
+      <c r="I239" t="s">
         <v>931</v>
       </c>
       <c r="J239" s="1">
@@ -10990,7 +11033,7 @@
       <c r="H240" t="s">
         <v>33</v>
       </c>
-      <c r="I240" s="2" t="s">
+      <c r="I240" t="s">
         <v>928</v>
       </c>
       <c r="J240" s="1">
@@ -11022,7 +11065,7 @@
       <c r="H241" t="s">
         <v>14</v>
       </c>
-      <c r="I241" s="2" t="s">
+      <c r="I241" t="s">
         <v>929</v>
       </c>
       <c r="J241" s="1">
@@ -11054,7 +11097,7 @@
       <c r="H242" t="s">
         <v>14</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I242" t="s">
         <v>928</v>
       </c>
       <c r="J242" s="1">
@@ -11086,7 +11129,7 @@
       <c r="H243" t="s">
         <v>14</v>
       </c>
-      <c r="I243" s="2" t="s">
+      <c r="I243" t="s">
         <v>930</v>
       </c>
       <c r="J243" s="1">
@@ -11118,7 +11161,7 @@
       <c r="H244" t="s">
         <v>51</v>
       </c>
-      <c r="I244" s="2" t="s">
+      <c r="I244" t="s">
         <v>928</v>
       </c>
       <c r="J244" s="1">
@@ -11150,7 +11193,7 @@
       <c r="H245" t="s">
         <v>14</v>
       </c>
-      <c r="I245" s="2" t="s">
+      <c r="I245" t="s">
         <v>928</v>
       </c>
       <c r="J245" s="1">
@@ -11182,7 +11225,7 @@
       <c r="H246" t="s">
         <v>14</v>
       </c>
-      <c r="I246" s="2" t="s">
+      <c r="I246" t="s">
         <v>929</v>
       </c>
       <c r="J246" s="1">
@@ -11214,7 +11257,7 @@
       <c r="H247" t="s">
         <v>14</v>
       </c>
-      <c r="I247" s="2" t="s">
+      <c r="I247" t="s">
         <v>928</v>
       </c>
       <c r="J247" s="1">
@@ -11246,7 +11289,7 @@
       <c r="H248" t="s">
         <v>14</v>
       </c>
-      <c r="I248" s="2" t="s">
+      <c r="I248" t="s">
         <v>928</v>
       </c>
       <c r="J248" s="1">
@@ -11278,7 +11321,7 @@
       <c r="H249" t="s">
         <v>14</v>
       </c>
-      <c r="I249" s="2" t="s">
+      <c r="I249" t="s">
         <v>928</v>
       </c>
       <c r="J249" s="1">
@@ -11310,7 +11353,7 @@
       <c r="H250" t="s">
         <v>14</v>
       </c>
-      <c r="I250" s="2" t="s">
+      <c r="I250" t="s">
         <v>928</v>
       </c>
       <c r="J250" s="1">
@@ -11342,7 +11385,7 @@
       <c r="H251" t="s">
         <v>14</v>
       </c>
-      <c r="I251" s="2" t="s">
+      <c r="I251" t="s">
         <v>929</v>
       </c>
       <c r="J251" s="1">
@@ -11374,7 +11417,7 @@
       <c r="H252" t="s">
         <v>14</v>
       </c>
-      <c r="I252" s="2" t="s">
+      <c r="I252" t="s">
         <v>928</v>
       </c>
       <c r="J252" s="1">
@@ -11406,7 +11449,7 @@
       <c r="H253" t="s">
         <v>14</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="I253" t="s">
         <v>928</v>
       </c>
       <c r="J253" s="1">
@@ -11438,7 +11481,7 @@
       <c r="H254" t="s">
         <v>14</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="I254" t="s">
         <v>932</v>
       </c>
       <c r="J254" s="1">
@@ -11470,7 +11513,7 @@
       <c r="H255" t="s">
         <v>14</v>
       </c>
-      <c r="I255" s="2" t="s">
+      <c r="I255" t="s">
         <v>928</v>
       </c>
       <c r="J255" s="1">
@@ -11502,7 +11545,7 @@
       <c r="H256" t="s">
         <v>14</v>
       </c>
-      <c r="I256" s="2" t="s">
+      <c r="I256" t="s">
         <v>931</v>
       </c>
       <c r="J256" s="1">
@@ -11534,7 +11577,7 @@
       <c r="H257" t="s">
         <v>33</v>
       </c>
-      <c r="I257" s="2" t="s">
+      <c r="I257" t="s">
         <v>928</v>
       </c>
       <c r="J257" s="1">
@@ -11566,7 +11609,7 @@
       <c r="H258" t="s">
         <v>14</v>
       </c>
-      <c r="I258" s="2" t="s">
+      <c r="I258" t="s">
         <v>928</v>
       </c>
       <c r="J258" s="1">
@@ -11598,7 +11641,7 @@
       <c r="H259" t="s">
         <v>51</v>
       </c>
-      <c r="I259" s="2" t="s">
+      <c r="I259" t="s">
         <v>928</v>
       </c>
       <c r="J259" s="1">
@@ -11630,7 +11673,7 @@
       <c r="H260" t="s">
         <v>14</v>
       </c>
-      <c r="I260" s="2" t="s">
+      <c r="I260" t="s">
         <v>928</v>
       </c>
       <c r="J260" s="1">
@@ -11662,7 +11705,7 @@
       <c r="H261" t="s">
         <v>33</v>
       </c>
-      <c r="I261" s="2" t="s">
+      <c r="I261" t="s">
         <v>929</v>
       </c>
       <c r="J261" s="1">
@@ -11694,7 +11737,7 @@
       <c r="H262" t="s">
         <v>14</v>
       </c>
-      <c r="I262" s="2" t="s">
+      <c r="I262" t="s">
         <v>928</v>
       </c>
       <c r="J262" s="1">
@@ -11726,7 +11769,7 @@
       <c r="H263" t="s">
         <v>14</v>
       </c>
-      <c r="I263" s="2" t="s">
+      <c r="I263" t="s">
         <v>928</v>
       </c>
       <c r="J263" s="1">
@@ -11758,7 +11801,7 @@
       <c r="H264" t="s">
         <v>14</v>
       </c>
-      <c r="I264" s="2" t="s">
+      <c r="I264" t="s">
         <v>928</v>
       </c>
       <c r="J264" s="1">
@@ -11790,7 +11833,7 @@
       <c r="H265" t="s">
         <v>14</v>
       </c>
-      <c r="I265" s="2" t="s">
+      <c r="I265" t="s">
         <v>930</v>
       </c>
       <c r="J265" s="1">
@@ -11822,7 +11865,7 @@
       <c r="H266" t="s">
         <v>14</v>
       </c>
-      <c r="I266" s="2" t="s">
+      <c r="I266" t="s">
         <v>929</v>
       </c>
       <c r="J266" s="1">
@@ -11854,7 +11897,7 @@
       <c r="H267" t="s">
         <v>14</v>
       </c>
-      <c r="I267" s="2" t="s">
+      <c r="I267" t="s">
         <v>928</v>
       </c>
       <c r="J267" s="1">
@@ -11886,7 +11929,7 @@
       <c r="H268" t="s">
         <v>14</v>
       </c>
-      <c r="I268" s="2" t="s">
+      <c r="I268" t="s">
         <v>928</v>
       </c>
       <c r="J268" s="1">
@@ -11918,7 +11961,7 @@
       <c r="H269" t="s">
         <v>14</v>
       </c>
-      <c r="I269" s="2" t="s">
+      <c r="I269" t="s">
         <v>928</v>
       </c>
       <c r="J269" s="1">
@@ -11950,7 +11993,7 @@
       <c r="H270" t="s">
         <v>14</v>
       </c>
-      <c r="I270" s="2" t="s">
+      <c r="I270" t="s">
         <v>928</v>
       </c>
       <c r="J270" s="1">
@@ -11982,7 +12025,7 @@
       <c r="H271" t="s">
         <v>33</v>
       </c>
-      <c r="I271" s="2" t="s">
+      <c r="I271" t="s">
         <v>929</v>
       </c>
       <c r="J271" s="1">
@@ -12014,7 +12057,7 @@
       <c r="H272" t="s">
         <v>14</v>
       </c>
-      <c r="I272" s="2" t="s">
+      <c r="I272" t="s">
         <v>928</v>
       </c>
       <c r="J272" s="1">
@@ -12046,7 +12089,7 @@
       <c r="H273" t="s">
         <v>14</v>
       </c>
-      <c r="I273" s="2" t="s">
+      <c r="I273" t="s">
         <v>931</v>
       </c>
       <c r="J273" s="1">
@@ -12078,7 +12121,7 @@
       <c r="H274" t="s">
         <v>14</v>
       </c>
-      <c r="I274" s="2" t="s">
+      <c r="I274" t="s">
         <v>928</v>
       </c>
       <c r="J274" s="1">
@@ -12110,7 +12153,7 @@
       <c r="H275" t="s">
         <v>14</v>
       </c>
-      <c r="I275" s="2" t="s">
+      <c r="I275" t="s">
         <v>928</v>
       </c>
       <c r="J275" s="1">
@@ -12142,7 +12185,7 @@
       <c r="H276" t="s">
         <v>33</v>
       </c>
-      <c r="I276" s="2" t="s">
+      <c r="I276" t="s">
         <v>930</v>
       </c>
       <c r="J276" s="1">
@@ -12174,7 +12217,7 @@
       <c r="H277" t="s">
         <v>14</v>
       </c>
-      <c r="I277" s="2" t="s">
+      <c r="I277" t="s">
         <v>932</v>
       </c>
       <c r="J277" s="1">
@@ -12206,7 +12249,7 @@
       <c r="H278" t="s">
         <v>14</v>
       </c>
-      <c r="I278" s="2" t="s">
+      <c r="I278" t="s">
         <v>928</v>
       </c>
       <c r="J278" s="1">
@@ -12238,7 +12281,7 @@
       <c r="H279" t="s">
         <v>14</v>
       </c>
-      <c r="I279" s="2" t="s">
+      <c r="I279" t="s">
         <v>928</v>
       </c>
       <c r="J279" s="1">
@@ -12270,7 +12313,7 @@
       <c r="H280" t="s">
         <v>51</v>
       </c>
-      <c r="I280" s="2" t="s">
+      <c r="I280" t="s">
         <v>928</v>
       </c>
       <c r="J280" s="1">
@@ -12302,7 +12345,7 @@
       <c r="H281" t="s">
         <v>14</v>
       </c>
-      <c r="I281" s="2" t="s">
+      <c r="I281" t="s">
         <v>929</v>
       </c>
       <c r="J281" s="1">
@@ -12334,7 +12377,7 @@
       <c r="H282" t="s">
         <v>14</v>
       </c>
-      <c r="I282" s="2" t="s">
+      <c r="I282" t="s">
         <v>928</v>
       </c>
       <c r="J282" s="1">
@@ -12366,7 +12409,7 @@
       <c r="H283" t="s">
         <v>14</v>
       </c>
-      <c r="I283" s="2" t="s">
+      <c r="I283" t="s">
         <v>928</v>
       </c>
       <c r="J283" s="1">
@@ -12398,7 +12441,7 @@
       <c r="H284" t="s">
         <v>14</v>
       </c>
-      <c r="I284" s="2" t="s">
+      <c r="I284" t="s">
         <v>928</v>
       </c>
       <c r="J284" s="1">
@@ -12430,7 +12473,7 @@
       <c r="H285" t="s">
         <v>14</v>
       </c>
-      <c r="I285" s="2" t="s">
+      <c r="I285" t="s">
         <v>928</v>
       </c>
       <c r="J285" s="1">
@@ -12462,7 +12505,7 @@
       <c r="H286" t="s">
         <v>14</v>
       </c>
-      <c r="I286" s="2" t="s">
+      <c r="I286" t="s">
         <v>929</v>
       </c>
       <c r="J286" s="1">
@@ -12494,7 +12537,7 @@
       <c r="H287" t="s">
         <v>14</v>
       </c>
-      <c r="I287" s="2" t="s">
+      <c r="I287" t="s">
         <v>930</v>
       </c>
       <c r="J287" s="1">
@@ -12526,7 +12569,7 @@
       <c r="H288" t="s">
         <v>14</v>
       </c>
-      <c r="I288" s="2" t="s">
+      <c r="I288" t="s">
         <v>928</v>
       </c>
       <c r="J288" s="1">
@@ -12558,7 +12601,7 @@
       <c r="H289" t="s">
         <v>14</v>
       </c>
-      <c r="I289" s="2" t="s">
+      <c r="I289" t="s">
         <v>928</v>
       </c>
       <c r="J289" s="1">
@@ -12590,7 +12633,7 @@
       <c r="H290" t="s">
         <v>14</v>
       </c>
-      <c r="I290" s="2" t="s">
+      <c r="I290" t="s">
         <v>931</v>
       </c>
       <c r="J290" s="1">
@@ -12622,7 +12665,7 @@
       <c r="H291" t="s">
         <v>14</v>
       </c>
-      <c r="I291" s="2" t="s">
+      <c r="I291" t="s">
         <v>929</v>
       </c>
       <c r="J291" s="1">
@@ -12654,7 +12697,7 @@
       <c r="H292" t="s">
         <v>14</v>
       </c>
-      <c r="I292" s="2" t="s">
+      <c r="I292" t="s">
         <v>928</v>
       </c>
       <c r="J292" s="1">
@@ -12686,7 +12729,7 @@
       <c r="H293" t="s">
         <v>33</v>
       </c>
-      <c r="I293" s="2" t="s">
+      <c r="I293" t="s">
         <v>928</v>
       </c>
       <c r="J293" s="1">
@@ -12718,7 +12761,7 @@
       <c r="H294" t="s">
         <v>14</v>
       </c>
-      <c r="I294" s="2" t="s">
+      <c r="I294" t="s">
         <v>928</v>
       </c>
       <c r="J294" s="1">
@@ -12750,7 +12793,7 @@
       <c r="H295" t="s">
         <v>51</v>
       </c>
-      <c r="I295" s="2" t="s">
+      <c r="I295" t="s">
         <v>928</v>
       </c>
       <c r="J295" s="1">
@@ -12782,7 +12825,7 @@
       <c r="H296" t="s">
         <v>14</v>
       </c>
-      <c r="I296" s="2" t="s">
+      <c r="I296" t="s">
         <v>929</v>
       </c>
       <c r="J296" s="1">
@@ -12814,7 +12857,7 @@
       <c r="H297" t="s">
         <v>33</v>
       </c>
-      <c r="I297" s="2" t="s">
+      <c r="I297" t="s">
         <v>928</v>
       </c>
       <c r="J297" s="1">
@@ -12846,7 +12889,7 @@
       <c r="H298" t="s">
         <v>14</v>
       </c>
-      <c r="I298" s="2" t="s">
+      <c r="I298" t="s">
         <v>930</v>
       </c>
       <c r="J298" s="1">
@@ -12878,7 +12921,7 @@
       <c r="H299" t="s">
         <v>14</v>
       </c>
-      <c r="I299" s="2" t="s">
+      <c r="I299" t="s">
         <v>928</v>
       </c>
       <c r="J299" s="1">
@@ -12910,7 +12953,7 @@
       <c r="H300" t="s">
         <v>14</v>
       </c>
-      <c r="I300" s="2" t="s">
+      <c r="I300" t="s">
         <v>932</v>
       </c>
       <c r="J300" s="1">
@@ -12942,7 +12985,7 @@
       <c r="H301" t="s">
         <v>14</v>
       </c>
-      <c r="I301" s="2" t="s">
+      <c r="I301" t="s">
         <v>929</v>
       </c>
       <c r="J301" s="1">
@@ -12974,7 +13017,7 @@
       <c r="H302" t="s">
         <v>14</v>
       </c>
-      <c r="I302" s="2" t="s">
+      <c r="I302" t="s">
         <v>928</v>
       </c>
       <c r="J302" s="1">
@@ -13006,7 +13049,7 @@
       <c r="H303" t="s">
         <v>14</v>
       </c>
-      <c r="I303" s="2" t="s">
+      <c r="I303" t="s">
         <v>928</v>
       </c>
       <c r="J303" s="1">
@@ -13038,7 +13081,7 @@
       <c r="H304" t="s">
         <v>14</v>
       </c>
-      <c r="I304" s="2" t="s">
+      <c r="I304" t="s">
         <v>928</v>
       </c>
       <c r="J304" s="1">
@@ -13070,7 +13113,7 @@
       <c r="H305" t="s">
         <v>14</v>
       </c>
-      <c r="I305" s="2" t="s">
+      <c r="I305" t="s">
         <v>928</v>
       </c>
       <c r="J305" s="1">
@@ -13102,7 +13145,7 @@
       <c r="H306" t="s">
         <v>14</v>
       </c>
-      <c r="I306" s="2" t="s">
+      <c r="I306" t="s">
         <v>929</v>
       </c>
       <c r="J306" s="1">
@@ -13134,7 +13177,7 @@
       <c r="H307" t="s">
         <v>33</v>
       </c>
-      <c r="I307" s="2" t="s">
+      <c r="I307" t="s">
         <v>931</v>
       </c>
       <c r="J307" s="1">
@@ -13166,7 +13209,7 @@
       <c r="H308" t="s">
         <v>14</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="I308" t="s">
         <v>928</v>
       </c>
       <c r="J308" s="1">
@@ -13198,7 +13241,7 @@
       <c r="H309" t="s">
         <v>14</v>
       </c>
-      <c r="I309" s="2" t="s">
+      <c r="I309" t="s">
         <v>930</v>
       </c>
       <c r="J309" s="1">
@@ -13230,7 +13273,7 @@
       <c r="H310" t="s">
         <v>14</v>
       </c>
-      <c r="I310" s="2" t="s">
+      <c r="I310" t="s">
         <v>928</v>
       </c>
       <c r="J310" s="1">
@@ -13262,7 +13305,7 @@
       <c r="H311" t="s">
         <v>14</v>
       </c>
-      <c r="I311" s="2" t="s">
+      <c r="I311" t="s">
         <v>929</v>
       </c>
       <c r="J311" s="1">
@@ -13294,7 +13337,7 @@
       <c r="H312" t="s">
         <v>33</v>
       </c>
-      <c r="I312" s="2" t="s">
+      <c r="I312" t="s">
         <v>928</v>
       </c>
       <c r="J312" s="1">
@@ -13326,7 +13369,7 @@
       <c r="H313" t="s">
         <v>14</v>
       </c>
-      <c r="I313" s="2" t="s">
+      <c r="I313" t="s">
         <v>928</v>
       </c>
       <c r="J313" s="1">
@@ -13358,7 +13401,7 @@
       <c r="H314" t="s">
         <v>14</v>
       </c>
-      <c r="I314" s="2" t="s">
+      <c r="I314" t="s">
         <v>928</v>
       </c>
       <c r="J314" s="1">
@@ -13390,7 +13433,7 @@
       <c r="H315" t="s">
         <v>14</v>
       </c>
-      <c r="I315" s="2" t="s">
+      <c r="I315" t="s">
         <v>928</v>
       </c>
       <c r="J315" s="1">
@@ -13422,7 +13465,7 @@
       <c r="H316" t="s">
         <v>51</v>
       </c>
-      <c r="I316" s="2" t="s">
+      <c r="I316" t="s">
         <v>929</v>
       </c>
       <c r="J316" s="1">
@@ -13454,7 +13497,7 @@
       <c r="H317" t="s">
         <v>14</v>
       </c>
-      <c r="I317" s="2" t="s">
+      <c r="I317" t="s">
         <v>928</v>
       </c>
       <c r="J317" s="1">
@@ -13486,7 +13529,7 @@
       <c r="H318" t="s">
         <v>14</v>
       </c>
-      <c r="I318" s="2" t="s">
+      <c r="I318" t="s">
         <v>928</v>
       </c>
       <c r="J318" s="1">
@@ -13518,7 +13561,7 @@
       <c r="H319" t="s">
         <v>14</v>
       </c>
-      <c r="I319" s="2" t="s">
+      <c r="I319" t="s">
         <v>928</v>
       </c>
       <c r="J319" s="1">
@@ -13550,7 +13593,7 @@
       <c r="H320" t="s">
         <v>14</v>
       </c>
-      <c r="I320" s="2" t="s">
+      <c r="I320" t="s">
         <v>930</v>
       </c>
       <c r="J320" s="1">
@@ -13582,7 +13625,7 @@
       <c r="H321" t="s">
         <v>14</v>
       </c>
-      <c r="I321" s="2" t="s">
+      <c r="I321" t="s">
         <v>929</v>
       </c>
       <c r="J321" s="1">
@@ -13614,7 +13657,7 @@
       <c r="H322" t="s">
         <v>14</v>
       </c>
-      <c r="I322" s="2" t="s">
+      <c r="I322" t="s">
         <v>928</v>
       </c>
       <c r="J322" s="1">
@@ -13646,7 +13689,7 @@
       <c r="H323" t="s">
         <v>14</v>
       </c>
-      <c r="I323" s="2" t="s">
+      <c r="I323" t="s">
         <v>932</v>
       </c>
       <c r="J323" s="1">
@@ -13678,7 +13721,7 @@
       <c r="H324" t="s">
         <v>14</v>
       </c>
-      <c r="I324" s="2" t="s">
+      <c r="I324" t="s">
         <v>931</v>
       </c>
       <c r="J324" s="1">
@@ -13710,7 +13753,7 @@
       <c r="H325" t="s">
         <v>14</v>
       </c>
-      <c r="I325" s="2" t="s">
+      <c r="I325" t="s">
         <v>928</v>
       </c>
       <c r="J325" s="1">
@@ -13742,7 +13785,7 @@
       <c r="H326" t="s">
         <v>14</v>
       </c>
-      <c r="I326" s="2" t="s">
+      <c r="I326" t="s">
         <v>929</v>
       </c>
       <c r="J326" s="1">
@@ -13774,7 +13817,7 @@
       <c r="H327" t="s">
         <v>14</v>
       </c>
-      <c r="I327" s="2" t="s">
+      <c r="I327" t="s">
         <v>928</v>
       </c>
       <c r="J327" s="1">
@@ -13806,7 +13849,7 @@
       <c r="H328" t="s">
         <v>14</v>
       </c>
-      <c r="I328" s="2" t="s">
+      <c r="I328" t="s">
         <v>928</v>
       </c>
       <c r="J328" s="1">
@@ -13838,7 +13881,7 @@
       <c r="H329" t="s">
         <v>33</v>
       </c>
-      <c r="I329" s="2" t="s">
+      <c r="I329" t="s">
         <v>928</v>
       </c>
       <c r="J329" s="1">
@@ -13870,7 +13913,7 @@
       <c r="H330" t="s">
         <v>14</v>
       </c>
-      <c r="I330" s="2" t="s">
+      <c r="I330" t="s">
         <v>928</v>
       </c>
       <c r="J330" s="1">
@@ -13902,7 +13945,7 @@
       <c r="H331" t="s">
         <v>51</v>
       </c>
-      <c r="I331" s="2" t="s">
+      <c r="I331" t="s">
         <v>930</v>
       </c>
       <c r="J331" s="1">
@@ -13934,7 +13977,7 @@
       <c r="H332" t="s">
         <v>14</v>
       </c>
-      <c r="I332" s="2" t="s">
+      <c r="I332" t="s">
         <v>928</v>
       </c>
       <c r="J332" s="1">
@@ -13966,7 +14009,7 @@
       <c r="H333" t="s">
         <v>33</v>
       </c>
-      <c r="I333" s="2" t="s">
+      <c r="I333" t="s">
         <v>928</v>
       </c>
       <c r="J333" s="1">
@@ -13998,7 +14041,7 @@
       <c r="H334" t="s">
         <v>14</v>
       </c>
-      <c r="I334" s="2" t="s">
+      <c r="I334" t="s">
         <v>928</v>
       </c>
       <c r="J334" s="1">
@@ -14030,7 +14073,7 @@
       <c r="H335" t="s">
         <v>14</v>
       </c>
-      <c r="I335" s="2" t="s">
+      <c r="I335" t="s">
         <v>928</v>
       </c>
       <c r="J335" s="1">
@@ -14062,7 +14105,7 @@
       <c r="H336" t="s">
         <v>14</v>
       </c>
-      <c r="I336" s="2" t="s">
+      <c r="I336" t="s">
         <v>929</v>
       </c>
       <c r="J336" s="1">
@@ -14094,7 +14137,7 @@
       <c r="H337" t="s">
         <v>14</v>
       </c>
-      <c r="I337" s="2" t="s">
+      <c r="I337" t="s">
         <v>928</v>
       </c>
       <c r="J337" s="1">
@@ -14126,7 +14169,7 @@
       <c r="H338" t="s">
         <v>14</v>
       </c>
-      <c r="I338" s="2" t="s">
+      <c r="I338" t="s">
         <v>928</v>
       </c>
       <c r="J338" s="1">
@@ -14158,7 +14201,7 @@
       <c r="H339" t="s">
         <v>14</v>
       </c>
-      <c r="I339" s="2" t="s">
+      <c r="I339" t="s">
         <v>928</v>
       </c>
       <c r="J339" s="1">
@@ -14190,7 +14233,7 @@
       <c r="H340" t="s">
         <v>14</v>
       </c>
-      <c r="I340" s="2" t="s">
+      <c r="I340" t="s">
         <v>928</v>
       </c>
       <c r="J340" s="1">
@@ -14222,7 +14265,7 @@
       <c r="H341" t="s">
         <v>14</v>
       </c>
-      <c r="I341" s="2" t="s">
+      <c r="I341" t="s">
         <v>931</v>
       </c>
       <c r="J341" s="1">
@@ -14254,7 +14297,7 @@
       <c r="H342" t="s">
         <v>14</v>
       </c>
-      <c r="I342" s="2" t="s">
+      <c r="I342" t="s">
         <v>930</v>
       </c>
       <c r="J342" s="1">
@@ -14286,7 +14329,7 @@
       <c r="H343" t="s">
         <v>33</v>
       </c>
-      <c r="I343" s="2" t="s">
+      <c r="I343" t="s">
         <v>928</v>
       </c>
       <c r="J343" s="1">
@@ -14318,7 +14361,7 @@
       <c r="H344" t="s">
         <v>14</v>
       </c>
-      <c r="I344" s="2" t="s">
+      <c r="I344" t="s">
         <v>928</v>
       </c>
       <c r="J344" s="1">
@@ -14350,7 +14393,7 @@
       <c r="H345" t="s">
         <v>14</v>
       </c>
-      <c r="I345" s="2" t="s">
+      <c r="I345" t="s">
         <v>928</v>
       </c>
       <c r="J345" s="1">
@@ -14382,7 +14425,7 @@
       <c r="H346" t="s">
         <v>14</v>
       </c>
-      <c r="I346" s="2" t="s">
+      <c r="I346" t="s">
         <v>932</v>
       </c>
       <c r="J346" s="1">
@@ -14414,7 +14457,7 @@
       <c r="H347" t="s">
         <v>14</v>
       </c>
-      <c r="I347" s="2" t="s">
+      <c r="I347" t="s">
         <v>928</v>
       </c>
       <c r="J347" s="1">
@@ -14446,7 +14489,7 @@
       <c r="H348" t="s">
         <v>33</v>
       </c>
-      <c r="I348" s="2" t="s">
+      <c r="I348" t="s">
         <v>928</v>
       </c>
       <c r="J348" s="1">
@@ -14478,7 +14521,7 @@
       <c r="H349" t="s">
         <v>14</v>
       </c>
-      <c r="I349" s="2" t="s">
+      <c r="I349" t="s">
         <v>928</v>
       </c>
       <c r="J349" s="1">
@@ -14510,7 +14553,7 @@
       <c r="H350" t="s">
         <v>14</v>
       </c>
-      <c r="I350" s="2" t="s">
+      <c r="I350" t="s">
         <v>928</v>
       </c>
       <c r="J350" s="1">
@@ -14542,7 +14585,7 @@
       <c r="H351" t="s">
         <v>14</v>
       </c>
-      <c r="I351" s="2" t="s">
+      <c r="I351" t="s">
         <v>929</v>
       </c>
       <c r="J351" s="1">
@@ -14574,7 +14617,7 @@
       <c r="H352" t="s">
         <v>51</v>
       </c>
-      <c r="I352" s="2" t="s">
+      <c r="I352" t="s">
         <v>928</v>
       </c>
       <c r="J352" s="1">
@@ -14606,7 +14649,7 @@
       <c r="H353" t="s">
         <v>14</v>
       </c>
-      <c r="I353" s="2" t="s">
+      <c r="I353" t="s">
         <v>930</v>
       </c>
       <c r="J353" s="1">
@@ -14638,7 +14681,7 @@
       <c r="H354" t="s">
         <v>14</v>
       </c>
-      <c r="I354" s="2" t="s">
+      <c r="I354" t="s">
         <v>928</v>
       </c>
       <c r="J354" s="1">
@@ -14670,7 +14713,7 @@
       <c r="H355" t="s">
         <v>14</v>
       </c>
-      <c r="I355" s="2" t="s">
+      <c r="I355" t="s">
         <v>928</v>
       </c>
       <c r="J355" s="1">
@@ -14702,7 +14745,7 @@
       <c r="H356" t="s">
         <v>14</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="I356" t="s">
         <v>929</v>
       </c>
       <c r="J356" s="1">
@@ -14734,7 +14777,7 @@
       <c r="H357" t="s">
         <v>14</v>
       </c>
-      <c r="I357" s="2" t="s">
+      <c r="I357" t="s">
         <v>928</v>
       </c>
       <c r="J357" s="1">
@@ -14766,7 +14809,7 @@
       <c r="H358" t="s">
         <v>14</v>
       </c>
-      <c r="I358" s="2" t="s">
+      <c r="I358" t="s">
         <v>931</v>
       </c>
       <c r="J358" s="1">
@@ -14798,7 +14841,7 @@
       <c r="H359" t="s">
         <v>14</v>
       </c>
-      <c r="I359" s="2" t="s">
+      <c r="I359" t="s">
         <v>928</v>
       </c>
       <c r="J359" s="1">
@@ -14830,7 +14873,7 @@
       <c r="H360" t="s">
         <v>14</v>
       </c>
-      <c r="I360" s="2" t="s">
+      <c r="I360" t="s">
         <v>928</v>
       </c>
       <c r="J360" s="1">
@@ -14862,7 +14905,7 @@
       <c r="H361" t="s">
         <v>14</v>
       </c>
-      <c r="I361" s="2" t="s">
+      <c r="I361" t="s">
         <v>929</v>
       </c>
       <c r="J361" s="1">
@@ -14894,7 +14937,7 @@
       <c r="H362" t="s">
         <v>14</v>
       </c>
-      <c r="I362" s="2" t="s">
+      <c r="I362" t="s">
         <v>928</v>
       </c>
       <c r="J362" s="1">
@@ -14926,7 +14969,7 @@
       <c r="H363" t="s">
         <v>14</v>
       </c>
-      <c r="I363" s="2" t="s">
+      <c r="I363" t="s">
         <v>928</v>
       </c>
       <c r="J363" s="1">
@@ -14958,7 +15001,7 @@
       <c r="H364" t="s">
         <v>14</v>
       </c>
-      <c r="I364" s="2" t="s">
+      <c r="I364" t="s">
         <v>930</v>
       </c>
       <c r="J364" s="1">
@@ -14990,7 +15033,7 @@
       <c r="H365" t="s">
         <v>33</v>
       </c>
-      <c r="I365" s="2" t="s">
+      <c r="I365" t="s">
         <v>928</v>
       </c>
       <c r="J365" s="1">
@@ -15022,7 +15065,7 @@
       <c r="H366" t="s">
         <v>14</v>
       </c>
-      <c r="I366" s="2" t="s">
+      <c r="I366" t="s">
         <v>929</v>
       </c>
       <c r="J366" s="1">
@@ -15054,7 +15097,7 @@
       <c r="H367" t="s">
         <v>51</v>
       </c>
-      <c r="I367" s="2" t="s">
+      <c r="I367" t="s">
         <v>928</v>
       </c>
       <c r="J367" s="1">
@@ -15086,7 +15129,7 @@
       <c r="H368" t="s">
         <v>14</v>
       </c>
-      <c r="I368" s="2" t="s">
+      <c r="I368" t="s">
         <v>928</v>
       </c>
       <c r="J368" s="1">
@@ -15118,7 +15161,7 @@
       <c r="H369" t="s">
         <v>33</v>
       </c>
-      <c r="I369" s="2" t="s">
+      <c r="I369" t="s">
         <v>932</v>
       </c>
       <c r="J369" s="1">
@@ -15150,7 +15193,7 @@
       <c r="H370" t="s">
         <v>14</v>
       </c>
-      <c r="I370" s="2" t="s">
+      <c r="I370" t="s">
         <v>928</v>
       </c>
       <c r="J370" s="1">
@@ -15182,7 +15225,7 @@
       <c r="H371" t="s">
         <v>14</v>
       </c>
-      <c r="I371" s="2" t="s">
+      <c r="I371" t="s">
         <v>929</v>
       </c>
       <c r="J371" s="1">
@@ -15214,7 +15257,7 @@
       <c r="H372" t="s">
         <v>14</v>
       </c>
-      <c r="I372" s="2" t="s">
+      <c r="I372" t="s">
         <v>928</v>
       </c>
       <c r="J372" s="1">
@@ -15246,7 +15289,7 @@
       <c r="H373" t="s">
         <v>14</v>
       </c>
-      <c r="I373" s="2" t="s">
+      <c r="I373" t="s">
         <v>928</v>
       </c>
       <c r="J373" s="1">
@@ -15278,7 +15321,7 @@
       <c r="H374" t="s">
         <v>14</v>
       </c>
-      <c r="I374" s="2" t="s">
+      <c r="I374" t="s">
         <v>928</v>
       </c>
       <c r="J374" s="1">
@@ -15310,7 +15353,7 @@
       <c r="H375" t="s">
         <v>14</v>
       </c>
-      <c r="I375" s="2" t="s">
+      <c r="I375" t="s">
         <v>931</v>
       </c>
       <c r="J375" s="1">
@@ -15342,7 +15385,7 @@
       <c r="H376" t="s">
         <v>14</v>
       </c>
-      <c r="I376" s="2" t="s">
+      <c r="I376" t="s">
         <v>929</v>
       </c>
       <c r="J376" s="1">
@@ -15374,7 +15417,7 @@
       <c r="H377" t="s">
         <v>14</v>
       </c>
-      <c r="I377" s="2" t="s">
+      <c r="I377" t="s">
         <v>928</v>
       </c>
       <c r="J377" s="1">
@@ -15406,7 +15449,7 @@
       <c r="H378" t="s">
         <v>14</v>
       </c>
-      <c r="I378" s="2" t="s">
+      <c r="I378" t="s">
         <v>928</v>
       </c>
       <c r="J378" s="1">
@@ -15438,7 +15481,7 @@
       <c r="H379" t="s">
         <v>33</v>
       </c>
-      <c r="I379" s="2" t="s">
+      <c r="I379" t="s">
         <v>928</v>
       </c>
       <c r="J379" s="1">
@@ -15470,7 +15513,7 @@
       <c r="H380" t="s">
         <v>14</v>
       </c>
-      <c r="I380" s="2" t="s">
+      <c r="I380" t="s">
         <v>928</v>
       </c>
       <c r="J380" s="1">
@@ -15502,7 +15545,7 @@
       <c r="H381" t="s">
         <v>14</v>
       </c>
-      <c r="I381" s="2" t="s">
+      <c r="I381" t="s">
         <v>929</v>
       </c>
       <c r="J381" s="1">
@@ -15534,7 +15577,7 @@
       <c r="H382" t="s">
         <v>14</v>
       </c>
-      <c r="I382" s="2" t="s">
+      <c r="I382" t="s">
         <v>928</v>
       </c>
       <c r="J382" s="1">
@@ -15566,7 +15609,7 @@
       <c r="H383" t="s">
         <v>14</v>
       </c>
-      <c r="I383" s="2" t="s">
+      <c r="I383" t="s">
         <v>928</v>
       </c>
       <c r="J383" s="1">
@@ -15598,7 +15641,7 @@
       <c r="H384" t="s">
         <v>33</v>
       </c>
-      <c r="I384" s="2" t="s">
+      <c r="I384" t="s">
         <v>928</v>
       </c>
       <c r="J384" s="1">
@@ -15630,7 +15673,7 @@
       <c r="H385" t="s">
         <v>14</v>
       </c>
-      <c r="I385" s="2" t="s">
+      <c r="I385" t="s">
         <v>928</v>
       </c>
       <c r="J385" s="1">
@@ -15662,7 +15705,7 @@
       <c r="H386" t="s">
         <v>14</v>
       </c>
-      <c r="I386" s="2" t="s">
+      <c r="I386" t="s">
         <v>930</v>
       </c>
       <c r="J386" s="1">
@@ -15694,7 +15737,7 @@
       <c r="H387" t="s">
         <v>14</v>
       </c>
-      <c r="I387" s="2" t="s">
+      <c r="I387" t="s">
         <v>928</v>
       </c>
       <c r="J387" s="1">
@@ -15726,7 +15769,7 @@
       <c r="H388" t="s">
         <v>14</v>
       </c>
-      <c r="I388" s="2" t="s">
+      <c r="I388" t="s">
         <v>928</v>
       </c>
       <c r="J388" s="1">
@@ -15758,7 +15801,7 @@
       <c r="H389" t="s">
         <v>14</v>
       </c>
-      <c r="I389" s="2" t="s">
+      <c r="I389" t="s">
         <v>928</v>
       </c>
       <c r="J389" s="1">
@@ -15790,7 +15833,7 @@
       <c r="H390" t="s">
         <v>14</v>
       </c>
-      <c r="I390" s="2" t="s">
+      <c r="I390" t="s">
         <v>928</v>
       </c>
       <c r="J390" s="1">
@@ -15822,7 +15865,7 @@
       <c r="H391" t="s">
         <v>33</v>
       </c>
-      <c r="I391" s="2" t="s">
+      <c r="I391" t="s">
         <v>929</v>
       </c>
       <c r="J391" s="1">
@@ -15854,7 +15897,7 @@
       <c r="H392" t="s">
         <v>14</v>
       </c>
-      <c r="I392" s="2" t="s">
+      <c r="I392" t="s">
         <v>932</v>
       </c>
       <c r="J392" s="1">
@@ -15886,7 +15929,7 @@
       <c r="H393" t="s">
         <v>14</v>
       </c>
-      <c r="I393" s="2" t="s">
+      <c r="I393" t="s">
         <v>928</v>
       </c>
       <c r="J393" s="1">
@@ -15918,7 +15961,7 @@
       <c r="H394" t="s">
         <v>14</v>
       </c>
-      <c r="I394" s="2" t="s">
+      <c r="I394" t="s">
         <v>928</v>
       </c>
       <c r="J394" s="1">
@@ -15950,7 +15993,7 @@
       <c r="H395" t="s">
         <v>14</v>
       </c>
-      <c r="I395" s="2" t="s">
+      <c r="I395" t="s">
         <v>928</v>
       </c>
       <c r="J395" s="1">
@@ -15982,7 +16025,7 @@
       <c r="H396" t="s">
         <v>14</v>
       </c>
-      <c r="I396" s="2" t="s">
+      <c r="I396" t="s">
         <v>929</v>
       </c>
       <c r="J396" s="1">
@@ -16014,7 +16057,7 @@
       <c r="H397" t="s">
         <v>14</v>
       </c>
-      <c r="I397" s="2" t="s">
+      <c r="I397" t="s">
         <v>930</v>
       </c>
       <c r="J397" s="1">
@@ -16046,7 +16089,7 @@
       <c r="H398" t="s">
         <v>14</v>
       </c>
-      <c r="I398" s="2" t="s">
+      <c r="I398" t="s">
         <v>928</v>
       </c>
       <c r="J398" s="1">
@@ -16078,7 +16121,7 @@
       <c r="H399" t="s">
         <v>14</v>
       </c>
-      <c r="I399" s="2" t="s">
+      <c r="I399" t="s">
         <v>928</v>
       </c>
       <c r="J399" s="1">
@@ -16110,7 +16153,7 @@
       <c r="H400" t="s">
         <v>14</v>
       </c>
-      <c r="I400" s="2" t="s">
+      <c r="I400" t="s">
         <v>928</v>
       </c>
       <c r="J400" s="1">
@@ -16142,7 +16185,7 @@
       <c r="H401" t="s">
         <v>14</v>
       </c>
-      <c r="I401" s="2" t="s">
+      <c r="I401" t="s">
         <v>929</v>
       </c>
       <c r="J401" s="1">
@@ -16174,7 +16217,7 @@
       <c r="H402" t="s">
         <v>14</v>
       </c>
-      <c r="I402" s="2" t="s">
+      <c r="I402" t="s">
         <v>928</v>
       </c>
       <c r="J402" s="1">
@@ -16206,7 +16249,7 @@
       <c r="H403" t="s">
         <v>51</v>
       </c>
-      <c r="I403" s="2" t="s">
+      <c r="I403" t="s">
         <v>928</v>
       </c>
       <c r="J403" s="1">
@@ -16238,7 +16281,7 @@
       <c r="H404" t="s">
         <v>14</v>
       </c>
-      <c r="I404" s="2" t="s">
+      <c r="I404" t="s">
         <v>928</v>
       </c>
       <c r="J404" s="1">
@@ -16270,7 +16313,7 @@
       <c r="H405" t="s">
         <v>14</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="I405" t="s">
         <v>928</v>
       </c>
       <c r="J405" s="1">
@@ -16302,7 +16345,7 @@
       <c r="H406" t="s">
         <v>14</v>
       </c>
-      <c r="I406" s="2" t="s">
+      <c r="I406" t="s">
         <v>929</v>
       </c>
       <c r="J406" s="1">
@@ -16334,7 +16377,7 @@
       <c r="H407" t="s">
         <v>14</v>
       </c>
-      <c r="I407" s="2" t="s">
+      <c r="I407" t="s">
         <v>928</v>
       </c>
       <c r="J407" s="1">
@@ -16366,7 +16409,7 @@
       <c r="H408" t="s">
         <v>14</v>
       </c>
-      <c r="I408" s="2" t="s">
+      <c r="I408" t="s">
         <v>930</v>
       </c>
       <c r="J408" s="1">
@@ -16398,7 +16441,7 @@
       <c r="H409" t="s">
         <v>14</v>
       </c>
-      <c r="I409" s="2" t="s">
+      <c r="I409" t="s">
         <v>931</v>
       </c>
       <c r="J409" s="1">
@@ -16430,7 +16473,7 @@
       <c r="H410" t="s">
         <v>14</v>
       </c>
-      <c r="I410" s="2" t="s">
+      <c r="I410" t="s">
         <v>928</v>
       </c>
       <c r="J410" s="1">
@@ -16462,7 +16505,7 @@
       <c r="H411" t="s">
         <v>14</v>
       </c>
-      <c r="I411" s="2" t="s">
+      <c r="I411" t="s">
         <v>929</v>
       </c>
       <c r="J411" s="1">
@@ -16494,7 +16537,7 @@
       <c r="H412" t="s">
         <v>33</v>
       </c>
-      <c r="I412" s="2" t="s">
+      <c r="I412" t="s">
         <v>928</v>
       </c>
       <c r="J412" s="1">
@@ -16526,7 +16569,7 @@
       <c r="H413" t="s">
         <v>14</v>
       </c>
-      <c r="I413" s="2" t="s">
+      <c r="I413" t="s">
         <v>928</v>
       </c>
       <c r="J413" s="1">
@@ -16558,7 +16601,7 @@
       <c r="H414" t="s">
         <v>14</v>
       </c>
-      <c r="I414" s="2" t="s">
+      <c r="I414" t="s">
         <v>928</v>
       </c>
       <c r="J414" s="1">
@@ -16590,7 +16633,7 @@
       <c r="H415" t="s">
         <v>14</v>
       </c>
-      <c r="I415" s="2" t="s">
+      <c r="I415" t="s">
         <v>932</v>
       </c>
       <c r="J415" s="1">
@@ -16622,7 +16665,7 @@
       <c r="H416" t="s">
         <v>14</v>
       </c>
-      <c r="I416" s="2" t="s">
+      <c r="I416" t="s">
         <v>929</v>
       </c>
       <c r="J416" s="1">
@@ -16654,7 +16697,7 @@
       <c r="H417" t="s">
         <v>14</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="I417" t="s">
         <v>928</v>
       </c>
       <c r="J417" s="1">
@@ -16686,7 +16729,7 @@
       <c r="H418" t="s">
         <v>14</v>
       </c>
-      <c r="I418" s="2" t="s">
+      <c r="I418" t="s">
         <v>928</v>
       </c>
       <c r="J418" s="1">
@@ -16718,7 +16761,7 @@
       <c r="H419" t="s">
         <v>14</v>
       </c>
-      <c r="I419" s="2" t="s">
+      <c r="I419" t="s">
         <v>930</v>
       </c>
       <c r="J419" s="1">
@@ -16750,7 +16793,7 @@
       <c r="H420" t="s">
         <v>14</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="I420" t="s">
         <v>928</v>
       </c>
       <c r="J420" s="1">
@@ -16782,7 +16825,7 @@
       <c r="H421" t="s">
         <v>14</v>
       </c>
-      <c r="I421" s="2" t="s">
+      <c r="I421" t="s">
         <v>929</v>
       </c>
       <c r="J421" s="1">
@@ -16814,7 +16857,7 @@
       <c r="H422" t="s">
         <v>14</v>
       </c>
-      <c r="I422" s="2" t="s">
+      <c r="I422" t="s">
         <v>928</v>
       </c>
       <c r="J422" s="1">
@@ -16846,7 +16889,7 @@
       <c r="H423" t="s">
         <v>14</v>
       </c>
-      <c r="I423" s="2" t="s">
+      <c r="I423" t="s">
         <v>928</v>
       </c>
       <c r="J423" s="1">
@@ -16878,7 +16921,7 @@
       <c r="H424" t="s">
         <v>14</v>
       </c>
-      <c r="I424" s="2" t="s">
+      <c r="I424" t="s">
         <v>928</v>
       </c>
       <c r="J424" s="1">
@@ -16910,7 +16953,7 @@
       <c r="H425" t="s">
         <v>33</v>
       </c>
-      <c r="I425" s="2" t="s">
+      <c r="I425" t="s">
         <v>928</v>
       </c>
       <c r="J425" s="1">
@@ -16942,7 +16985,7 @@
       <c r="H426" t="s">
         <v>14</v>
       </c>
-      <c r="I426" s="2" t="s">
+      <c r="I426" t="s">
         <v>931</v>
       </c>
       <c r="J426" s="1">
@@ -16974,7 +17017,7 @@
       <c r="H427" t="s">
         <v>51</v>
       </c>
-      <c r="I427" s="2" t="s">
+      <c r="I427" t="s">
         <v>928</v>
       </c>
       <c r="J427" s="1">
@@ -17006,7 +17049,7 @@
       <c r="H428" t="s">
         <v>14</v>
       </c>
-      <c r="I428" s="2" t="s">
+      <c r="I428" t="s">
         <v>928</v>
       </c>
       <c r="J428" s="1">
@@ -17038,7 +17081,7 @@
       <c r="H429" t="s">
         <v>33</v>
       </c>
-      <c r="I429" s="2" t="s">
+      <c r="I429" t="s">
         <v>928</v>
       </c>
       <c r="J429" s="1">
@@ -17070,7 +17113,7 @@
       <c r="H430" t="s">
         <v>14</v>
       </c>
-      <c r="I430" s="2" t="s">
+      <c r="I430" t="s">
         <v>930</v>
       </c>
       <c r="J430" s="1">
@@ -17102,7 +17145,7 @@
       <c r="H431" t="s">
         <v>14</v>
       </c>
-      <c r="I431" s="2" t="s">
+      <c r="I431" t="s">
         <v>929</v>
       </c>
       <c r="J431" s="1">
@@ -17134,7 +17177,7 @@
       <c r="H432" t="s">
         <v>14</v>
       </c>
-      <c r="I432" s="2" t="s">
+      <c r="I432" t="s">
         <v>928</v>
       </c>
       <c r="J432" s="1">
@@ -17166,7 +17209,7 @@
       <c r="H433" t="s">
         <v>14</v>
       </c>
-      <c r="I433" s="2" t="s">
+      <c r="I433" t="s">
         <v>928</v>
       </c>
       <c r="J433" s="1">
@@ -17198,7 +17241,7 @@
       <c r="H434" t="s">
         <v>14</v>
       </c>
-      <c r="I434" s="2" t="s">
+      <c r="I434" t="s">
         <v>928</v>
       </c>
       <c r="J434" s="1">
@@ -17230,7 +17273,7 @@
       <c r="H435" t="s">
         <v>14</v>
       </c>
-      <c r="I435" s="2" t="s">
+      <c r="I435" t="s">
         <v>928</v>
       </c>
       <c r="J435" s="1">
@@ -17262,7 +17305,7 @@
       <c r="H436" t="s">
         <v>14</v>
       </c>
-      <c r="I436" s="2" t="s">
+      <c r="I436" t="s">
         <v>929</v>
       </c>
       <c r="J436" s="1">
@@ -17294,7 +17337,7 @@
       <c r="H437" t="s">
         <v>14</v>
       </c>
-      <c r="I437" s="2" t="s">
+      <c r="I437" t="s">
         <v>928</v>
       </c>
       <c r="J437" s="1">
@@ -17326,7 +17369,7 @@
       <c r="H438" t="s">
         <v>14</v>
       </c>
-      <c r="I438" s="2" t="s">
+      <c r="I438" t="s">
         <v>932</v>
       </c>
       <c r="J438" s="1">
@@ -17358,7 +17401,7 @@
       <c r="H439" t="s">
         <v>33</v>
       </c>
-      <c r="I439" s="2" t="s">
+      <c r="I439" t="s">
         <v>928</v>
       </c>
       <c r="J439" s="1">
@@ -17390,7 +17433,7 @@
       <c r="H440" t="s">
         <v>14</v>
       </c>
-      <c r="I440" s="2" t="s">
+      <c r="I440" t="s">
         <v>928</v>
       </c>
       <c r="J440" s="1">
@@ -17422,7 +17465,7 @@
       <c r="H441" t="s">
         <v>14</v>
       </c>
-      <c r="I441" s="2" t="s">
+      <c r="I441" t="s">
         <v>930</v>
       </c>
       <c r="J441" s="1">
@@ -17454,7 +17497,7 @@
       <c r="H442" t="s">
         <v>14</v>
       </c>
-      <c r="I442" s="2" t="s">
+      <c r="I442" t="s">
         <v>928</v>
       </c>
       <c r="J442" s="1">
@@ -17486,7 +17529,7 @@
       <c r="H443" t="s">
         <v>14</v>
       </c>
-      <c r="I443" s="2" t="s">
+      <c r="I443" t="s">
         <v>931</v>
       </c>
       <c r="J443" s="1">
@@ -17518,7 +17561,7 @@
       <c r="H444" t="s">
         <v>33</v>
       </c>
-      <c r="I444" s="2" t="s">
+      <c r="I444" t="s">
         <v>928</v>
       </c>
       <c r="J444" s="1">
@@ -17550,7 +17593,7 @@
       <c r="H445" t="s">
         <v>14</v>
       </c>
-      <c r="I445" s="2" t="s">
+      <c r="I445" t="s">
         <v>928</v>
       </c>
       <c r="J445" s="1">
@@ -17582,7 +17625,7 @@
       <c r="H446" t="s">
         <v>14</v>
       </c>
-      <c r="I446" s="2" t="s">
+      <c r="I446" t="s">
         <v>929</v>
       </c>
       <c r="J446" s="1">
@@ -17614,7 +17657,7 @@
       <c r="H447" t="s">
         <v>14</v>
       </c>
-      <c r="I447" s="2" t="s">
+      <c r="I447" t="s">
         <v>928</v>
       </c>
       <c r="J447" s="1">
@@ -17646,7 +17689,7 @@
       <c r="H448" t="s">
         <v>51</v>
       </c>
-      <c r="I448" s="2" t="s">
+      <c r="I448" t="s">
         <v>928</v>
       </c>
       <c r="J448" s="1">
@@ -17678,7 +17721,7 @@
       <c r="H449" t="s">
         <v>14</v>
       </c>
-      <c r="I449" s="2" t="s">
+      <c r="I449" t="s">
         <v>928</v>
       </c>
       <c r="J449" s="1">
@@ -17710,7 +17753,7 @@
       <c r="H450" t="s">
         <v>14</v>
       </c>
-      <c r="I450" s="2" t="s">
+      <c r="I450" t="s">
         <v>928</v>
       </c>
       <c r="J450" s="1">
@@ -17742,7 +17785,7 @@
       <c r="H451" t="s">
         <v>14</v>
       </c>
-      <c r="I451" s="2" t="s">
+      <c r="I451" t="s">
         <v>929</v>
       </c>
       <c r="J451" s="1">
@@ -17774,7 +17817,7 @@
       <c r="H452" t="s">
         <v>14</v>
       </c>
-      <c r="I452" s="2" t="s">
+      <c r="I452" t="s">
         <v>930</v>
       </c>
       <c r="J452" s="1">
@@ -17806,7 +17849,7 @@
       <c r="H453" t="s">
         <v>14</v>
       </c>
-      <c r="I453" s="2" t="s">
+      <c r="I453" t="s">
         <v>928</v>
       </c>
       <c r="J453" s="1">
@@ -17838,7 +17881,7 @@
       <c r="H454" t="s">
         <v>14</v>
       </c>
-      <c r="I454" s="2" t="s">
+      <c r="I454" t="s">
         <v>928</v>
       </c>
       <c r="J454" s="1">
@@ -17870,7 +17913,7 @@
       <c r="H455" t="s">
         <v>14</v>
       </c>
-      <c r="I455" s="2" t="s">
+      <c r="I455" t="s">
         <v>928</v>
       </c>
       <c r="J455" s="1">
@@ -17902,7 +17945,7 @@
       <c r="H456" t="s">
         <v>14</v>
       </c>
-      <c r="I456" s="2" t="s">
+      <c r="I456" t="s">
         <v>929</v>
       </c>
       <c r="J456" s="1">
@@ -17934,7 +17977,7 @@
       <c r="H457" t="s">
         <v>14</v>
       </c>
-      <c r="I457" s="2" t="s">
+      <c r="I457" t="s">
         <v>928</v>
       </c>
       <c r="J457" s="1">
@@ -17966,7 +18009,7 @@
       <c r="H458" t="s">
         <v>14</v>
       </c>
-      <c r="I458" s="2" t="s">
+      <c r="I458" t="s">
         <v>928</v>
       </c>
       <c r="J458" s="1">
@@ -17998,7 +18041,7 @@
       <c r="H459" t="s">
         <v>14</v>
       </c>
-      <c r="I459" s="2" t="s">
+      <c r="I459" t="s">
         <v>928</v>
       </c>
       <c r="J459" s="1">
@@ -18030,7 +18073,7 @@
       <c r="H460" t="s">
         <v>14</v>
       </c>
-      <c r="I460" s="2" t="s">
+      <c r="I460" t="s">
         <v>931</v>
       </c>
       <c r="J460" s="1">
@@ -18062,7 +18105,7 @@
       <c r="H461" t="s">
         <v>33</v>
       </c>
-      <c r="I461" s="2" t="s">
+      <c r="I461" t="s">
         <v>932</v>
       </c>
       <c r="J461" s="1">
@@ -18094,7 +18137,7 @@
       <c r="H462" t="s">
         <v>14</v>
       </c>
-      <c r="I462" s="2" t="s">
+      <c r="I462" t="s">
         <v>928</v>
       </c>
       <c r="J462" s="1">
@@ -18126,7 +18169,7 @@
       <c r="H463" t="s">
         <v>51</v>
       </c>
-      <c r="I463" s="2" t="s">
+      <c r="I463" t="s">
         <v>930</v>
       </c>
       <c r="J463" s="1">
@@ -18158,7 +18201,7 @@
       <c r="H464" t="s">
         <v>14</v>
       </c>
-      <c r="I464" s="2" t="s">
+      <c r="I464" t="s">
         <v>928</v>
       </c>
       <c r="J464" s="1">
@@ -18190,7 +18233,7 @@
       <c r="H465" t="s">
         <v>33</v>
       </c>
-      <c r="I465" s="2" t="s">
+      <c r="I465" t="s">
         <v>928</v>
       </c>
       <c r="J465" s="1">
@@ -18222,7 +18265,7 @@
       <c r="H466" t="s">
         <v>14</v>
       </c>
-      <c r="I466" s="2" t="s">
+      <c r="I466" t="s">
         <v>929</v>
       </c>
       <c r="J466" s="1">
@@ -18254,7 +18297,7 @@
       <c r="H467" t="s">
         <v>14</v>
       </c>
-      <c r="I467" s="2" t="s">
+      <c r="I467" t="s">
         <v>928</v>
       </c>
       <c r="J467" s="1">
@@ -18286,7 +18329,7 @@
       <c r="H468" t="s">
         <v>14</v>
       </c>
-      <c r="I468" s="2" t="s">
+      <c r="I468" t="s">
         <v>928</v>
       </c>
       <c r="J468" s="1">
@@ -18318,7 +18361,7 @@
       <c r="H469" t="s">
         <v>14</v>
       </c>
-      <c r="I469" s="2" t="s">
+      <c r="I469" t="s">
         <v>928</v>
       </c>
       <c r="J469" s="1">
@@ -18350,7 +18393,7 @@
       <c r="H470" t="s">
         <v>14</v>
       </c>
-      <c r="I470" s="2" t="s">
+      <c r="I470" t="s">
         <v>928</v>
       </c>
       <c r="J470" s="1">
@@ -18382,7 +18425,7 @@
       <c r="H471" t="s">
         <v>14</v>
       </c>
-      <c r="I471" s="2" t="s">
+      <c r="I471" t="s">
         <v>929</v>
       </c>
       <c r="J471" s="1">
@@ -18414,7 +18457,7 @@
       <c r="H472" t="s">
         <v>14</v>
       </c>
-      <c r="I472" s="2" t="s">
+      <c r="I472" t="s">
         <v>928</v>
       </c>
       <c r="J472" s="1">
@@ -18446,7 +18489,7 @@
       <c r="H473" t="s">
         <v>14</v>
       </c>
-      <c r="I473" s="2" t="s">
+      <c r="I473" t="s">
         <v>928</v>
       </c>
       <c r="J473" s="1">
@@ -18478,7 +18521,7 @@
       <c r="H474" t="s">
         <v>14</v>
       </c>
-      <c r="I474" s="2" t="s">
+      <c r="I474" t="s">
         <v>930</v>
       </c>
       <c r="J474" s="1">
@@ -18510,7 +18553,7 @@
       <c r="H475" t="s">
         <v>33</v>
       </c>
-      <c r="I475" s="2" t="s">
+      <c r="I475" t="s">
         <v>928</v>
       </c>
       <c r="J475" s="1">
@@ -18542,7 +18585,7 @@
       <c r="H476" t="s">
         <v>14</v>
       </c>
-      <c r="I476" s="2" t="s">
+      <c r="I476" t="s">
         <v>929</v>
       </c>
       <c r="J476" s="1">
@@ -18574,7 +18617,7 @@
       <c r="H477" t="s">
         <v>14</v>
       </c>
-      <c r="I477" s="2" t="s">
+      <c r="I477" t="s">
         <v>931</v>
       </c>
       <c r="J477" s="1">
@@ -18606,7 +18649,7 @@
       <c r="H478" t="s">
         <v>14</v>
       </c>
-      <c r="I478" s="2" t="s">
+      <c r="I478" t="s">
         <v>928</v>
       </c>
       <c r="J478" s="1">
@@ -18638,7 +18681,7 @@
       <c r="H479" t="s">
         <v>14</v>
       </c>
-      <c r="I479" s="2" t="s">
+      <c r="I479" t="s">
         <v>928</v>
       </c>
       <c r="J479" s="1">
@@ -18670,7 +18713,7 @@
       <c r="H480" t="s">
         <v>33</v>
       </c>
-      <c r="I480" s="2" t="s">
+      <c r="I480" t="s">
         <v>928</v>
       </c>
       <c r="J480" s="1">
@@ -18702,7 +18745,7 @@
       <c r="H481" t="s">
         <v>14</v>
       </c>
-      <c r="I481" s="2" t="s">
+      <c r="I481" t="s">
         <v>929</v>
       </c>
       <c r="J481" s="1">
@@ -18734,7 +18777,7 @@
       <c r="H482" t="s">
         <v>14</v>
       </c>
-      <c r="I482" s="2" t="s">
+      <c r="I482" t="s">
         <v>928</v>
       </c>
       <c r="J482" s="1">
@@ -18766,7 +18809,7 @@
       <c r="H483" t="s">
         <v>14</v>
       </c>
-      <c r="I483" s="2" t="s">
+      <c r="I483" t="s">
         <v>928</v>
       </c>
       <c r="J483" s="1">
@@ -18798,7 +18841,7 @@
       <c r="H484" t="s">
         <v>51</v>
       </c>
-      <c r="I484" s="2" t="s">
+      <c r="I484" t="s">
         <v>932</v>
       </c>
       <c r="J484" s="1">
@@ -18830,7 +18873,7 @@
       <c r="H485" t="s">
         <v>14</v>
       </c>
-      <c r="I485" s="2" t="s">
+      <c r="I485" t="s">
         <v>930</v>
       </c>
       <c r="J485" s="1">
@@ -18862,7 +18905,7 @@
       <c r="H486" t="s">
         <v>14</v>
       </c>
-      <c r="I486" s="2" t="s">
+      <c r="I486" t="s">
         <v>929</v>
       </c>
       <c r="J486" s="1">
@@ -18894,7 +18937,7 @@
       <c r="H487" t="s">
         <v>14</v>
       </c>
-      <c r="I487" s="2" t="s">
+      <c r="I487" t="s">
         <v>928</v>
       </c>
       <c r="J487" s="1">
@@ -18926,7 +18969,7 @@
       <c r="H488" t="s">
         <v>14</v>
       </c>
-      <c r="I488" s="2" t="s">
+      <c r="I488" t="s">
         <v>928</v>
       </c>
       <c r="J488" s="1">
@@ -18958,7 +19001,7 @@
       <c r="H489" t="s">
         <v>14</v>
       </c>
-      <c r="I489" s="2" t="s">
+      <c r="I489" t="s">
         <v>928</v>
       </c>
       <c r="J489" s="1">
@@ -18990,7 +19033,7 @@
       <c r="H490" t="s">
         <v>14</v>
       </c>
-      <c r="I490" s="2" t="s">
+      <c r="I490" t="s">
         <v>928</v>
       </c>
       <c r="J490" s="1">
@@ -19022,7 +19065,7 @@
       <c r="H491" t="s">
         <v>14</v>
       </c>
-      <c r="I491" s="2" t="s">
+      <c r="I491" t="s">
         <v>929</v>
       </c>
       <c r="J491" s="1">
@@ -19054,7 +19097,7 @@
       <c r="H492" t="s">
         <v>14</v>
       </c>
-      <c r="I492" s="2" t="s">
+      <c r="I492" t="s">
         <v>928</v>
       </c>
       <c r="J492" s="1">
@@ -19086,7 +19129,7 @@
       <c r="H493" t="s">
         <v>14</v>
       </c>
-      <c r="I493" s="2" t="s">
+      <c r="I493" t="s">
         <v>928</v>
       </c>
       <c r="J493" s="1">
@@ -19118,7 +19161,7 @@
       <c r="H494" t="s">
         <v>14</v>
       </c>
-      <c r="I494" s="2" t="s">
+      <c r="I494" t="s">
         <v>931</v>
       </c>
       <c r="J494" s="1">
@@ -19150,7 +19193,7 @@
       <c r="H495" t="s">
         <v>14</v>
       </c>
-      <c r="I495" s="2" t="s">
+      <c r="I495" t="s">
         <v>928</v>
       </c>
       <c r="J495" s="1">
@@ -19182,7 +19225,7 @@
       <c r="H496" t="s">
         <v>14</v>
       </c>
-      <c r="I496" s="2" t="s">
+      <c r="I496" t="s">
         <v>930</v>
       </c>
       <c r="J496" s="1">
@@ -19214,7 +19257,7 @@
       <c r="H497" t="s">
         <v>33</v>
       </c>
-      <c r="I497" s="2" t="s">
+      <c r="I497" t="s">
         <v>928</v>
       </c>
       <c r="J497" s="1">
@@ -19246,7 +19289,7 @@
       <c r="H498" t="s">
         <v>14</v>
       </c>
-      <c r="I498" s="2" t="s">
+      <c r="I498" t="s">
         <v>928</v>
       </c>
       <c r="J498" s="1">
@@ -19278,7 +19321,7 @@
       <c r="H499" t="s">
         <v>51</v>
       </c>
-      <c r="I499" s="2" t="s">
+      <c r="I499" t="s">
         <v>928</v>
       </c>
       <c r="J499" s="1">
@@ -19310,7 +19353,7 @@
       <c r="H500" t="s">
         <v>14</v>
       </c>
-      <c r="I500" s="2" t="s">
+      <c r="I500" t="s">
         <v>928</v>
       </c>
       <c r="J500" s="1">
@@ -19342,7 +19385,7 @@
       <c r="H501" t="s">
         <v>33</v>
       </c>
-      <c r="I501" s="2" t="s">
+      <c r="I501" t="s">
         <v>929</v>
       </c>
       <c r="J501" s="1">
@@ -19374,7 +19417,7 @@
       <c r="H502" t="s">
         <v>14</v>
       </c>
-      <c r="I502" s="2" t="s">
+      <c r="I502" t="s">
         <v>928</v>
       </c>
       <c r="J502" s="1">
@@ -19406,7 +19449,7 @@
       <c r="H503" t="s">
         <v>14</v>
       </c>
-      <c r="I503" s="2" t="s">
+      <c r="I503" t="s">
         <v>928</v>
       </c>
       <c r="J503" s="1">
@@ -19438,7 +19481,7 @@
       <c r="H504" t="s">
         <v>14</v>
       </c>
-      <c r="I504" s="2" t="s">
+      <c r="I504" t="s">
         <v>928</v>
       </c>
       <c r="J504" s="1">
@@ -19470,7 +19513,7 @@
       <c r="H505" t="s">
         <v>14</v>
       </c>
-      <c r="I505" s="2" t="s">
+      <c r="I505" t="s">
         <v>928</v>
       </c>
       <c r="J505" s="1">
@@ -19502,7 +19545,7 @@
       <c r="H506" t="s">
         <v>14</v>
       </c>
-      <c r="I506" s="2" t="s">
+      <c r="I506" t="s">
         <v>929</v>
       </c>
       <c r="J506" s="1">
@@ -19534,7 +19577,7 @@
       <c r="H507" t="s">
         <v>14</v>
       </c>
-      <c r="I507" s="2" t="s">
+      <c r="I507" t="s">
         <v>932</v>
       </c>
       <c r="J507" s="1">
@@ -19566,7 +19609,7 @@
       <c r="H508" t="s">
         <v>14</v>
       </c>
-      <c r="I508" s="2" t="s">
+      <c r="I508" t="s">
         <v>928</v>
       </c>
       <c r="J508" s="1">
@@ -19598,7 +19641,7 @@
       <c r="H509" t="s">
         <v>14</v>
       </c>
-      <c r="I509" s="2" t="s">
+      <c r="I509" t="s">
         <v>928</v>
       </c>
       <c r="J509" s="1">
@@ -19630,7 +19673,7 @@
       <c r="H510" t="s">
         <v>14</v>
       </c>
-      <c r="I510" s="2" t="s">
+      <c r="I510" t="s">
         <v>928</v>
       </c>
       <c r="J510" s="1">
@@ -19662,7 +19705,7 @@
       <c r="H511" t="s">
         <v>33</v>
       </c>
-      <c r="I511" s="2" t="s">
+      <c r="I511" t="s">
         <v>931</v>
       </c>
       <c r="J511" s="1">
@@ -19694,7 +19737,7 @@
       <c r="H512" t="s">
         <v>14</v>
       </c>
-      <c r="I512" s="2" t="s">
+      <c r="I512" t="s">
         <v>928</v>
       </c>
       <c r="J512" s="1">
@@ -19726,7 +19769,7 @@
       <c r="H513" t="s">
         <v>14</v>
       </c>
-      <c r="I513" s="2" t="s">
+      <c r="I513" t="s">
         <v>928</v>
       </c>
       <c r="J513" s="1">
@@ -19758,7 +19801,7 @@
       <c r="H514" t="s">
         <v>14</v>
       </c>
-      <c r="I514" s="2" t="s">
+      <c r="I514" t="s">
         <v>928</v>
       </c>
       <c r="J514" s="1">
@@ -19790,7 +19833,7 @@
       <c r="H515" t="s">
         <v>14</v>
       </c>
-      <c r="I515" s="2" t="s">
+      <c r="I515" t="s">
         <v>928</v>
       </c>
       <c r="J515" s="1">
@@ -19822,7 +19865,7 @@
       <c r="H516" t="s">
         <v>33</v>
       </c>
-      <c r="I516" s="2" t="s">
+      <c r="I516" t="s">
         <v>929</v>
       </c>
       <c r="J516" s="1">
@@ -19854,7 +19897,7 @@
       <c r="H517" t="s">
         <v>14</v>
       </c>
-      <c r="I517" s="2" t="s">
+      <c r="I517" t="s">
         <v>928</v>
       </c>
       <c r="J517" s="1">
@@ -19886,7 +19929,7 @@
       <c r="H518" t="s">
         <v>14</v>
       </c>
-      <c r="I518" s="2" t="s">
+      <c r="I518" t="s">
         <v>930</v>
       </c>
       <c r="J518" s="1">
@@ -19918,7 +19961,7 @@
       <c r="H519" t="s">
         <v>14</v>
       </c>
-      <c r="I519" s="2" t="s">
+      <c r="I519" t="s">
         <v>928</v>
       </c>
       <c r="J519" s="1">
@@ -19950,7 +19993,7 @@
       <c r="H520" t="s">
         <v>51</v>
       </c>
-      <c r="I520" s="2" t="s">
+      <c r="I520" t="s">
         <v>928</v>
       </c>
       <c r="J520" s="1">
@@ -19982,7 +20025,7 @@
       <c r="H521" t="s">
         <v>14</v>
       </c>
-      <c r="I521" s="2" t="s">
+      <c r="I521" t="s">
         <v>929</v>
       </c>
       <c r="J521" s="1">
@@ -20014,7 +20057,7 @@
       <c r="H522" t="s">
         <v>14</v>
       </c>
-      <c r="I522" s="2" t="s">
+      <c r="I522" t="s">
         <v>928</v>
       </c>
       <c r="J522" s="1">
@@ -20046,7 +20089,7 @@
       <c r="H523" t="s">
         <v>14</v>
       </c>
-      <c r="I523" s="2" t="s">
+      <c r="I523" t="s">
         <v>928</v>
       </c>
       <c r="J523" s="1">
@@ -20078,7 +20121,7 @@
       <c r="H524" t="s">
         <v>14</v>
       </c>
-      <c r="I524" s="2" t="s">
+      <c r="I524" t="s">
         <v>928</v>
       </c>
       <c r="J524" s="1">
@@ -20110,7 +20153,7 @@
       <c r="H525" t="s">
         <v>14</v>
       </c>
-      <c r="I525" s="2" t="s">
+      <c r="I525" t="s">
         <v>928</v>
       </c>
       <c r="J525" s="1">
@@ -20142,7 +20185,7 @@
       <c r="H526" t="s">
         <v>14</v>
       </c>
-      <c r="I526" s="2" t="s">
+      <c r="I526" t="s">
         <v>929</v>
       </c>
       <c r="J526" s="1">
@@ -20174,7 +20217,7 @@
       <c r="H527" t="s">
         <v>14</v>
       </c>
-      <c r="I527" s="2" t="s">
+      <c r="I527" t="s">
         <v>928</v>
       </c>
       <c r="J527" s="1">
@@ -20206,7 +20249,7 @@
       <c r="H528" t="s">
         <v>14</v>
       </c>
-      <c r="I528" s="2" t="s">
+      <c r="I528" t="s">
         <v>931</v>
       </c>
       <c r="J528" s="1">
@@ -20238,7 +20281,7 @@
       <c r="H529" t="s">
         <v>14</v>
       </c>
-      <c r="I529" s="2" t="s">
+      <c r="I529" t="s">
         <v>930</v>
       </c>
       <c r="J529" s="1">
@@ -20270,7 +20313,7 @@
       <c r="H530" t="s">
         <v>14</v>
       </c>
-      <c r="I530" s="2" t="s">
+      <c r="I530" t="s">
         <v>932</v>
       </c>
       <c r="J530" s="1">
@@ -20302,7 +20345,7 @@
       <c r="H531" t="s">
         <v>14</v>
       </c>
-      <c r="I531" s="2" t="s">
+      <c r="I531" t="s">
         <v>929</v>
       </c>
       <c r="J531" s="1">
@@ -20334,7 +20377,7 @@
       <c r="H532" t="s">
         <v>14</v>
       </c>
-      <c r="I532" s="2" t="s">
+      <c r="I532" t="s">
         <v>928</v>
       </c>
       <c r="J532" s="1">
@@ -20366,7 +20409,7 @@
       <c r="H533" t="s">
         <v>33</v>
       </c>
-      <c r="I533" s="2" t="s">
+      <c r="I533" t="s">
         <v>928</v>
       </c>
       <c r="J533" s="1">
@@ -20398,7 +20441,7 @@
       <c r="H534" t="s">
         <v>14</v>
       </c>
-      <c r="I534" s="2" t="s">
+      <c r="I534" t="s">
         <v>928</v>
       </c>
       <c r="J534" s="1">
@@ -20430,7 +20473,7 @@
       <c r="H535" t="s">
         <v>51</v>
       </c>
-      <c r="I535" s="2" t="s">
+      <c r="I535" t="s">
         <v>928</v>
       </c>
       <c r="J535" s="1">
@@ -20462,7 +20505,7 @@
       <c r="H536" t="s">
         <v>14</v>
       </c>
-      <c r="I536" s="2" t="s">
+      <c r="I536" t="s">
         <v>929</v>
       </c>
       <c r="J536" s="1">
@@ -20494,7 +20537,7 @@
       <c r="H537" t="s">
         <v>33</v>
       </c>
-      <c r="I537" s="2" t="s">
+      <c r="I537" t="s">
         <v>928</v>
       </c>
       <c r="J537" s="1">
@@ -20526,7 +20569,7 @@
       <c r="H538" t="s">
         <v>14</v>
       </c>
-      <c r="I538" s="2" t="s">
+      <c r="I538" t="s">
         <v>928</v>
       </c>
       <c r="J538" s="1">
@@ -20558,7 +20601,7 @@
       <c r="H539" t="s">
         <v>14</v>
       </c>
-      <c r="I539" s="2" t="s">
+      <c r="I539" t="s">
         <v>928</v>
       </c>
       <c r="J539" s="1">
@@ -20590,7 +20633,7 @@
       <c r="H540" t="s">
         <v>14</v>
       </c>
-      <c r="I540" s="2" t="s">
+      <c r="I540" t="s">
         <v>930</v>
       </c>
       <c r="J540" s="1">
@@ -20622,7 +20665,7 @@
       <c r="H541" t="s">
         <v>14</v>
       </c>
-      <c r="I541" s="2" t="s">
+      <c r="I541" t="s">
         <v>929</v>
       </c>
       <c r="J541" s="1">
@@ -20654,7 +20697,7 @@
       <c r="H542" t="s">
         <v>14</v>
       </c>
-      <c r="I542" s="2" t="s">
+      <c r="I542" t="s">
         <v>928</v>
       </c>
       <c r="J542" s="1">
@@ -20686,7 +20729,7 @@
       <c r="H543" t="s">
         <v>14</v>
       </c>
-      <c r="I543" s="2" t="s">
+      <c r="I543" t="s">
         <v>928</v>
       </c>
       <c r="J543" s="1">
@@ -20718,7 +20761,7 @@
       <c r="H544" t="s">
         <v>14</v>
       </c>
-      <c r="I544" s="2" t="s">
+      <c r="I544" t="s">
         <v>928</v>
       </c>
       <c r="J544" s="1">
@@ -20750,7 +20793,7 @@
       <c r="H545" t="s">
         <v>14</v>
       </c>
-      <c r="I545" s="2" t="s">
+      <c r="I545" t="s">
         <v>931</v>
       </c>
       <c r="J545" s="1">
@@ -20782,7 +20825,7 @@
       <c r="H546" t="s">
         <v>14</v>
       </c>
-      <c r="I546" s="2" t="s">
+      <c r="I546" t="s">
         <v>929</v>
       </c>
       <c r="J546" s="1">
@@ -20814,7 +20857,7 @@
       <c r="H547" t="s">
         <v>33</v>
       </c>
-      <c r="I547" s="2" t="s">
+      <c r="I547" t="s">
         <v>928</v>
       </c>
       <c r="J547" s="1">
@@ -20846,7 +20889,7 @@
       <c r="H548" t="s">
         <v>14</v>
       </c>
-      <c r="I548" s="2" t="s">
+      <c r="I548" t="s">
         <v>928</v>
       </c>
       <c r="J548" s="1">
@@ -20878,7 +20921,7 @@
       <c r="H549" t="s">
         <v>14</v>
       </c>
-      <c r="I549" s="2" t="s">
+      <c r="I549" t="s">
         <v>928</v>
       </c>
       <c r="J549" s="1">
@@ -20910,7 +20953,7 @@
       <c r="H550" t="s">
         <v>14</v>
       </c>
-      <c r="I550" s="2" t="s">
+      <c r="I550" t="s">
         <v>928</v>
       </c>
       <c r="J550" s="1">
@@ -20942,7 +20985,7 @@
       <c r="H551" t="s">
         <v>14</v>
       </c>
-      <c r="I551" s="2" t="s">
+      <c r="I551" t="s">
         <v>930</v>
       </c>
       <c r="J551" s="1">
@@ -20974,7 +21017,7 @@
       <c r="H552" t="s">
         <v>33</v>
       </c>
-      <c r="I552" s="2" t="s">
+      <c r="I552" t="s">
         <v>928</v>
       </c>
       <c r="J552" s="1">
@@ -21006,7 +21049,7 @@
       <c r="H553" t="s">
         <v>14</v>
       </c>
-      <c r="I553" s="2" t="s">
+      <c r="I553" t="s">
         <v>932</v>
       </c>
       <c r="J553" s="1">
@@ -21038,7 +21081,7 @@
       <c r="H554" t="s">
         <v>14</v>
       </c>
-      <c r="I554" s="2" t="s">
+      <c r="I554" t="s">
         <v>928</v>
       </c>
       <c r="J554" s="1">
@@ -21070,7 +21113,7 @@
       <c r="H555" t="s">
         <v>14</v>
       </c>
-      <c r="I555" s="2" t="s">
+      <c r="I555" t="s">
         <v>928</v>
       </c>
       <c r="J555" s="1">
@@ -21102,7 +21145,7 @@
       <c r="H556" t="s">
         <v>51</v>
       </c>
-      <c r="I556" s="2" t="s">
+      <c r="I556" t="s">
         <v>929</v>
       </c>
       <c r="J556" s="1">
@@ -21134,7 +21177,7 @@
       <c r="H557" t="s">
         <v>14</v>
       </c>
-      <c r="I557" s="2" t="s">
+      <c r="I557" t="s">
         <v>928</v>
       </c>
       <c r="J557" s="1">
@@ -21166,7 +21209,7 @@
       <c r="H558" t="s">
         <v>14</v>
       </c>
-      <c r="I558" s="2" t="s">
+      <c r="I558" t="s">
         <v>928</v>
       </c>
       <c r="J558" s="1">
@@ -21198,7 +21241,7 @@
       <c r="H559" t="s">
         <v>14</v>
       </c>
-      <c r="I559" s="2" t="s">
+      <c r="I559" t="s">
         <v>928</v>
       </c>
       <c r="J559" s="1">
@@ -21230,7 +21273,7 @@
       <c r="H560" t="s">
         <v>14</v>
       </c>
-      <c r="I560" s="2" t="s">
+      <c r="I560" t="s">
         <v>928</v>
       </c>
       <c r="J560" s="1">
@@ -21262,7 +21305,7 @@
       <c r="H561" t="s">
         <v>14</v>
       </c>
-      <c r="I561" s="2" t="s">
+      <c r="I561" t="s">
         <v>929</v>
       </c>
       <c r="J561" s="1">
@@ -21294,7 +21337,7 @@
       <c r="H562" t="s">
         <v>14</v>
       </c>
-      <c r="I562" s="2" t="s">
+      <c r="I562" t="s">
         <v>931</v>
       </c>
       <c r="J562" s="1">
@@ -21326,7 +21369,7 @@
       <c r="H563" t="s">
         <v>14</v>
       </c>
-      <c r="I563" s="2" t="s">
+      <c r="I563" t="s">
         <v>928</v>
       </c>
       <c r="J563" s="1">
@@ -21358,7 +21401,7 @@
       <c r="H564" t="s">
         <v>14</v>
       </c>
-      <c r="I564" s="2" t="s">
+      <c r="I564" t="s">
         <v>928</v>
       </c>
       <c r="J564" s="1">
@@ -21390,7 +21433,7 @@
       <c r="H565" t="s">
         <v>14</v>
       </c>
-      <c r="I565" s="2" t="s">
+      <c r="I565" t="s">
         <v>928</v>
       </c>
       <c r="J565" s="1">
@@ -21422,7 +21465,7 @@
       <c r="H566" t="s">
         <v>14</v>
       </c>
-      <c r="I566" s="2" t="s">
+      <c r="I566" t="s">
         <v>929</v>
       </c>
       <c r="J566" s="1">
@@ -21454,7 +21497,7 @@
       <c r="H567" t="s">
         <v>14</v>
       </c>
-      <c r="I567" s="2" t="s">
+      <c r="I567" t="s">
         <v>928</v>
       </c>
       <c r="J567" s="1">
@@ -21486,7 +21529,7 @@
       <c r="H568" t="s">
         <v>14</v>
       </c>
-      <c r="I568" s="2" t="s">
+      <c r="I568" t="s">
         <v>928</v>
       </c>
       <c r="J568" s="1">
@@ -21518,7 +21561,7 @@
       <c r="H569" t="s">
         <v>33</v>
       </c>
-      <c r="I569" s="2" t="s">
+      <c r="I569" t="s">
         <v>928</v>
       </c>
       <c r="J569" s="1">
@@ -21550,7 +21593,7 @@
       <c r="H570" t="s">
         <v>14</v>
       </c>
-      <c r="I570" s="2" t="s">
+      <c r="I570" t="s">
         <v>928</v>
       </c>
       <c r="J570" s="1">
@@ -21582,7 +21625,7 @@
       <c r="H571" t="s">
         <v>51</v>
       </c>
-      <c r="I571" s="2" t="s">
+      <c r="I571" t="s">
         <v>929</v>
       </c>
       <c r="J571" s="1">
@@ -21614,7 +21657,7 @@
       <c r="H572" t="s">
         <v>14</v>
       </c>
-      <c r="I572" s="2" t="s">
+      <c r="I572" t="s">
         <v>928</v>
       </c>
       <c r="J572" s="1">
@@ -21646,7 +21689,7 @@
       <c r="H573" t="s">
         <v>33</v>
       </c>
-      <c r="I573" s="2" t="s">
+      <c r="I573" t="s">
         <v>930</v>
       </c>
       <c r="J573" s="1">
@@ -21678,7 +21721,7 @@
       <c r="H574" t="s">
         <v>14</v>
       </c>
-      <c r="I574" s="2" t="s">
+      <c r="I574" t="s">
         <v>928</v>
       </c>
       <c r="J574" s="1">
@@ -21710,7 +21753,7 @@
       <c r="H575" t="s">
         <v>14</v>
       </c>
-      <c r="I575" s="2" t="s">
+      <c r="I575" t="s">
         <v>928</v>
       </c>
       <c r="J575" s="1">
@@ -21742,7 +21785,7 @@
       <c r="H576" t="s">
         <v>14</v>
       </c>
-      <c r="I576" s="2" t="s">
+      <c r="I576" t="s">
         <v>932</v>
       </c>
       <c r="J576" s="1">
@@ -21774,7 +21817,7 @@
       <c r="H577" t="s">
         <v>14</v>
       </c>
-      <c r="I577" s="2" t="s">
+      <c r="I577" t="s">
         <v>928</v>
       </c>
       <c r="J577" s="1">
@@ -21806,7 +21849,7 @@
       <c r="H578" t="s">
         <v>14</v>
       </c>
-      <c r="I578" s="2" t="s">
+      <c r="I578" t="s">
         <v>928</v>
       </c>
       <c r="J578" s="1">
@@ -21838,7 +21881,7 @@
       <c r="H579" t="s">
         <v>14</v>
       </c>
-      <c r="I579" s="2" t="s">
+      <c r="I579" t="s">
         <v>931</v>
       </c>
       <c r="J579" s="1">
@@ -21870,7 +21913,7 @@
       <c r="H580" t="s">
         <v>14</v>
       </c>
-      <c r="I580" s="2" t="s">
+      <c r="I580" t="s">
         <v>928</v>
       </c>
       <c r="J580" s="1">
@@ -21902,7 +21945,7 @@
       <c r="H581" t="s">
         <v>14</v>
       </c>
-      <c r="I581" s="2" t="s">
+      <c r="I581" t="s">
         <v>929</v>
       </c>
       <c r="J581" s="1">
@@ -21934,7 +21977,7 @@
       <c r="H582" t="s">
         <v>14</v>
       </c>
-      <c r="I582" s="2" t="s">
+      <c r="I582" t="s">
         <v>928</v>
       </c>
       <c r="J582" s="1">
@@ -21966,7 +22009,7 @@
       <c r="H583" t="s">
         <v>33</v>
       </c>
-      <c r="I583" s="2" t="s">
+      <c r="I583" t="s">
         <v>928</v>
       </c>
       <c r="J583" s="1">
@@ -21998,7 +22041,7 @@
       <c r="H584" t="s">
         <v>14</v>
       </c>
-      <c r="I584" s="2" t="s">
+      <c r="I584" t="s">
         <v>930</v>
       </c>
       <c r="J584" s="1">
@@ -22030,7 +22073,7 @@
       <c r="H585" t="s">
         <v>14</v>
       </c>
-      <c r="I585" s="2" t="s">
+      <c r="I585" t="s">
         <v>928</v>
       </c>
       <c r="J585" s="1">
@@ -22062,7 +22105,7 @@
       <c r="H586" t="s">
         <v>14</v>
       </c>
-      <c r="I586" s="2" t="s">
+      <c r="I586" t="s">
         <v>929</v>
       </c>
       <c r="J586" s="1">
@@ -22094,7 +22137,7 @@
       <c r="H587" t="s">
         <v>14</v>
       </c>
-      <c r="I587" s="2" t="s">
+      <c r="I587" t="s">
         <v>928</v>
       </c>
       <c r="J587" s="1">
@@ -22126,7 +22169,7 @@
       <c r="H588" t="s">
         <v>33</v>
       </c>
-      <c r="I588" s="2" t="s">
+      <c r="I588" t="s">
         <v>928</v>
       </c>
       <c r="J588" s="1">
@@ -22158,7 +22201,7 @@
       <c r="H589" t="s">
         <v>14</v>
       </c>
-      <c r="I589" s="2" t="s">
+      <c r="I589" t="s">
         <v>928</v>
       </c>
       <c r="J589" s="1">
@@ -22190,7 +22233,7 @@
       <c r="H590" t="s">
         <v>14</v>
       </c>
-      <c r="I590" s="2" t="s">
+      <c r="I590" t="s">
         <v>928</v>
       </c>
       <c r="J590" s="1">
@@ -22222,7 +22265,7 @@
       <c r="H591" t="s">
         <v>14</v>
       </c>
-      <c r="I591" s="2" t="s">
+      <c r="I591" t="s">
         <v>929</v>
       </c>
       <c r="J591" s="1">
@@ -22254,7 +22297,7 @@
       <c r="H592" t="s">
         <v>51</v>
       </c>
-      <c r="I592" s="2" t="s">
+      <c r="I592" t="s">
         <v>928</v>
       </c>
       <c r="J592" s="1">
@@ -22286,7 +22329,7 @@
       <c r="H593" t="s">
         <v>14</v>
       </c>
-      <c r="I593" s="2" t="s">
+      <c r="I593" t="s">
         <v>928</v>
       </c>
       <c r="J593" s="1">
@@ -22318,7 +22361,7 @@
       <c r="H594" t="s">
         <v>14</v>
       </c>
-      <c r="I594" s="2" t="s">
+      <c r="I594" t="s">
         <v>928</v>
       </c>
       <c r="J594" s="1">
@@ -22350,7 +22393,7 @@
       <c r="H595" t="s">
         <v>14</v>
       </c>
-      <c r="I595" s="2" t="s">
+      <c r="I595" t="s">
         <v>930</v>
       </c>
       <c r="J595" s="1">
@@ -22382,7 +22425,7 @@
       <c r="H596" t="s">
         <v>14</v>
       </c>
-      <c r="I596" s="2" t="s">
+      <c r="I596" t="s">
         <v>931</v>
       </c>
       <c r="J596" s="1">
@@ -22414,7 +22457,7 @@
       <c r="H597" t="s">
         <v>14</v>
       </c>
-      <c r="I597" s="2" t="s">
+      <c r="I597" t="s">
         <v>928</v>
       </c>
       <c r="J597" s="1">
@@ -22446,7 +22489,7 @@
       <c r="H598" t="s">
         <v>14</v>
       </c>
-      <c r="I598" s="2" t="s">
+      <c r="I598" t="s">
         <v>928</v>
       </c>
       <c r="J598" s="1">
@@ -22478,7 +22521,7 @@
       <c r="H599" t="s">
         <v>14</v>
       </c>
-      <c r="I599" s="2" t="s">
+      <c r="I599" t="s">
         <v>932</v>
       </c>
       <c r="J599" s="1">
@@ -22510,7 +22553,7 @@
       <c r="H600" t="s">
         <v>14</v>
       </c>
-      <c r="I600" s="2" t="s">
+      <c r="I600" t="s">
         <v>928</v>
       </c>
       <c r="J600" s="1">
@@ -22542,7 +22585,7 @@
       <c r="H601" t="s">
         <v>14</v>
       </c>
-      <c r="I601" s="2" t="s">
+      <c r="I601" t="s">
         <v>929</v>
       </c>
       <c r="J601" s="1">
@@ -22574,7 +22617,7 @@
       <c r="H602" t="s">
         <v>14</v>
       </c>
-      <c r="I602" s="2" t="s">
+      <c r="I602" t="s">
         <v>928</v>
       </c>
       <c r="J602" s="1">
@@ -22606,7 +22649,7 @@
       <c r="H603" t="s">
         <v>14</v>
       </c>
-      <c r="I603" s="2" t="s">
+      <c r="I603" t="s">
         <v>928</v>
       </c>
       <c r="J603" s="1">
@@ -22638,7 +22681,7 @@
       <c r="H604" t="s">
         <v>14</v>
       </c>
-      <c r="I604" s="2" t="s">
+      <c r="I604" t="s">
         <v>928</v>
       </c>
       <c r="J604" s="1">
@@ -22670,7 +22713,7 @@
       <c r="H605" t="s">
         <v>33</v>
       </c>
-      <c r="I605" s="2" t="s">
+      <c r="I605" t="s">
         <v>928</v>
       </c>
       <c r="J605" s="1">
@@ -22702,7 +22745,7 @@
       <c r="H606" t="s">
         <v>14</v>
       </c>
-      <c r="I606" s="2" t="s">
+      <c r="I606" t="s">
         <v>930</v>
       </c>
       <c r="J606" s="1">
@@ -22734,7 +22777,7 @@
       <c r="H607" t="s">
         <v>51</v>
       </c>
-      <c r="I607" s="2" t="s">
+      <c r="I607" t="s">
         <v>928</v>
       </c>
       <c r="J607" s="1">
@@ -22766,7 +22809,7 @@
       <c r="H608" t="s">
         <v>14</v>
       </c>
-      <c r="I608" s="2" t="s">
+      <c r="I608" t="s">
         <v>928</v>
       </c>
       <c r="J608" s="1">
@@ -22798,7 +22841,7 @@
       <c r="H609" t="s">
         <v>33</v>
       </c>
-      <c r="I609" s="2" t="s">
+      <c r="I609" t="s">
         <v>928</v>
       </c>
       <c r="J609" s="1">
@@ -22830,7 +22873,7 @@
       <c r="H610" t="s">
         <v>14</v>
       </c>
-      <c r="I610" s="2" t="s">
+      <c r="I610" t="s">
         <v>928</v>
       </c>
       <c r="J610" s="1">
@@ -22862,7 +22905,7 @@
       <c r="H611" t="s">
         <v>14</v>
       </c>
-      <c r="I611" s="2" t="s">
+      <c r="I611" t="s">
         <v>929</v>
       </c>
       <c r="J611" s="1">
@@ -22894,7 +22937,7 @@
       <c r="H612" t="s">
         <v>14</v>
       </c>
-      <c r="I612" s="2" t="s">
+      <c r="I612" t="s">
         <v>928</v>
       </c>
       <c r="J612" s="1">
@@ -22926,7 +22969,7 @@
       <c r="H613" t="s">
         <v>14</v>
       </c>
-      <c r="I613" s="2" t="s">
+      <c r="I613" t="s">
         <v>931</v>
       </c>
       <c r="J613" s="1">
@@ -22958,7 +23001,7 @@
       <c r="H614" t="s">
         <v>14</v>
       </c>
-      <c r="I614" s="2" t="s">
+      <c r="I614" t="s">
         <v>928</v>
       </c>
       <c r="J614" s="1">
@@ -22990,7 +23033,7 @@
       <c r="H615" t="s">
         <v>14</v>
       </c>
-      <c r="I615" s="2" t="s">
+      <c r="I615" t="s">
         <v>928</v>
       </c>
       <c r="J615" s="1">
@@ -23022,7 +23065,7 @@
       <c r="H616" t="s">
         <v>14</v>
       </c>
-      <c r="I616" s="2" t="s">
+      <c r="I616" t="s">
         <v>929</v>
       </c>
       <c r="J616" s="1">
@@ -23054,7 +23097,7 @@
       <c r="H617" t="s">
         <v>14</v>
       </c>
-      <c r="I617" s="2" t="s">
+      <c r="I617" t="s">
         <v>930</v>
       </c>
       <c r="J617" s="1">
@@ -23086,7 +23129,7 @@
       <c r="H618" t="s">
         <v>14</v>
       </c>
-      <c r="I618" s="2" t="s">
+      <c r="I618" t="s">
         <v>928</v>
       </c>
       <c r="J618" s="1">
@@ -23118,7 +23161,7 @@
       <c r="H619" t="s">
         <v>33</v>
       </c>
-      <c r="I619" s="2" t="s">
+      <c r="I619" t="s">
         <v>928</v>
       </c>
       <c r="J619" s="1">
@@ -23150,7 +23193,7 @@
       <c r="H620" t="s">
         <v>14</v>
       </c>
-      <c r="I620" s="2" t="s">
+      <c r="I620" t="s">
         <v>928</v>
       </c>
       <c r="J620" s="1">
@@ -23182,7 +23225,7 @@
       <c r="H621" t="s">
         <v>14</v>
       </c>
-      <c r="I621" s="2" t="s">
+      <c r="I621" t="s">
         <v>929</v>
       </c>
       <c r="J621" s="1">
@@ -23214,7 +23257,7 @@
       <c r="H622" t="s">
         <v>14</v>
       </c>
-      <c r="I622" s="2" t="s">
+      <c r="I622" t="s">
         <v>932</v>
       </c>
       <c r="J622" s="1">
@@ -23246,7 +23289,7 @@
       <c r="H623" t="s">
         <v>14</v>
       </c>
-      <c r="I623" s="2" t="s">
+      <c r="I623" t="s">
         <v>928</v>
       </c>
       <c r="J623" s="1">
@@ -23278,7 +23321,7 @@
       <c r="H624" t="s">
         <v>33</v>
       </c>
-      <c r="I624" s="2" t="s">
+      <c r="I624" t="s">
         <v>928</v>
       </c>
       <c r="J624" s="1">
@@ -23310,7 +23353,7 @@
       <c r="H625" t="s">
         <v>14</v>
       </c>
-      <c r="I625" s="2" t="s">
+      <c r="I625" t="s">
         <v>928</v>
       </c>
       <c r="J625" s="1">
@@ -23342,7 +23385,7 @@
       <c r="H626" t="s">
         <v>14</v>
       </c>
-      <c r="I626" s="2" t="s">
+      <c r="I626" t="s">
         <v>929</v>
       </c>
       <c r="J626" s="1">
@@ -23374,7 +23417,7 @@
       <c r="H627" t="s">
         <v>14</v>
       </c>
-      <c r="I627" s="2" t="s">
+      <c r="I627" t="s">
         <v>928</v>
       </c>
       <c r="J627" s="1">
@@ -23406,7 +23449,7 @@
       <c r="H628" t="s">
         <v>51</v>
       </c>
-      <c r="I628" s="2" t="s">
+      <c r="I628" t="s">
         <v>930</v>
       </c>
       <c r="J628" s="1">
@@ -23438,7 +23481,7 @@
       <c r="H629" t="s">
         <v>14</v>
       </c>
-      <c r="I629" s="2" t="s">
+      <c r="I629" t="s">
         <v>928</v>
       </c>
       <c r="J629" s="1">
@@ -23470,7 +23513,7 @@
       <c r="H630" t="s">
         <v>14</v>
       </c>
-      <c r="I630" s="2" t="s">
+      <c r="I630" t="s">
         <v>931</v>
       </c>
       <c r="J630" s="1">
@@ -23502,7 +23545,7 @@
       <c r="H631" t="s">
         <v>14</v>
       </c>
-      <c r="I631" s="2" t="s">
+      <c r="I631" t="s">
         <v>929</v>
       </c>
       <c r="J631" s="1">
@@ -23534,7 +23577,7 @@
       <c r="H632" t="s">
         <v>14</v>
       </c>
-      <c r="I632" s="2" t="s">
+      <c r="I632" t="s">
         <v>928</v>
       </c>
       <c r="J632" s="1">
@@ -23566,7 +23609,7 @@
       <c r="H633" t="s">
         <v>14</v>
       </c>
-      <c r="I633" s="2" t="s">
+      <c r="I633" t="s">
         <v>928</v>
       </c>
       <c r="J633" s="1">
@@ -23598,7 +23641,7 @@
       <c r="H634" t="s">
         <v>14</v>
       </c>
-      <c r="I634" s="2" t="s">
+      <c r="I634" t="s">
         <v>928</v>
       </c>
       <c r="J634" s="1">
@@ -23630,7 +23673,7 @@
       <c r="H635" t="s">
         <v>14</v>
       </c>
-      <c r="I635" s="2" t="s">
+      <c r="I635" t="s">
         <v>928</v>
       </c>
       <c r="J635" s="1">
@@ -23662,7 +23705,7 @@
       <c r="H636" t="s">
         <v>14</v>
       </c>
-      <c r="I636" s="2" t="s">
+      <c r="I636" t="s">
         <v>929</v>
       </c>
       <c r="J636" s="1">
@@ -23694,7 +23737,7 @@
       <c r="H637" t="s">
         <v>14</v>
       </c>
-      <c r="I637" s="2" t="s">
+      <c r="I637" t="s">
         <v>928</v>
       </c>
       <c r="J637" s="1">
@@ -23726,7 +23769,7 @@
       <c r="H638" t="s">
         <v>14</v>
       </c>
-      <c r="I638" s="2" t="s">
+      <c r="I638" t="s">
         <v>928</v>
       </c>
       <c r="J638" s="1">
@@ -23758,7 +23801,7 @@
       <c r="H639" t="s">
         <v>14</v>
       </c>
-      <c r="I639" s="2" t="s">
+      <c r="I639" t="s">
         <v>930</v>
       </c>
       <c r="J639" s="1">
@@ -23790,7 +23833,7 @@
       <c r="H640" t="s">
         <v>14</v>
       </c>
-      <c r="I640" s="2" t="s">
+      <c r="I640" t="s">
         <v>928</v>
       </c>
       <c r="J640" s="1">
@@ -23822,7 +23865,7 @@
       <c r="H641" t="s">
         <v>33</v>
       </c>
-      <c r="I641" s="2" t="s">
+      <c r="I641" t="s">
         <v>929</v>
       </c>
       <c r="J641" s="1">
@@ -23854,7 +23897,7 @@
       <c r="H642" t="s">
         <v>14</v>
       </c>
-      <c r="I642" s="2" t="s">
+      <c r="I642" t="s">
         <v>928</v>
       </c>
       <c r="J642" s="1">
@@ -23886,7 +23929,7 @@
       <c r="H643" t="s">
         <v>51</v>
       </c>
-      <c r="I643" s="2" t="s">
+      <c r="I643" t="s">
         <v>928</v>
       </c>
       <c r="J643" s="1">
@@ -23918,7 +23961,7 @@
       <c r="H644" t="s">
         <v>14</v>
       </c>
-      <c r="I644" s="2" t="s">
+      <c r="I644" t="s">
         <v>928</v>
       </c>
       <c r="J644" s="1">
@@ -23950,7 +23993,7 @@
       <c r="H645" t="s">
         <v>33</v>
       </c>
-      <c r="I645" s="2" t="s">
+      <c r="I645" t="s">
         <v>932</v>
       </c>
       <c r="J645" s="1">
@@ -23982,7 +24025,7 @@
       <c r="H646" t="s">
         <v>14</v>
       </c>
-      <c r="I646" s="2" t="s">
+      <c r="I646" t="s">
         <v>929</v>
       </c>
       <c r="J646" s="1">
@@ -24014,7 +24057,7 @@
       <c r="H647" t="s">
         <v>14</v>
       </c>
-      <c r="I647" s="2" t="s">
+      <c r="I647" t="s">
         <v>931</v>
       </c>
       <c r="J647" s="1">
@@ -24046,7 +24089,7 @@
       <c r="H648" t="s">
         <v>14</v>
       </c>
-      <c r="I648" s="2" t="s">
+      <c r="I648" t="s">
         <v>928</v>
       </c>
       <c r="J648" s="1">
@@ -24078,7 +24121,7 @@
       <c r="H649" t="s">
         <v>14</v>
       </c>
-      <c r="I649" s="2" t="s">
+      <c r="I649" t="s">
         <v>928</v>
       </c>
       <c r="J649" s="1">
@@ -24110,7 +24153,7 @@
       <c r="H650" t="s">
         <v>14</v>
       </c>
-      <c r="I650" s="2" t="s">
+      <c r="I650" t="s">
         <v>930</v>
       </c>
       <c r="J650" s="1">
@@ -24142,7 +24185,7 @@
       <c r="H651" t="s">
         <v>14</v>
       </c>
-      <c r="I651" s="2" t="s">
+      <c r="I651" t="s">
         <v>929</v>
       </c>
       <c r="J651" s="1">
@@ -24174,7 +24217,7 @@
       <c r="H652" t="s">
         <v>14</v>
       </c>
-      <c r="I652" s="2" t="s">
+      <c r="I652" t="s">
         <v>928</v>
       </c>
       <c r="J652" s="1">
@@ -24206,7 +24249,7 @@
       <c r="H653" t="s">
         <v>14</v>
       </c>
-      <c r="I653" s="2" t="s">
+      <c r="I653" t="s">
         <v>928</v>
       </c>
       <c r="J653" s="1">
@@ -24238,7 +24281,7 @@
       <c r="H654" t="s">
         <v>14</v>
       </c>
-      <c r="I654" s="2" t="s">
+      <c r="I654" t="s">
         <v>928</v>
       </c>
       <c r="J654" s="1">
@@ -24270,7 +24313,7 @@
       <c r="H655" t="s">
         <v>33</v>
       </c>
-      <c r="I655" s="2" t="s">
+      <c r="I655" t="s">
         <v>928</v>
       </c>
       <c r="J655" s="1">
@@ -24302,7 +24345,7 @@
       <c r="H656" t="s">
         <v>14</v>
       </c>
-      <c r="I656" s="2" t="s">
+      <c r="I656" t="s">
         <v>929</v>
       </c>
       <c r="J656" s="1">
@@ -24334,7 +24377,7 @@
       <c r="H657" t="s">
         <v>14</v>
       </c>
-      <c r="I657" s="2" t="s">
+      <c r="I657" t="s">
         <v>928</v>
       </c>
       <c r="J657" s="1">
@@ -24366,7 +24409,7 @@
       <c r="H658" t="s">
         <v>14</v>
       </c>
-      <c r="I658" s="2" t="s">
+      <c r="I658" t="s">
         <v>928</v>
       </c>
       <c r="J658" s="1">
@@ -24398,7 +24441,7 @@
       <c r="H659" t="s">
         <v>14</v>
       </c>
-      <c r="I659" s="2" t="s">
+      <c r="I659" t="s">
         <v>928</v>
       </c>
       <c r="J659" s="1">
@@ -24430,7 +24473,7 @@
       <c r="H660" t="s">
         <v>33</v>
       </c>
-      <c r="I660" s="2" t="s">
+      <c r="I660" t="s">
         <v>928</v>
       </c>
       <c r="J660" s="1">
@@ -24462,7 +24505,7 @@
       <c r="H661" t="s">
         <v>14</v>
       </c>
-      <c r="I661" s="2" t="s">
+      <c r="I661" t="s">
         <v>930</v>
       </c>
       <c r="J661" s="1">
@@ -24494,7 +24537,7 @@
       <c r="H662" t="s">
         <v>14</v>
       </c>
-      <c r="I662" s="2" t="s">
+      <c r="I662" t="s">
         <v>928</v>
       </c>
       <c r="J662" s="1">
@@ -24526,7 +24569,7 @@
       <c r="H663" t="s">
         <v>14</v>
       </c>
-      <c r="I663" s="2" t="s">
+      <c r="I663" t="s">
         <v>928</v>
       </c>
       <c r="J663" s="1">
@@ -24558,7 +24601,7 @@
       <c r="H664" t="s">
         <v>51</v>
       </c>
-      <c r="I664" s="2" t="s">
+      <c r="I664" t="s">
         <v>931</v>
       </c>
       <c r="J664" s="1">
@@ -24590,7 +24633,7 @@
       <c r="H665" t="s">
         <v>14</v>
       </c>
-      <c r="I665" s="2" t="s">
+      <c r="I665" t="s">
         <v>928</v>
       </c>
       <c r="J665" s="1">
@@ -24622,7 +24665,7 @@
       <c r="H666" t="s">
         <v>14</v>
       </c>
-      <c r="I666" s="2" t="s">
+      <c r="I666" t="s">
         <v>929</v>
       </c>
       <c r="J666" s="1">
@@ -24654,7 +24697,7 @@
       <c r="H667" t="s">
         <v>14</v>
       </c>
-      <c r="I667" s="2" t="s">
+      <c r="I667" t="s">
         <v>928</v>
       </c>
       <c r="J667" s="1">
@@ -24686,7 +24729,7 @@
       <c r="H668" t="s">
         <v>14</v>
       </c>
-      <c r="I668" s="2" t="s">
+      <c r="I668" t="s">
         <v>932</v>
       </c>
       <c r="J668" s="1">
@@ -24718,7 +24761,7 @@
       <c r="H669" t="s">
         <v>14</v>
       </c>
-      <c r="I669" s="2" t="s">
+      <c r="I669" t="s">
         <v>928</v>
       </c>
       <c r="J669" s="1">
@@ -24750,7 +24793,7 @@
       <c r="H670" t="s">
         <v>14</v>
       </c>
-      <c r="I670" s="2" t="s">
+      <c r="I670" t="s">
         <v>928</v>
       </c>
       <c r="J670" s="1">
@@ -24782,7 +24825,7 @@
       <c r="H671" t="s">
         <v>14</v>
       </c>
-      <c r="I671" s="2" t="s">
+      <c r="I671" t="s">
         <v>929</v>
       </c>
       <c r="J671" s="1">
@@ -24814,7 +24857,7 @@
       <c r="H672" t="s">
         <v>14</v>
       </c>
-      <c r="I672" s="2" t="s">
+      <c r="I672" t="s">
         <v>930</v>
       </c>
       <c r="J672" s="1">
@@ -24846,7 +24889,7 @@
       <c r="H673" t="s">
         <v>14</v>
       </c>
-      <c r="I673" s="2" t="s">
+      <c r="I673" t="s">
         <v>928</v>
       </c>
       <c r="J673" s="1">
@@ -24878,7 +24921,7 @@
       <c r="H674" t="s">
         <v>14</v>
       </c>
-      <c r="I674" s="2" t="s">
+      <c r="I674" t="s">
         <v>928</v>
       </c>
       <c r="J674" s="1">
@@ -24910,7 +24953,7 @@
       <c r="H675" t="s">
         <v>14</v>
       </c>
-      <c r="I675" s="2" t="s">
+      <c r="I675" t="s">
         <v>928</v>
       </c>
       <c r="J675" s="1">
@@ -24942,7 +24985,7 @@
       <c r="H676" t="s">
         <v>14</v>
       </c>
-      <c r="I676" s="2" t="s">
+      <c r="I676" t="s">
         <v>929</v>
       </c>
       <c r="J676" s="1">
@@ -24974,7 +25017,7 @@
       <c r="H677" t="s">
         <v>33</v>
       </c>
-      <c r="I677" s="2" t="s">
+      <c r="I677" t="s">
         <v>928</v>
       </c>
       <c r="J677" s="1">
@@ -25006,7 +25049,7 @@
       <c r="H678" t="s">
         <v>14</v>
       </c>
-      <c r="I678" s="2" t="s">
+      <c r="I678" t="s">
         <v>928</v>
       </c>
       <c r="J678" s="1">
@@ -25038,7 +25081,7 @@
       <c r="H679" t="s">
         <v>51</v>
       </c>
-      <c r="I679" s="2" t="s">
+      <c r="I679" t="s">
         <v>928</v>
       </c>
       <c r="J679" s="1">
@@ -25070,7 +25113,7 @@
       <c r="H680" t="s">
         <v>14</v>
       </c>
-      <c r="I680" s="2" t="s">
+      <c r="I680" t="s">
         <v>928</v>
       </c>
       <c r="J680" s="1">
@@ -25102,7 +25145,7 @@
       <c r="H681" t="s">
         <v>33</v>
       </c>
-      <c r="I681" s="2" t="s">
+      <c r="I681" t="s">
         <v>931</v>
       </c>
       <c r="J681" s="1">
@@ -25134,7 +25177,7 @@
       <c r="H682" t="s">
         <v>14</v>
       </c>
-      <c r="I682" s="2" t="s">
+      <c r="I682" t="s">
         <v>928</v>
       </c>
       <c r="J682" s="1">
@@ -25166,7 +25209,7 @@
       <c r="H683" t="s">
         <v>14</v>
       </c>
-      <c r="I683" s="2" t="s">
+      <c r="I683" t="s">
         <v>930</v>
       </c>
       <c r="J683" s="1">
@@ -25198,7 +25241,7 @@
       <c r="H684" t="s">
         <v>14</v>
       </c>
-      <c r="I684" s="2" t="s">
+      <c r="I684" t="s">
         <v>928</v>
       </c>
       <c r="J684" s="1">
@@ -25230,7 +25273,7 @@
       <c r="H685" t="s">
         <v>14</v>
       </c>
-      <c r="I685" s="2" t="s">
+      <c r="I685" t="s">
         <v>928</v>
       </c>
       <c r="J685" s="1">
@@ -25262,7 +25305,7 @@
       <c r="H686" t="s">
         <v>14</v>
       </c>
-      <c r="I686" s="2" t="s">
+      <c r="I686" t="s">
         <v>929</v>
       </c>
       <c r="J686" s="1">
@@ -25294,7 +25337,7 @@
       <c r="H687" t="s">
         <v>14</v>
       </c>
-      <c r="I687" s="2" t="s">
+      <c r="I687" t="s">
         <v>928</v>
       </c>
       <c r="J687" s="1">
@@ -25326,7 +25369,7 @@
       <c r="H688" t="s">
         <v>14</v>
       </c>
-      <c r="I688" s="2" t="s">
+      <c r="I688" t="s">
         <v>928</v>
       </c>
       <c r="J688" s="1">
@@ -25358,7 +25401,7 @@
       <c r="H689" t="s">
         <v>14</v>
       </c>
-      <c r="I689" s="2" t="s">
+      <c r="I689" t="s">
         <v>928</v>
       </c>
       <c r="J689" s="1">
@@ -25390,7 +25433,7 @@
       <c r="H690" t="s">
         <v>14</v>
       </c>
-      <c r="I690" s="2" t="s">
+      <c r="I690" t="s">
         <v>928</v>
       </c>
       <c r="J690" s="1">
@@ -25422,7 +25465,7 @@
       <c r="H691" t="s">
         <v>33</v>
       </c>
-      <c r="I691" s="2" t="s">
+      <c r="I691" t="s">
         <v>932</v>
       </c>
       <c r="J691" s="1">
@@ -25454,7 +25497,7 @@
       <c r="H692" t="s">
         <v>14</v>
       </c>
-      <c r="I692" s="2" t="s">
+      <c r="I692" t="s">
         <v>928</v>
       </c>
       <c r="J692" s="1">
@@ -25486,7 +25529,7 @@
       <c r="H693" t="s">
         <v>14</v>
       </c>
-      <c r="I693" s="2" t="s">
+      <c r="I693" t="s">
         <v>928</v>
       </c>
       <c r="J693" s="1">
@@ -25518,7 +25561,7 @@
       <c r="H694" t="s">
         <v>14</v>
       </c>
-      <c r="I694" s="2" t="s">
+      <c r="I694" t="s">
         <v>930</v>
       </c>
       <c r="J694" s="1">
@@ -25550,7 +25593,7 @@
       <c r="H695" t="s">
         <v>14</v>
       </c>
-      <c r="I695" s="2" t="s">
+      <c r="I695" t="s">
         <v>928</v>
       </c>
       <c r="J695" s="1">
@@ -25582,7 +25625,7 @@
       <c r="H696" t="s">
         <v>33</v>
       </c>
-      <c r="I696" s="2" t="s">
+      <c r="I696" t="s">
         <v>929</v>
       </c>
       <c r="J696" s="1">
@@ -25614,7 +25657,7 @@
       <c r="H697" t="s">
         <v>14</v>
       </c>
-      <c r="I697" s="2" t="s">
+      <c r="I697" t="s">
         <v>928</v>
       </c>
       <c r="J697" s="1">
@@ -25646,7 +25689,7 @@
       <c r="H698" t="s">
         <v>14</v>
       </c>
-      <c r="I698" s="2" t="s">
+      <c r="I698" t="s">
         <v>931</v>
       </c>
       <c r="J698" s="1">
@@ -25678,7 +25721,7 @@
       <c r="H699" t="s">
         <v>14</v>
       </c>
-      <c r="I699" s="2" t="s">
+      <c r="I699" t="s">
         <v>928</v>
       </c>
       <c r="J699" s="1">
@@ -25710,7 +25753,7 @@
       <c r="H700" t="s">
         <v>51</v>
       </c>
-      <c r="I700" s="2" t="s">
+      <c r="I700" t="s">
         <v>928</v>
       </c>
       <c r="J700" s="1">
@@ -25742,7 +25785,7 @@
       <c r="H701" t="s">
         <v>14</v>
       </c>
-      <c r="I701" s="2" t="s">
+      <c r="I701" t="s">
         <v>929</v>
       </c>
       <c r="J701" s="1">
@@ -25750,26 +25793,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D701">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Hardware"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D701">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"Software"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D701">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"Licensing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D701">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>"Other"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
